--- a/Samples/003_Cascading_Selects.xlsx
+++ b/Samples/003_Cascading_Selects.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchell\Documents\Survey123 Samples and Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\Survey123templates\Survey123Community\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13180" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11590" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="935">
   <si>
     <t>type</t>
   </si>
@@ -2821,6 +2821,12 @@
   </si>
   <si>
     <t>default_language</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>Applies to integer and decimal fields. Displays a custom calculator widget.</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +2939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2948,21 +2954,6 @@
         <color theme="6"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2995,7 +2986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3092,9 +3083,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3143,7 +3131,39 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3284,15 +3304,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:W236" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:W236" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:W236"/>
   <tableColumns count="23">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="4"/>
-    <tableColumn id="4" name="hint" dataDxfId="3"/>
+    <tableColumn id="3" name="label" dataDxfId="8"/>
+    <tableColumn id="4" name="hint" dataDxfId="7"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="6"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3625,7 +3645,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3667,7 +3687,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3782,25 +3802,25 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>256</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>262</v>
       </c>
       <c r="G3" s="1"/>
@@ -3808,7 +3828,7 @@
       <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -3817,7 +3837,7 @@
       <c r="B4" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>264</v>
       </c>
       <c r="I4" t="s">
@@ -3832,7 +3852,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" s="34"/>
+      <c r="C5" s="33"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3850,7 +3870,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="B6:B233">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="19">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C1048576"/>
@@ -3868,7 +3888,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Localization - Hint" prompt="Enter translations for your survey question hints here. Include any further translations by creating a new column (e.g., hint::Chinese). The list of languages will appear in a drop-down menu on the survey." sqref="Q1:Q1048576 N4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Calculation" prompt="Perform calculations using the values of preceeding questions (e.g., ${number}*100). Reference the calculate field to display the result (e.g., The answer is ${calc}). " sqref="M1:M1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:fieldLength" prompt="Define the target field length in the feature service. This can be used to overwrite the default field length." sqref="U1:U1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="choice_filter" prompt="When using cascading selects, this field is used to hold the expression to match the additional attribute columns on the choices tab (e.g., attribute=${value})." sqref="N1:N3 N5:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="choice_filter" prompt="When using cascading selects, this field is used to hold the expression to match the additional attribute columns on the choices tab (e.g., attribute=${value})." sqref="N5:N1048576 N1:N3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Message" prompt="When a required field has no response, this message will appear to prompt for an answer  (e.g., Please enter you name. This information is required.)." sqref="H1:H1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="repeat_count" prompt="This value is used to specify the number of records available in a repeat. Once the repeat count has been specified, records within the repeat cannot be added or deleted." sqref="O1:O1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:fieldAlias" prompt="Enter values to be used as the field alias in your feature service. This can be used to overwrite the default field alias values, which are derived from the question label." sqref="V1:V1048576"/>
@@ -3911,7 +3931,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$47</xm:f>
+            <xm:f>types!$A$35:$A$48</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -3955,557 +3975,557 @@
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="35" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="35" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="35" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="35" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="35" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="35" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="35" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="35" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="35" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="35" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="35" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="35" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="35" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="35" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="35" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="35" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="35" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4576,9 +4596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L796"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5285,10 +5303,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>317</v>
+        <v>933</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>318</v>
+        <v>934</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -5302,10 +5320,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -5319,10 +5337,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
@@ -5336,10 +5354,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -5353,10 +5371,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>322</v>
+        <v>117</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>323</v>
+        <v>118</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -5369,8 +5387,12 @@
       <c r="L47" s="29"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>323</v>
+      </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
@@ -5381,10 +5403,8 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
     </row>
-    <row r="49" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>107</v>
-      </c>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -5396,13 +5416,11 @@
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>111</v>
-      </c>
+    <row r="50" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
@@ -5415,10 +5433,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
@@ -5431,8 +5449,12 @@
       <c r="L51" s="29"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
@@ -5443,13 +5465,9 @@
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
     </row>
-    <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>234</v>
-      </c>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
@@ -5460,10 +5478,12 @@
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
     </row>
-    <row r="54" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+    <row r="54" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>233</v>
+      </c>
       <c r="B54" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="29"/>
@@ -5476,9 +5496,11 @@
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
     </row>
-    <row r="55" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="29"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29" t="s">
+        <v>235</v>
+      </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
@@ -5490,51 +5512,44 @@
       <c r="L55" s="29"/>
     </row>
     <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+    </row>
+    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -5548,13 +5563,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -5568,13 +5583,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -5588,13 +5603,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
@@ -5608,13 +5623,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
@@ -5628,13 +5643,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -5648,13 +5663,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
@@ -5668,13 +5683,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
@@ -5688,13 +5703,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -5708,13 +5723,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
@@ -5728,13 +5743,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -5748,13 +5763,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
@@ -5768,13 +5783,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -5788,13 +5803,13 @@
     </row>
     <row r="71" spans="1:12" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
@@ -5807,9 +5822,15 @@
       <c r="L71" s="29"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="6"/>
+      <c r="A72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
@@ -5820,47 +5841,44 @@
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
     </row>
-    <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>203</v>
-      </c>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
     </row>
     <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+    </row>
+    <row r="75" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B75" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>188</v>
-      </c>
+      <c r="C75" s="21"/>
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -5873,10 +5891,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -5890,10 +5908,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>191</v>
+        <v>324</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
@@ -5907,10 +5925,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
@@ -5924,10 +5942,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
@@ -5941,10 +5959,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -5958,10 +5976,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -5975,10 +5993,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -5992,10 +6010,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -6007,12 +6025,12 @@
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
     </row>
-    <row r="84" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>208</v>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -6026,10 +6044,10 @@
     </row>
     <row r="85" spans="1:12" ht="14" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
@@ -6043,10 +6061,10 @@
     </row>
     <row r="86" spans="1:12" ht="14" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
@@ -6058,9 +6076,13 @@
       <c r="K86" s="29"/>
       <c r="L86" s="29"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
+    <row r="87" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>326</v>
+      </c>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -6071,10 +6093,8 @@
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
     </row>
-    <row r="88" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>186</v>
-      </c>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -6087,12 +6107,10 @@
       <c r="L88" s="29"/>
     </row>
     <row r="89" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="A89" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="29"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -6103,12 +6121,12 @@
       <c r="K89" s="29"/>
       <c r="L89" s="29"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>122</v>
+    <row r="90" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -6122,10 +6140,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
@@ -6137,12 +6155,12 @@
       <c r="K91" s="29"/>
       <c r="L91" s="29"/>
     </row>
-    <row r="92" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -6154,12 +6172,12 @@
       <c r="K92" s="29"/>
       <c r="L92" s="29"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
@@ -6173,10 +6191,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
@@ -6190,10 +6208,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
@@ -6207,10 +6225,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
@@ -6224,10 +6242,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
@@ -6241,10 +6259,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
@@ -6258,10 +6276,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -6275,10 +6293,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
@@ -6292,10 +6310,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -6309,10 +6327,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
@@ -6326,10 +6344,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
@@ -6343,10 +6361,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -6360,10 +6378,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
@@ -6377,10 +6395,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
@@ -6394,10 +6412,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
@@ -6411,10 +6429,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
@@ -6428,10 +6446,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
@@ -6445,10 +6463,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -6462,10 +6480,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="29"/>
@@ -6479,10 +6497,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="29"/>
@@ -6496,10 +6514,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="29"/>
@@ -6513,10 +6531,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
@@ -6530,10 +6548,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
@@ -6547,10 +6565,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="29"/>
@@ -6564,10 +6582,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
@@ -6581,10 +6599,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="29"/>
@@ -6596,12 +6614,12 @@
       <c r="K118" s="29"/>
       <c r="L118" s="29"/>
     </row>
-    <row r="119" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
@@ -6613,12 +6631,12 @@
       <c r="K119" s="29"/>
       <c r="L119" s="29"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="29"/>
@@ -6632,10 +6650,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="29"/>
@@ -6649,10 +6667,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="29"/>
@@ -6666,10 +6684,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
@@ -6682,8 +6700,12 @@
       <c r="L123" s="29"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
+      <c r="A124" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D124" s="29"/>
       <c r="E124" s="29"/>
       <c r="F124" s="29"/>
@@ -6694,10 +6716,8 @@
       <c r="K124" s="29"/>
       <c r="L124" s="29"/>
     </row>
-    <row r="125" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
-        <v>219</v>
-      </c>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
       <c r="B125" s="29"/>
       <c r="D125" s="29"/>
       <c r="E125" s="29"/>
@@ -6709,13 +6729,11 @@
       <c r="K125" s="29"/>
       <c r="L125" s="29"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>221</v>
-      </c>
+    <row r="126" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" s="29"/>
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
@@ -6728,10 +6746,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="29"/>
@@ -6745,10 +6763,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
@@ -6762,10 +6780,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="29"/>
@@ -6779,10 +6797,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>328</v>
+        <v>224</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="29"/>
@@ -6795,8 +6813,12 @@
       <c r="L130" s="29"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
+      <c r="A131" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29"/>
       <c r="F131" s="29"/>
@@ -6807,10 +6829,8 @@
       <c r="K131" s="29"/>
       <c r="L131" s="29"/>
     </row>
-    <row r="132" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
-        <v>329</v>
-      </c>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="29"/>
       <c r="B132" s="29"/>
       <c r="D132" s="29"/>
       <c r="E132" s="29"/>
@@ -6823,13 +6843,10 @@
       <c r="L132" s="29"/>
     </row>
     <row r="133" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B133" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="C133" s="44"/>
+      <c r="A133" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B133" s="29"/>
       <c r="D133" s="29"/>
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
@@ -6840,14 +6857,14 @@
       <c r="K133" s="29"/>
       <c r="L133" s="29"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C134" s="1"/>
+    <row r="134" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A134" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134" s="43"/>
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
       <c r="F134" s="29"/>
@@ -6860,10 +6877,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="29"/>
@@ -6878,10 +6895,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="29"/>
@@ -6896,10 +6913,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="29"/>
@@ -6914,10 +6931,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="29"/>
@@ -6932,10 +6949,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="29"/>
@@ -6950,10 +6967,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="29"/>
@@ -6968,10 +6985,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="29"/>
@@ -6986,10 +7003,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="29"/>
@@ -7004,10 +7021,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="29"/>
@@ -7022,10 +7039,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="29"/>
@@ -7040,10 +7057,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="29"/>
@@ -7058,10 +7075,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="29"/>
@@ -7076,10 +7093,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="29"/>
@@ -7094,10 +7111,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="29"/>
@@ -7112,10 +7129,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="29"/>
@@ -7130,10 +7147,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="29"/>
@@ -7148,10 +7165,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="29"/>
@@ -7165,8 +7182,13 @@
       <c r="L151" s="29"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
+      <c r="A152" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C152" s="1"/>
       <c r="D152" s="29"/>
       <c r="E152" s="29"/>
       <c r="F152" s="29"/>
@@ -7177,13 +7199,9 @@
       <c r="K152" s="29"/>
       <c r="L152" s="29"/>
     </row>
-    <row r="153" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B153" s="29" t="s">
-        <v>368</v>
-      </c>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="29"/>
+      <c r="B153" s="29"/>
       <c r="D153" s="29"/>
       <c r="E153" s="29"/>
       <c r="F153" s="29"/>
@@ -7194,11 +7212,13 @@
       <c r="K153" s="29"/>
       <c r="L153" s="29"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="B154" s="29"/>
+    <row r="154" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>368</v>
+      </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29"/>
       <c r="F154" s="29"/>
@@ -7210,8 +7230,8 @@
       <c r="L154" s="29"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="45" t="s">
-        <v>370</v>
+      <c r="A155" s="44" t="s">
+        <v>369</v>
       </c>
       <c r="B155" s="29"/>
       <c r="D155" s="29"/>
@@ -7225,8 +7245,8 @@
       <c r="L155" s="29"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="45" t="s">
-        <v>371</v>
+      <c r="A156" s="44" t="s">
+        <v>370</v>
       </c>
       <c r="B156" s="29"/>
       <c r="D156" s="29"/>
@@ -7240,8 +7260,8 @@
       <c r="L156" s="29"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="45" t="s">
-        <v>64</v>
+      <c r="A157" s="44" t="s">
+        <v>371</v>
       </c>
       <c r="B157" s="29"/>
       <c r="D157" s="29"/>
@@ -7255,8 +7275,8 @@
       <c r="L157" s="29"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="45" t="s">
-        <v>372</v>
+      <c r="A158" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="B158" s="29"/>
       <c r="D158" s="29"/>
@@ -7270,8 +7290,8 @@
       <c r="L158" s="29"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="45" t="s">
-        <v>123</v>
+      <c r="A159" s="44" t="s">
+        <v>372</v>
       </c>
       <c r="B159" s="29"/>
       <c r="D159" s="29"/>
@@ -7285,8 +7305,8 @@
       <c r="L159" s="29"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="45" t="s">
-        <v>125</v>
+      <c r="A160" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="B160" s="29"/>
       <c r="D160" s="29"/>
@@ -7300,8 +7320,8 @@
       <c r="L160" s="29"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="45" t="s">
-        <v>373</v>
+      <c r="A161" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="B161" s="29"/>
       <c r="D161" s="29"/>
@@ -7315,8 +7335,8 @@
       <c r="L161" s="29"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="45" t="s">
-        <v>374</v>
+      <c r="A162" s="44" t="s">
+        <v>373</v>
       </c>
       <c r="B162" s="29"/>
       <c r="D162" s="29"/>
@@ -7330,7 +7350,9 @@
       <c r="L162" s="29"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
+      <c r="A163" s="44" t="s">
+        <v>374</v>
+      </c>
       <c r="B163" s="29"/>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
@@ -7342,13 +7364,9 @@
       <c r="K163" s="29"/>
       <c r="L163" s="29"/>
     </row>
-    <row r="164" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A164" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B164" s="29" t="s">
-        <v>376</v>
-      </c>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
       <c r="F164" s="29"/>
@@ -7359,11 +7377,13 @@
       <c r="K164" s="29"/>
       <c r="L164" s="29"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B165" s="29"/>
+    <row r="165" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B165" s="29" t="s">
+        <v>376</v>
+      </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
       <c r="F165" s="29"/>
@@ -7375,8 +7395,8 @@
       <c r="L165" s="29"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="29" t="s">
-        <v>378</v>
+      <c r="A166" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="B166" s="29"/>
       <c r="D166" s="29"/>
@@ -7391,7 +7411,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B167" s="29"/>
       <c r="D167" s="29"/>
@@ -7406,7 +7426,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B168" s="29"/>
       <c r="D168" s="29"/>
@@ -7421,7 +7441,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B169" s="29"/>
       <c r="D169" s="29"/>
@@ -7436,7 +7456,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B170" s="29"/>
       <c r="D170" s="29"/>
@@ -7451,7 +7471,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B171" s="29"/>
       <c r="D171" s="29"/>
@@ -7466,7 +7486,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B172" s="29"/>
       <c r="D172" s="29"/>
@@ -7481,7 +7501,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B173" s="29"/>
       <c r="D173" s="29"/>
@@ -7496,7 +7516,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B174" s="29"/>
       <c r="D174" s="29"/>
@@ -7511,7 +7531,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B175" s="29"/>
       <c r="D175" s="29"/>
@@ -7526,7 +7546,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B176" s="29"/>
       <c r="D176" s="29"/>
@@ -7541,7 +7561,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B177" s="29"/>
       <c r="D177" s="29"/>
@@ -7556,7 +7576,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B178" s="29"/>
       <c r="D178" s="29"/>
@@ -7571,7 +7591,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B179" s="29"/>
       <c r="D179" s="29"/>
@@ -7586,7 +7606,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B180" s="29"/>
       <c r="D180" s="29"/>
@@ -7601,7 +7621,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B181" s="29"/>
       <c r="D181" s="29"/>
@@ -7616,7 +7636,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B182" s="29"/>
       <c r="D182" s="29"/>
@@ -7631,7 +7651,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B183" s="29"/>
       <c r="D183" s="29"/>
@@ -7646,7 +7666,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B184" s="29"/>
       <c r="D184" s="29"/>
@@ -7661,7 +7681,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B185" s="29"/>
       <c r="D185" s="29"/>
@@ -7676,7 +7696,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B186" s="29"/>
       <c r="D186" s="29"/>
@@ -7691,7 +7711,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B187" s="29"/>
       <c r="D187" s="29"/>
@@ -7706,7 +7726,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B188" s="29"/>
       <c r="D188" s="29"/>
@@ -7721,7 +7741,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B189" s="29"/>
       <c r="D189" s="29"/>
@@ -7736,7 +7756,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B190" s="29"/>
       <c r="D190" s="29"/>
@@ -7751,7 +7771,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B191" s="29"/>
       <c r="D191" s="29"/>
@@ -7766,7 +7786,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B192" s="29"/>
       <c r="D192" s="29"/>
@@ -7781,7 +7801,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B193" s="29"/>
       <c r="D193" s="29"/>
@@ -7796,7 +7816,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B194" s="29"/>
       <c r="D194" s="29"/>
@@ -7811,7 +7831,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B195" s="29"/>
       <c r="D195" s="29"/>
@@ -7826,7 +7846,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B196" s="29"/>
       <c r="D196" s="29"/>
@@ -7841,7 +7861,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B197" s="29"/>
       <c r="D197" s="29"/>
@@ -7856,7 +7876,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B198" s="29"/>
       <c r="D198" s="29"/>
@@ -7871,7 +7891,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B199" s="29"/>
       <c r="D199" s="29"/>
@@ -7886,7 +7906,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B200" s="29"/>
       <c r="D200" s="29"/>
@@ -7901,7 +7921,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B201" s="29"/>
       <c r="D201" s="29"/>
@@ -7916,7 +7936,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B202" s="29"/>
       <c r="D202" s="29"/>
@@ -7931,7 +7951,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B203" s="29"/>
       <c r="D203" s="29"/>
@@ -7946,7 +7966,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B204" s="29"/>
       <c r="D204" s="29"/>
@@ -7961,7 +7981,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B205" s="29"/>
       <c r="D205" s="29"/>
@@ -7976,7 +7996,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B206" s="29"/>
       <c r="D206" s="29"/>
@@ -7991,7 +8011,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B207" s="29"/>
       <c r="D207" s="29"/>
@@ -8006,7 +8026,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B208" s="29"/>
       <c r="D208" s="29"/>
@@ -8021,7 +8041,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B209" s="29"/>
       <c r="D209" s="29"/>
@@ -8036,7 +8056,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B210" s="29"/>
       <c r="D210" s="29"/>
@@ -8051,7 +8071,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B211" s="29"/>
       <c r="D211" s="29"/>
@@ -8066,7 +8086,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B212" s="29"/>
       <c r="D212" s="29"/>
@@ -8081,7 +8101,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B213" s="29"/>
       <c r="D213" s="29"/>
@@ -8096,7 +8116,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B214" s="29"/>
       <c r="D214" s="29"/>
@@ -8111,7 +8131,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B215" s="29"/>
       <c r="D215" s="29"/>
@@ -8126,7 +8146,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B216" s="29"/>
       <c r="D216" s="29"/>
@@ -8141,7 +8161,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B217" s="29"/>
       <c r="D217" s="29"/>
@@ -8156,7 +8176,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B218" s="29"/>
       <c r="D218" s="29"/>
@@ -8171,7 +8191,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B219" s="29"/>
       <c r="D219" s="29"/>
@@ -8186,7 +8206,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B220" s="29"/>
       <c r="D220" s="29"/>
@@ -8201,7 +8221,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B221" s="29"/>
       <c r="D221" s="29"/>
@@ -8216,7 +8236,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B222" s="29"/>
       <c r="D222" s="29"/>
@@ -8231,7 +8251,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B223" s="29"/>
       <c r="D223" s="29"/>
@@ -8246,7 +8266,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B224" s="29"/>
       <c r="D224" s="29"/>
@@ -8261,7 +8281,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B225" s="29"/>
       <c r="D225" s="29"/>
@@ -8276,7 +8296,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B226" s="29"/>
       <c r="D226" s="29"/>
@@ -8291,7 +8311,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B227" s="29"/>
       <c r="D227" s="29"/>
@@ -8306,7 +8326,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B228" s="29"/>
       <c r="D228" s="29"/>
@@ -8321,7 +8341,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B229" s="29"/>
       <c r="D229" s="29"/>
@@ -8336,7 +8356,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B230" s="29"/>
       <c r="D230" s="29"/>
@@ -8351,7 +8371,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B231" s="29"/>
       <c r="D231" s="29"/>
@@ -8366,7 +8386,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B232" s="29"/>
       <c r="D232" s="29"/>
@@ -8381,7 +8401,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B233" s="29"/>
       <c r="D233" s="29"/>
@@ -8396,7 +8416,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B234" s="29"/>
       <c r="D234" s="29"/>
@@ -8411,7 +8431,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B235" s="29"/>
       <c r="D235" s="29"/>
@@ -8426,7 +8446,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B236" s="29"/>
       <c r="D236" s="29"/>
@@ -8441,7 +8461,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B237" s="29"/>
       <c r="D237" s="29"/>
@@ -8456,7 +8476,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B238" s="29"/>
       <c r="D238" s="29"/>
@@ -8471,7 +8491,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B239" s="29"/>
       <c r="D239" s="29"/>
@@ -8486,7 +8506,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B240" s="29"/>
       <c r="D240" s="29"/>
@@ -8501,7 +8521,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B241" s="29"/>
       <c r="D241" s="29"/>
@@ -8516,7 +8536,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B242" s="29"/>
       <c r="D242" s="29"/>
@@ -8531,7 +8551,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B243" s="29"/>
       <c r="D243" s="29"/>
@@ -8546,7 +8566,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B244" s="29"/>
       <c r="D244" s="29"/>
@@ -8561,7 +8581,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B245" s="29"/>
       <c r="D245" s="29"/>
@@ -8576,7 +8596,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B246" s="29"/>
       <c r="D246" s="29"/>
@@ -8591,7 +8611,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B247" s="29"/>
       <c r="D247" s="29"/>
@@ -8606,7 +8626,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B248" s="29"/>
       <c r="D248" s="29"/>
@@ -8621,7 +8641,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B249" s="29"/>
       <c r="D249" s="29"/>
@@ -8636,7 +8656,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B250" s="29"/>
       <c r="D250" s="29"/>
@@ -8651,7 +8671,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B251" s="29"/>
       <c r="D251" s="29"/>
@@ -8666,7 +8686,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B252" s="29"/>
       <c r="D252" s="29"/>
@@ -8681,7 +8701,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B253" s="29"/>
       <c r="D253" s="29"/>
@@ -8696,7 +8716,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B254" s="29"/>
       <c r="D254" s="29"/>
@@ -8711,7 +8731,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B255" s="29"/>
       <c r="D255" s="29"/>
@@ -8726,7 +8746,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B256" s="29"/>
       <c r="D256" s="29"/>
@@ -8741,7 +8761,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B257" s="29"/>
       <c r="D257" s="29"/>
@@ -8756,7 +8776,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B258" s="29"/>
       <c r="D258" s="29"/>
@@ -8771,7 +8791,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B259" s="29"/>
       <c r="D259" s="29"/>
@@ -8786,7 +8806,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B260" s="29"/>
       <c r="D260" s="29"/>
@@ -8801,7 +8821,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B261" s="29"/>
       <c r="D261" s="29"/>
@@ -8816,7 +8836,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B262" s="29"/>
       <c r="D262" s="29"/>
@@ -8831,7 +8851,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B263" s="29"/>
       <c r="D263" s="29"/>
@@ -8846,7 +8866,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B264" s="29"/>
       <c r="D264" s="29"/>
@@ -8861,7 +8881,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B265" s="29"/>
       <c r="D265" s="29"/>
@@ -8876,7 +8896,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B266" s="29"/>
       <c r="D266" s="29"/>
@@ -8891,7 +8911,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B267" s="29"/>
       <c r="D267" s="29"/>
@@ -8906,7 +8926,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B268" s="29"/>
       <c r="D268" s="29"/>
@@ -8921,7 +8941,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B269" s="29"/>
       <c r="D269" s="29"/>
@@ -8936,7 +8956,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B270" s="29"/>
       <c r="D270" s="29"/>
@@ -8951,7 +8971,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B271" s="29"/>
       <c r="D271" s="29"/>
@@ -8966,7 +8986,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B272" s="29"/>
       <c r="D272" s="29"/>
@@ -8981,7 +9001,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B273" s="29"/>
       <c r="D273" s="29"/>
@@ -8996,7 +9016,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B274" s="29"/>
       <c r="D274" s="29"/>
@@ -9011,7 +9031,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B275" s="29"/>
       <c r="D275" s="29"/>
@@ -9026,7 +9046,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B276" s="29"/>
       <c r="D276" s="29"/>
@@ -9041,7 +9061,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B277" s="29"/>
       <c r="D277" s="29"/>
@@ -9056,7 +9076,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B278" s="29"/>
       <c r="D278" s="29"/>
@@ -9071,7 +9091,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B279" s="29"/>
       <c r="D279" s="29"/>
@@ -9086,7 +9106,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B280" s="29"/>
       <c r="D280" s="29"/>
@@ -9101,7 +9121,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B281" s="29"/>
       <c r="D281" s="29"/>
@@ -9116,7 +9136,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B282" s="29"/>
       <c r="D282" s="29"/>
@@ -9131,7 +9151,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B283" s="29"/>
       <c r="D283" s="29"/>
@@ -9146,7 +9166,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B284" s="29"/>
       <c r="D284" s="29"/>
@@ -9161,7 +9181,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B285" s="29"/>
       <c r="D285" s="29"/>
@@ -9176,7 +9196,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B286" s="29"/>
       <c r="D286" s="29"/>
@@ -9191,7 +9211,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B287" s="29"/>
       <c r="D287" s="29"/>
@@ -9206,7 +9226,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B288" s="29"/>
       <c r="D288" s="29"/>
@@ -9221,7 +9241,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B289" s="29"/>
       <c r="D289" s="29"/>
@@ -9235,8 +9255,8 @@
       <c r="L289" s="29"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A290" s="5" t="s">
-        <v>502</v>
+      <c r="A290" s="29" t="s">
+        <v>501</v>
       </c>
       <c r="B290" s="29"/>
       <c r="D290" s="29"/>
@@ -9251,7 +9271,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B291" s="29"/>
       <c r="D291" s="29"/>
@@ -9266,7 +9286,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B292" s="29"/>
       <c r="D292" s="29"/>
@@ -9281,7 +9301,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B293" s="29"/>
       <c r="D293" s="29"/>
@@ -9296,7 +9316,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B294" s="29"/>
       <c r="D294" s="29"/>
@@ -9311,7 +9331,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B295" s="29"/>
       <c r="D295" s="29"/>
@@ -9326,7 +9346,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B296" s="29"/>
       <c r="D296" s="29"/>
@@ -9341,7 +9361,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B297" s="29"/>
       <c r="D297" s="29"/>
@@ -9356,7 +9376,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B298" s="29"/>
       <c r="D298" s="29"/>
@@ -9371,7 +9391,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B299" s="29"/>
       <c r="D299" s="29"/>
@@ -9386,7 +9406,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B300" s="29"/>
       <c r="D300" s="29"/>
@@ -9401,7 +9421,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B301" s="29"/>
       <c r="D301" s="29"/>
@@ -9416,7 +9436,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B302" s="29"/>
       <c r="D302" s="29"/>
@@ -9431,7 +9451,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B303" s="29"/>
       <c r="D303" s="29"/>
@@ -9446,7 +9466,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B304" s="29"/>
       <c r="D304" s="29"/>
@@ -9461,7 +9481,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B305" s="29"/>
       <c r="D305" s="29"/>
@@ -9476,7 +9496,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B306" s="29"/>
       <c r="D306" s="29"/>
@@ -9491,7 +9511,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B307" s="29"/>
       <c r="D307" s="29"/>
@@ -9506,7 +9526,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B308" s="29"/>
       <c r="D308" s="29"/>
@@ -9521,7 +9541,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B309" s="29"/>
       <c r="D309" s="29"/>
@@ -9536,7 +9556,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B310" s="29"/>
       <c r="D310" s="29"/>
@@ -9551,7 +9571,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B311" s="29"/>
       <c r="D311" s="29"/>
@@ -9566,7 +9586,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B312" s="29"/>
       <c r="D312" s="29"/>
@@ -9581,7 +9601,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B313" s="29"/>
       <c r="D313" s="29"/>
@@ -9596,7 +9616,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B314" s="29"/>
       <c r="D314" s="29"/>
@@ -9611,7 +9631,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B315" s="29"/>
       <c r="D315" s="29"/>
@@ -9626,7 +9646,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B316" s="29"/>
       <c r="D316" s="29"/>
@@ -9641,7 +9661,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B317" s="29"/>
       <c r="D317" s="29"/>
@@ -9656,7 +9676,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B318" s="29"/>
       <c r="D318" s="29"/>
@@ -9671,7 +9691,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B319" s="29"/>
       <c r="D319" s="29"/>
@@ -9686,7 +9706,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B320" s="29"/>
       <c r="D320" s="29"/>
@@ -9701,7 +9721,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B321" s="29"/>
       <c r="D321" s="29"/>
@@ -9716,7 +9736,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B322" s="29"/>
       <c r="D322" s="29"/>
@@ -9731,7 +9751,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B323" s="29"/>
       <c r="D323" s="29"/>
@@ -9746,7 +9766,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B324" s="29"/>
       <c r="D324" s="29"/>
@@ -9761,7 +9781,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B325" s="29"/>
       <c r="D325" s="29"/>
@@ -9776,7 +9796,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B326" s="29"/>
       <c r="D326" s="29"/>
@@ -9791,7 +9811,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B327" s="29"/>
       <c r="D327" s="29"/>
@@ -9806,7 +9826,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B328" s="29"/>
       <c r="D328" s="29"/>
@@ -9821,7 +9841,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B329" s="29"/>
       <c r="D329" s="29"/>
@@ -9836,7 +9856,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B330" s="29"/>
       <c r="D330" s="29"/>
@@ -9851,7 +9871,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B331" s="29"/>
       <c r="D331" s="29"/>
@@ -9866,7 +9886,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B332" s="29"/>
       <c r="D332" s="29"/>
@@ -9881,7 +9901,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B333" s="29"/>
       <c r="D333" s="29"/>
@@ -9896,7 +9916,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B334" s="29"/>
       <c r="D334" s="29"/>
@@ -9911,7 +9931,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B335" s="29"/>
       <c r="D335" s="29"/>
@@ -9926,7 +9946,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B336" s="29"/>
       <c r="D336" s="29"/>
@@ -9941,7 +9961,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B337" s="29"/>
       <c r="D337" s="29"/>
@@ -9956,7 +9976,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B338" s="29"/>
       <c r="D338" s="29"/>
@@ -9971,7 +9991,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B339" s="29"/>
       <c r="D339" s="29"/>
@@ -9986,7 +10006,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B340" s="29"/>
       <c r="D340" s="29"/>
@@ -10001,7 +10021,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B341" s="29"/>
       <c r="D341" s="29"/>
@@ -10016,7 +10036,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B342" s="29"/>
       <c r="D342" s="29"/>
@@ -10031,7 +10051,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B343" s="29"/>
       <c r="D343" s="29"/>
@@ -10046,7 +10066,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B344" s="29"/>
       <c r="D344" s="29"/>
@@ -10061,7 +10081,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B345" s="29"/>
       <c r="D345" s="29"/>
@@ -10076,7 +10096,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B346" s="29"/>
       <c r="D346" s="29"/>
@@ -10091,7 +10111,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B347" s="29"/>
       <c r="D347" s="29"/>
@@ -10106,7 +10126,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B348" s="29"/>
       <c r="D348" s="29"/>
@@ -10121,7 +10141,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B349" s="29"/>
       <c r="D349" s="29"/>
@@ -10136,7 +10156,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B350" s="29"/>
       <c r="D350" s="29"/>
@@ -10150,8 +10170,8 @@
       <c r="L350" s="29"/>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A351" s="29" t="s">
-        <v>563</v>
+      <c r="A351" s="5" t="s">
+        <v>562</v>
       </c>
       <c r="B351" s="29"/>
       <c r="D351" s="29"/>
@@ -10166,7 +10186,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="29" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B352" s="29"/>
       <c r="D352" s="29"/>
@@ -10181,7 +10201,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="29" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B353" s="29"/>
       <c r="D353" s="29"/>
@@ -10196,7 +10216,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="29" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B354" s="29"/>
       <c r="D354" s="29"/>
@@ -10211,7 +10231,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B355" s="29"/>
       <c r="D355" s="29"/>
@@ -10226,7 +10246,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="29" t="s">
-        <v>379</v>
+        <v>567</v>
       </c>
       <c r="B356" s="29"/>
       <c r="D356" s="29"/>
@@ -10241,7 +10261,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="29" t="s">
-        <v>568</v>
+        <v>379</v>
       </c>
       <c r="B357" s="29"/>
       <c r="D357" s="29"/>
@@ -10256,7 +10276,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B358" s="29"/>
       <c r="D358" s="29"/>
@@ -10271,7 +10291,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="29" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B359" s="29"/>
       <c r="D359" s="29"/>
@@ -10286,7 +10306,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="29" t="s">
-        <v>381</v>
+        <v>570</v>
       </c>
       <c r="B360" s="29"/>
       <c r="D360" s="29"/>
@@ -10301,7 +10321,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B361" s="29"/>
       <c r="D361" s="29"/>
@@ -10316,7 +10336,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="29" t="s">
-        <v>571</v>
+        <v>382</v>
       </c>
       <c r="B362" s="29"/>
       <c r="D362" s="29"/>
@@ -10331,7 +10351,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B363" s="29"/>
       <c r="D363" s="29"/>
@@ -10346,7 +10366,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B364" s="29"/>
       <c r="D364" s="29"/>
@@ -10361,7 +10381,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B365" s="29"/>
       <c r="D365" s="29"/>
@@ -10376,7 +10396,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="29" t="s">
-        <v>383</v>
+        <v>574</v>
       </c>
       <c r="B366" s="29"/>
       <c r="D366" s="29"/>
@@ -10391,7 +10411,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B367" s="29"/>
       <c r="D367" s="29"/>
@@ -10406,7 +10426,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="29" t="s">
-        <v>575</v>
+        <v>384</v>
       </c>
       <c r="B368" s="29"/>
       <c r="D368" s="29"/>
@@ -10421,7 +10441,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B369" s="29"/>
       <c r="D369" s="29"/>
@@ -10436,7 +10456,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B370" s="29"/>
       <c r="D370" s="29"/>
@@ -10451,7 +10471,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B371" s="29"/>
       <c r="D371" s="29"/>
@@ -10466,7 +10486,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="29" t="s">
-        <v>385</v>
+        <v>578</v>
       </c>
       <c r="B372" s="29"/>
       <c r="D372" s="29"/>
@@ -10481,7 +10501,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="29" t="s">
-        <v>579</v>
+        <v>385</v>
       </c>
       <c r="B373" s="29"/>
       <c r="D373" s="29"/>
@@ -10496,7 +10516,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="29" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B374" s="29"/>
       <c r="D374" s="29"/>
@@ -10511,7 +10531,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="29" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B375" s="29"/>
       <c r="D375" s="29"/>
@@ -10526,7 +10546,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B376" s="29"/>
       <c r="D376" s="29"/>
@@ -10541,7 +10561,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B377" s="29"/>
       <c r="D377" s="29"/>
@@ -10556,7 +10576,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B378" s="29"/>
       <c r="D378" s="29"/>
@@ -10571,7 +10591,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="29" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B379" s="29"/>
       <c r="D379" s="29"/>
@@ -10586,7 +10606,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B380" s="29"/>
       <c r="D380" s="29"/>
@@ -10601,7 +10621,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B381" s="29"/>
       <c r="D381" s="29"/>
@@ -10616,7 +10636,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B382" s="29"/>
       <c r="D382" s="29"/>
@@ -10631,7 +10651,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B383" s="29"/>
       <c r="D383" s="29"/>
@@ -10646,7 +10666,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B384" s="29"/>
       <c r="D384" s="29"/>
@@ -10661,7 +10681,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B385" s="29"/>
       <c r="D385" s="29"/>
@@ -10676,7 +10696,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="29" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B386" s="29"/>
       <c r="D386" s="29"/>
@@ -10691,7 +10711,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B387" s="29"/>
       <c r="D387" s="29"/>
@@ -10706,7 +10726,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="29" t="s">
-        <v>394</v>
+        <v>593</v>
       </c>
       <c r="B388" s="29"/>
       <c r="D388" s="29"/>
@@ -10721,7 +10741,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="29" t="s">
-        <v>594</v>
+        <v>394</v>
       </c>
       <c r="B389" s="29"/>
       <c r="D389" s="29"/>
@@ -10736,7 +10756,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B390" s="29"/>
       <c r="D390" s="29"/>
@@ -10751,7 +10771,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B391" s="29"/>
       <c r="D391" s="29"/>
@@ -10766,7 +10786,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B392" s="29"/>
       <c r="D392" s="29"/>
@@ -10781,7 +10801,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B393" s="29"/>
       <c r="D393" s="29"/>
@@ -10796,7 +10816,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B394" s="29"/>
       <c r="D394" s="29"/>
@@ -10811,7 +10831,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B395" s="29"/>
       <c r="D395" s="29"/>
@@ -10826,7 +10846,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B396" s="29"/>
       <c r="D396" s="29"/>
@@ -10841,7 +10861,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B397" s="29"/>
       <c r="D397" s="29"/>
@@ -10856,7 +10876,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B398" s="29"/>
       <c r="D398" s="29"/>
@@ -10871,7 +10891,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="29" t="s">
-        <v>395</v>
+        <v>603</v>
       </c>
       <c r="B399" s="29"/>
       <c r="D399" s="29"/>
@@ -10886,7 +10906,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="29" t="s">
-        <v>604</v>
+        <v>395</v>
       </c>
       <c r="B400" s="29"/>
       <c r="D400" s="29"/>
@@ -10901,7 +10921,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B401" s="29"/>
       <c r="D401" s="29"/>
@@ -10916,7 +10936,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B402" s="29"/>
       <c r="D402" s="29"/>
@@ -10931,7 +10951,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="29" t="s">
-        <v>400</v>
+        <v>606</v>
       </c>
       <c r="B403" s="29"/>
       <c r="D403" s="29"/>
@@ -10946,7 +10966,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="29" t="s">
-        <v>607</v>
+        <v>400</v>
       </c>
       <c r="B404" s="29"/>
       <c r="D404" s="29"/>
@@ -10961,7 +10981,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B405" s="29"/>
       <c r="D405" s="29"/>
@@ -10976,7 +10996,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B406" s="29"/>
       <c r="D406" s="29"/>
@@ -10991,7 +11011,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B407" s="29"/>
       <c r="D407" s="29"/>
@@ -11006,7 +11026,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B408" s="29"/>
       <c r="D408" s="29"/>
@@ -11021,7 +11041,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="29" t="s">
-        <v>401</v>
+        <v>611</v>
       </c>
       <c r="B409" s="29"/>
       <c r="D409" s="29"/>
@@ -11036,7 +11056,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="29" t="s">
-        <v>612</v>
+        <v>401</v>
       </c>
       <c r="B410" s="29"/>
       <c r="D410" s="29"/>
@@ -11051,7 +11071,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B411" s="29"/>
       <c r="D411" s="29"/>
@@ -11066,7 +11086,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B412" s="29"/>
       <c r="D412" s="29"/>
@@ -11081,7 +11101,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B413" s="29"/>
       <c r="D413" s="29"/>
@@ -11096,7 +11116,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B414" s="29"/>
       <c r="D414" s="29"/>
@@ -11111,7 +11131,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B415" s="29"/>
       <c r="D415" s="29"/>
@@ -11126,7 +11146,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B416" s="29"/>
       <c r="D416" s="29"/>
@@ -11141,7 +11161,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B417" s="29"/>
       <c r="D417" s="29"/>
@@ -11156,7 +11176,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B418" s="29"/>
       <c r="D418" s="29"/>
@@ -11171,7 +11191,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="29" t="s">
-        <v>404</v>
+        <v>620</v>
       </c>
       <c r="B419" s="29"/>
       <c r="D419" s="29"/>
@@ -11186,7 +11206,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="29" t="s">
-        <v>621</v>
+        <v>404</v>
       </c>
       <c r="B420" s="29"/>
       <c r="D420" s="29"/>
@@ -11201,7 +11221,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="29" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B421" s="29"/>
       <c r="D421" s="29"/>
@@ -11216,7 +11236,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B422" s="29"/>
       <c r="D422" s="29"/>
@@ -11231,7 +11251,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B423" s="29"/>
       <c r="D423" s="29"/>
@@ -11246,7 +11266,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="29" t="s">
-        <v>405</v>
+        <v>624</v>
       </c>
       <c r="B424" s="29"/>
       <c r="D424" s="29"/>
@@ -11261,7 +11281,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="29" t="s">
-        <v>625</v>
+        <v>405</v>
       </c>
       <c r="B425" s="29"/>
       <c r="D425" s="29"/>
@@ -11276,7 +11296,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="29" t="s">
-        <v>408</v>
+        <v>625</v>
       </c>
       <c r="B426" s="29"/>
       <c r="D426" s="29"/>
@@ -11291,7 +11311,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="29" t="s">
-        <v>626</v>
+        <v>408</v>
       </c>
       <c r="B427" s="29"/>
       <c r="D427" s="29"/>
@@ -11306,7 +11326,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B428" s="29"/>
       <c r="D428" s="29"/>
@@ -11321,7 +11341,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B429" s="29"/>
       <c r="D429" s="29"/>
@@ -11336,7 +11356,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B430" s="29"/>
       <c r="D430" s="29"/>
@@ -11351,7 +11371,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B431" s="29"/>
       <c r="D431" s="29"/>
@@ -11366,7 +11386,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="29" t="s">
-        <v>409</v>
+        <v>630</v>
       </c>
       <c r="B432" s="29"/>
       <c r="D432" s="29"/>
@@ -11381,7 +11401,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B433" s="29"/>
       <c r="D433" s="29"/>
@@ -11396,7 +11416,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="29" t="s">
-        <v>631</v>
+        <v>410</v>
       </c>
       <c r="B434" s="29"/>
       <c r="D434" s="29"/>
@@ -11411,7 +11431,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="29" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B435" s="29"/>
       <c r="D435" s="29"/>
@@ -11426,7 +11446,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B436" s="29"/>
       <c r="D436" s="29"/>
@@ -11441,7 +11461,7 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="29" t="s">
-        <v>412</v>
+        <v>633</v>
       </c>
       <c r="B437" s="29"/>
       <c r="D437" s="29"/>
@@ -11456,7 +11476,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="29" t="s">
-        <v>634</v>
+        <v>412</v>
       </c>
       <c r="B438" s="29"/>
       <c r="D438" s="29"/>
@@ -11471,7 +11491,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B439" s="29"/>
       <c r="D439" s="29"/>
@@ -11486,7 +11506,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B440" s="29"/>
       <c r="D440" s="29"/>
@@ -11501,7 +11521,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B441" s="29"/>
       <c r="D441" s="29"/>
@@ -11516,7 +11536,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="29" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B442" s="29"/>
       <c r="D442" s="29"/>
@@ -11531,7 +11551,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="29" t="s">
-        <v>413</v>
+        <v>638</v>
       </c>
       <c r="B443" s="29"/>
       <c r="D443" s="29"/>
@@ -11546,7 +11566,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B444" s="29"/>
       <c r="D444" s="29"/>
@@ -11561,7 +11581,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="29" t="s">
-        <v>639</v>
+        <v>414</v>
       </c>
       <c r="B445" s="29"/>
       <c r="D445" s="29"/>
@@ -11576,7 +11596,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="29" t="s">
-        <v>415</v>
+        <v>639</v>
       </c>
       <c r="B446" s="29"/>
       <c r="D446" s="29"/>
@@ -11591,7 +11611,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="29" t="s">
-        <v>640</v>
+        <v>415</v>
       </c>
       <c r="B447" s="29"/>
       <c r="D447" s="29"/>
@@ -11606,7 +11626,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B448" s="29"/>
       <c r="D448" s="29"/>
@@ -11621,7 +11641,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B449" s="29"/>
       <c r="D449" s="29"/>
@@ -11636,7 +11656,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B450" s="29"/>
       <c r="D450" s="29"/>
@@ -11651,7 +11671,7 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B451" s="29"/>
       <c r="D451" s="29"/>
@@ -11666,7 +11686,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B452" s="29"/>
       <c r="D452" s="29"/>
@@ -11681,7 +11701,7 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="29" t="s">
-        <v>421</v>
+        <v>645</v>
       </c>
       <c r="B453" s="29"/>
       <c r="D453" s="29"/>
@@ -11696,7 +11716,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="29" t="s">
-        <v>646</v>
+        <v>421</v>
       </c>
       <c r="B454" s="29"/>
       <c r="D454" s="29"/>
@@ -11711,7 +11731,7 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B455" s="29"/>
       <c r="D455" s="29"/>
@@ -11726,7 +11746,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B456" s="29"/>
       <c r="D456" s="29"/>
@@ -11741,7 +11761,7 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B457" s="29"/>
       <c r="D457" s="29"/>
@@ -11756,7 +11776,7 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="29" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B458" s="29"/>
       <c r="D458" s="29"/>
@@ -11771,7 +11791,7 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B459" s="29"/>
       <c r="D459" s="29"/>
@@ -11786,7 +11806,7 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="29" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B460" s="29"/>
       <c r="D460" s="29"/>
@@ -11801,7 +11821,7 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="29" t="s">
-        <v>424</v>
+        <v>652</v>
       </c>
       <c r="B461" s="29"/>
       <c r="D461" s="29"/>
@@ -11816,7 +11836,7 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="29" t="s">
-        <v>653</v>
+        <v>424</v>
       </c>
       <c r="B462" s="29"/>
       <c r="D462" s="29"/>
@@ -11831,7 +11851,7 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B463" s="29"/>
       <c r="D463" s="29"/>
@@ -11846,7 +11866,7 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B464" s="29"/>
       <c r="D464" s="29"/>
@@ -11861,7 +11881,7 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B465" s="29"/>
       <c r="D465" s="29"/>
@@ -11876,7 +11896,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B466" s="29"/>
       <c r="D466" s="29"/>
@@ -11891,7 +11911,7 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B467" s="29"/>
       <c r="D467" s="29"/>
@@ -11906,7 +11926,7 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="29" t="s">
-        <v>426</v>
+        <v>658</v>
       </c>
       <c r="B468" s="29"/>
       <c r="D468" s="29"/>
@@ -11921,7 +11941,7 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="29" t="s">
-        <v>659</v>
+        <v>426</v>
       </c>
       <c r="B469" s="29"/>
       <c r="D469" s="29"/>
@@ -11936,7 +11956,7 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B470" s="29"/>
       <c r="D470" s="29"/>
@@ -11951,7 +11971,7 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B471" s="29"/>
       <c r="D471" s="29"/>
@@ -11966,7 +11986,7 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B472" s="29"/>
       <c r="D472" s="29"/>
@@ -11981,7 +12001,7 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B473" s="29"/>
       <c r="D473" s="29"/>
@@ -11996,7 +12016,7 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="29" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B474" s="29"/>
       <c r="D474" s="29"/>
@@ -12011,7 +12031,7 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B475" s="29"/>
       <c r="D475" s="29"/>
@@ -12026,7 +12046,7 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B476" s="29"/>
       <c r="D476" s="29"/>
@@ -12041,7 +12061,7 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B477" s="29"/>
       <c r="D477" s="29"/>
@@ -12056,7 +12076,7 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B478" s="29"/>
       <c r="D478" s="29"/>
@@ -12071,7 +12091,7 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B479" s="29"/>
       <c r="D479" s="29"/>
@@ -12086,7 +12106,7 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B480" s="29"/>
       <c r="D480" s="29"/>
@@ -12101,7 +12121,7 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B481" s="29"/>
       <c r="D481" s="29"/>
@@ -12116,7 +12136,7 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B482" s="29"/>
       <c r="D482" s="29"/>
@@ -12131,7 +12151,7 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B483" s="29"/>
       <c r="D483" s="29"/>
@@ -12146,7 +12166,7 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B484" s="29"/>
       <c r="D484" s="29"/>
@@ -12161,7 +12181,7 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="29" t="s">
-        <v>431</v>
+        <v>674</v>
       </c>
       <c r="B485" s="29"/>
       <c r="D485" s="29"/>
@@ -12176,7 +12196,7 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="29" t="s">
-        <v>675</v>
+        <v>431</v>
       </c>
       <c r="B486" s="29"/>
       <c r="D486" s="29"/>
@@ -12191,7 +12211,7 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="29" t="s">
-        <v>432</v>
+        <v>675</v>
       </c>
       <c r="B487" s="29"/>
       <c r="D487" s="29"/>
@@ -12206,7 +12226,7 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="29" t="s">
-        <v>676</v>
+        <v>432</v>
       </c>
       <c r="B488" s="29"/>
       <c r="D488" s="29"/>
@@ -12221,7 +12241,7 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B489" s="29"/>
       <c r="D489" s="29"/>
@@ -12236,7 +12256,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="29" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B490" s="29"/>
       <c r="D490" s="29"/>
@@ -12251,7 +12271,7 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B491" s="29"/>
       <c r="D491" s="29"/>
@@ -12266,7 +12286,7 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B492" s="29"/>
       <c r="D492" s="29"/>
@@ -12281,7 +12301,7 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B493" s="29"/>
       <c r="D493" s="29"/>
@@ -12296,7 +12316,7 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="29" t="s">
-        <v>435</v>
+        <v>681</v>
       </c>
       <c r="B494" s="29"/>
       <c r="D494" s="29"/>
@@ -12311,7 +12331,7 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="29" t="s">
-        <v>682</v>
+        <v>435</v>
       </c>
       <c r="B495" s="29"/>
       <c r="D495" s="29"/>
@@ -12326,7 +12346,7 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="29" t="s">
-        <v>436</v>
+        <v>682</v>
       </c>
       <c r="B496" s="29"/>
       <c r="D496" s="29"/>
@@ -12341,7 +12361,7 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="29" t="s">
-        <v>683</v>
+        <v>436</v>
       </c>
       <c r="B497" s="29"/>
       <c r="D497" s="29"/>
@@ -12356,7 +12376,7 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="29" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B498" s="29"/>
       <c r="D498" s="29"/>
@@ -12370,8 +12390,8 @@
       <c r="L498" s="29"/>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A499" s="46" t="b">
-        <v>0</v>
+      <c r="A499" s="29" t="s">
+        <v>684</v>
       </c>
       <c r="B499" s="29"/>
       <c r="D499" s="29"/>
@@ -12385,8 +12405,8 @@
       <c r="L499" s="29"/>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A500" s="29" t="s">
-        <v>441</v>
+      <c r="A500" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="B500" s="29"/>
       <c r="D500" s="29"/>
@@ -12401,7 +12421,7 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B501" s="29"/>
       <c r="D501" s="29"/>
@@ -12416,7 +12436,7 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="29" t="s">
-        <v>685</v>
+        <v>442</v>
       </c>
       <c r="B502" s="29"/>
       <c r="D502" s="29"/>
@@ -12431,7 +12451,7 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B503" s="29"/>
       <c r="D503" s="29"/>
@@ -12446,7 +12466,7 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="29" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B504" s="29"/>
       <c r="D504" s="29"/>
@@ -12461,7 +12481,7 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B505" s="29"/>
       <c r="D505" s="29"/>
@@ -12476,7 +12496,7 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B506" s="29"/>
       <c r="D506" s="29"/>
@@ -12491,7 +12511,7 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="29" t="s">
-        <v>444</v>
+        <v>689</v>
       </c>
       <c r="B507" s="29"/>
       <c r="D507" s="29"/>
@@ -12506,7 +12526,7 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B508" s="29"/>
       <c r="D508" s="29"/>
@@ -12521,7 +12541,7 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="29" t="s">
-        <v>690</v>
+        <v>445</v>
       </c>
       <c r="B509" s="29"/>
       <c r="D509" s="29"/>
@@ -12536,7 +12556,7 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B510" s="29"/>
       <c r="D510" s="29"/>
@@ -12551,7 +12571,7 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B511" s="29"/>
       <c r="D511" s="29"/>
@@ -12566,7 +12586,7 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B512" s="29"/>
       <c r="D512" s="29"/>
@@ -12581,7 +12601,7 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B513" s="29"/>
       <c r="D513" s="29"/>
@@ -12596,7 +12616,7 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="29" t="s">
-        <v>448</v>
+        <v>694</v>
       </c>
       <c r="B514" s="29"/>
       <c r="D514" s="29"/>
@@ -12611,7 +12631,7 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="29" t="s">
-        <v>695</v>
+        <v>448</v>
       </c>
       <c r="B515" s="29"/>
       <c r="D515" s="29"/>
@@ -12626,7 +12646,7 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="29" t="s">
-        <v>449</v>
+        <v>695</v>
       </c>
       <c r="B516" s="29"/>
       <c r="D516" s="29"/>
@@ -12641,7 +12661,7 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="29" t="s">
-        <v>696</v>
+        <v>449</v>
       </c>
       <c r="B517" s="29"/>
       <c r="D517" s="29"/>
@@ -12656,7 +12676,7 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B518" s="29"/>
       <c r="D518" s="29"/>
@@ -12671,7 +12691,7 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B519" s="29"/>
       <c r="D519" s="29"/>
@@ -12686,7 +12706,7 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B520" s="29"/>
       <c r="D520" s="29"/>
@@ -12701,7 +12721,7 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="29" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B521" s="29"/>
       <c r="D521" s="29"/>
@@ -12716,7 +12736,7 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="29" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B522" s="29"/>
       <c r="D522" s="29"/>
@@ -12731,7 +12751,7 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="29" t="s">
-        <v>451</v>
+        <v>701</v>
       </c>
       <c r="B523" s="29"/>
       <c r="D523" s="29"/>
@@ -12746,7 +12766,7 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B524" s="29"/>
       <c r="D524" s="29"/>
@@ -12761,7 +12781,7 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B525" s="29"/>
       <c r="D525" s="29"/>
@@ -12776,7 +12796,7 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="29" t="s">
-        <v>702</v>
+        <v>453</v>
       </c>
       <c r="B526" s="29"/>
       <c r="D526" s="29"/>
@@ -12791,7 +12811,7 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B527" s="29"/>
       <c r="D527" s="29"/>
@@ -12806,7 +12826,7 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="29" t="s">
-        <v>454</v>
+        <v>703</v>
       </c>
       <c r="B528" s="29"/>
       <c r="D528" s="29"/>
@@ -12821,7 +12841,7 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="29" t="s">
-        <v>704</v>
+        <v>454</v>
       </c>
       <c r="B529" s="29"/>
       <c r="D529" s="29"/>
@@ -12836,7 +12856,7 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B530" s="29"/>
       <c r="D530" s="29"/>
@@ -12851,7 +12871,7 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B531" s="29"/>
       <c r="D531" s="29"/>
@@ -12866,7 +12886,7 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B532" s="29"/>
       <c r="D532" s="29"/>
@@ -12881,7 +12901,7 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B533" s="29"/>
       <c r="D533" s="29"/>
@@ -12896,7 +12916,7 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="29" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B534" s="29"/>
       <c r="D534" s="29"/>
@@ -12911,7 +12931,7 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B535" s="29"/>
       <c r="D535" s="29"/>
@@ -12926,7 +12946,7 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="29" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B536" s="29"/>
       <c r="D536" s="29"/>
@@ -12941,7 +12961,7 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="29" t="s">
-        <v>460</v>
+        <v>711</v>
       </c>
       <c r="B537" s="29"/>
       <c r="D537" s="29"/>
@@ -12956,7 +12976,7 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="29" t="s">
-        <v>712</v>
+        <v>460</v>
       </c>
       <c r="B538" s="29"/>
       <c r="D538" s="29"/>
@@ -12971,7 +12991,7 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B539" s="29"/>
       <c r="D539" s="29"/>
@@ -12986,7 +13006,7 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="29" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B540" s="29"/>
       <c r="D540" s="29"/>
@@ -13001,7 +13021,7 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="29" t="s">
-        <v>462</v>
+        <v>714</v>
       </c>
       <c r="B541" s="29"/>
       <c r="D541" s="29"/>
@@ -13016,7 +13036,7 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="29" t="s">
-        <v>715</v>
+        <v>462</v>
       </c>
       <c r="B542" s="29"/>
       <c r="D542" s="29"/>
@@ -13031,7 +13051,7 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B543" s="29"/>
       <c r="D543" s="29"/>
@@ -13046,7 +13066,7 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B544" s="29"/>
       <c r="D544" s="29"/>
@@ -13061,7 +13081,7 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="29" t="s">
-        <v>464</v>
+        <v>717</v>
       </c>
       <c r="B545" s="29"/>
       <c r="D545" s="29"/>
@@ -13076,7 +13096,7 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="29" t="s">
-        <v>718</v>
+        <v>464</v>
       </c>
       <c r="B546" s="29"/>
       <c r="D546" s="29"/>
@@ -13091,7 +13111,7 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="29" t="s">
-        <v>465</v>
+        <v>718</v>
       </c>
       <c r="B547" s="29"/>
       <c r="D547" s="29"/>
@@ -13106,7 +13126,7 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B548" s="29"/>
       <c r="D548" s="29"/>
@@ -13121,7 +13141,7 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="29" t="s">
-        <v>719</v>
+        <v>466</v>
       </c>
       <c r="B549" s="29"/>
       <c r="D549" s="29"/>
@@ -13136,7 +13156,7 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="29" t="s">
-        <v>467</v>
+        <v>719</v>
       </c>
       <c r="B550" s="29"/>
       <c r="D550" s="29"/>
@@ -13151,7 +13171,7 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="29" t="s">
-        <v>720</v>
+        <v>467</v>
       </c>
       <c r="B551" s="29"/>
       <c r="D551" s="29"/>
@@ -13166,7 +13186,7 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B552" s="29"/>
       <c r="D552" s="29"/>
@@ -13181,7 +13201,7 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B553" s="29"/>
       <c r="D553" s="29"/>
@@ -13196,7 +13216,7 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B554" s="29"/>
       <c r="D554" s="29"/>
@@ -13211,7 +13231,7 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="29" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B555" s="29"/>
       <c r="D555" s="29"/>
@@ -13226,7 +13246,7 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="29" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B556" s="29"/>
       <c r="D556" s="29"/>
@@ -13241,7 +13261,7 @@
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="29" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B557" s="29"/>
       <c r="D557" s="29"/>
@@ -13256,7 +13276,7 @@
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B558" s="29"/>
       <c r="D558" s="29"/>
@@ -13271,7 +13291,7 @@
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="29" t="s">
-        <v>470</v>
+        <v>727</v>
       </c>
       <c r="B559" s="29"/>
       <c r="D559" s="29"/>
@@ -13286,7 +13306,7 @@
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="29" t="s">
-        <v>728</v>
+        <v>470</v>
       </c>
       <c r="B560" s="29"/>
       <c r="D560" s="29"/>
@@ -13301,7 +13321,7 @@
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B561" s="29"/>
       <c r="D561" s="29"/>
@@ -13316,7 +13336,7 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="29" t="s">
-        <v>471</v>
+        <v>729</v>
       </c>
       <c r="B562" s="29"/>
       <c r="D562" s="29"/>
@@ -13331,7 +13351,7 @@
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="29" t="s">
-        <v>730</v>
+        <v>471</v>
       </c>
       <c r="B563" s="29"/>
       <c r="D563" s="29"/>
@@ -13346,7 +13366,7 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="29" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B564" s="29"/>
       <c r="D564" s="29"/>
@@ -13361,7 +13381,7 @@
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B565" s="29"/>
       <c r="D565" s="29"/>
@@ -13376,7 +13396,7 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="29" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B566" s="29"/>
       <c r="D566" s="29"/>
@@ -13391,7 +13411,7 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B567" s="29"/>
       <c r="D567" s="29"/>
@@ -13406,7 +13426,7 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B568" s="29"/>
       <c r="D568" s="29"/>
@@ -13421,7 +13441,7 @@
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B569" s="29"/>
       <c r="D569" s="29"/>
@@ -13436,7 +13456,7 @@
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B570" s="29"/>
       <c r="D570" s="29"/>
@@ -13451,7 +13471,7 @@
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B571" s="29"/>
       <c r="D571" s="29"/>
@@ -13466,7 +13486,7 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B572" s="29"/>
       <c r="D572" s="29"/>
@@ -13481,7 +13501,7 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B573" s="29"/>
       <c r="D573" s="29"/>
@@ -13496,7 +13516,7 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="29" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B574" s="29"/>
       <c r="D574" s="29"/>
@@ -13511,7 +13531,7 @@
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B575" s="29"/>
       <c r="D575" s="29"/>
@@ -13526,7 +13546,7 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B576" s="29"/>
       <c r="D576" s="29"/>
@@ -13541,7 +13561,7 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="29" t="s">
-        <v>474</v>
+        <v>743</v>
       </c>
       <c r="B577" s="29"/>
       <c r="D577" s="29"/>
@@ -13556,7 +13576,7 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="29" t="s">
-        <v>744</v>
+        <v>474</v>
       </c>
       <c r="B578" s="29"/>
       <c r="D578" s="29"/>
@@ -13571,7 +13591,7 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B579" s="29"/>
       <c r="D579" s="29"/>
@@ -13586,7 +13606,7 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B580" s="29"/>
       <c r="D580" s="29"/>
@@ -13601,7 +13621,7 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B581" s="29"/>
       <c r="D581" s="29"/>
@@ -13616,7 +13636,7 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B582" s="29"/>
       <c r="D582" s="29"/>
@@ -13631,7 +13651,7 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B583" s="29"/>
       <c r="D583" s="29"/>
@@ -13646,7 +13666,7 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B584" s="29"/>
       <c r="D584" s="29"/>
@@ -13661,7 +13681,7 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B585" s="29"/>
       <c r="D585" s="29"/>
@@ -13676,7 +13696,7 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B586" s="29"/>
       <c r="D586" s="29"/>
@@ -13691,7 +13711,7 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B587" s="29"/>
       <c r="D587" s="29"/>
@@ -13706,7 +13726,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B588" s="29"/>
       <c r="D588" s="29"/>
@@ -13721,7 +13741,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B589" s="29"/>
       <c r="D589" s="29"/>
@@ -13736,7 +13756,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B590" s="29"/>
       <c r="D590" s="29"/>
@@ -13751,7 +13771,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B591" s="29"/>
       <c r="D591" s="29"/>
@@ -13766,7 +13786,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B592" s="29"/>
       <c r="D592" s="29"/>
@@ -13781,7 +13801,7 @@
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B593" s="29"/>
       <c r="D593" s="29"/>
@@ -13796,7 +13816,7 @@
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B594" s="29"/>
       <c r="D594" s="29"/>
@@ -13811,7 +13831,7 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B595" s="29"/>
       <c r="D595" s="29"/>
@@ -13826,7 +13846,7 @@
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B596" s="29"/>
       <c r="D596" s="29"/>
@@ -13841,7 +13861,7 @@
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B597" s="29"/>
       <c r="D597" s="29"/>
@@ -13856,7 +13876,7 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B598" s="29"/>
       <c r="D598" s="29"/>
@@ -13871,7 +13891,7 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B599" s="29"/>
       <c r="D599" s="29"/>
@@ -13886,7 +13906,7 @@
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B600" s="29"/>
       <c r="D600" s="29"/>
@@ -13901,7 +13921,7 @@
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="29" t="s">
-        <v>478</v>
+        <v>766</v>
       </c>
       <c r="B601" s="29"/>
       <c r="D601" s="29"/>
@@ -13916,7 +13936,7 @@
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="29" t="s">
-        <v>767</v>
+        <v>478</v>
       </c>
       <c r="B602" s="29"/>
       <c r="D602" s="29"/>
@@ -13931,7 +13951,7 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B603" s="29"/>
       <c r="D603" s="29"/>
@@ -13946,7 +13966,7 @@
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B604" s="29"/>
       <c r="D604" s="29"/>
@@ -13961,7 +13981,7 @@
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="29" t="s">
-        <v>479</v>
+        <v>769</v>
       </c>
       <c r="B605" s="29"/>
       <c r="D605" s="29"/>
@@ -13976,7 +13996,7 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="29" t="s">
-        <v>770</v>
+        <v>479</v>
       </c>
       <c r="B606" s="29"/>
       <c r="D606" s="29"/>
@@ -13991,7 +14011,7 @@
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B607" s="29"/>
       <c r="D607" s="29"/>
@@ -14006,7 +14026,7 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B608" s="29"/>
       <c r="D608" s="29"/>
@@ -14021,7 +14041,7 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B609" s="29"/>
       <c r="D609" s="29"/>
@@ -14036,7 +14056,7 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B610" s="29"/>
       <c r="D610" s="29"/>
@@ -14051,7 +14071,7 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B611" s="29"/>
       <c r="D611" s="29"/>
@@ -14066,7 +14086,7 @@
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B612" s="29"/>
       <c r="D612" s="29"/>
@@ -14081,7 +14101,7 @@
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="29" t="s">
-        <v>484</v>
+        <v>776</v>
       </c>
       <c r="B613" s="29"/>
       <c r="D613" s="29"/>
@@ -14096,7 +14116,7 @@
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="29" t="s">
-        <v>777</v>
+        <v>484</v>
       </c>
       <c r="B614" s="29"/>
       <c r="D614" s="29"/>
@@ -14111,7 +14131,7 @@
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="29" t="s">
-        <v>485</v>
+        <v>777</v>
       </c>
       <c r="B615" s="29"/>
       <c r="D615" s="29"/>
@@ -14126,7 +14146,7 @@
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="29" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B616" s="29"/>
       <c r="D616" s="29"/>
@@ -14141,7 +14161,7 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B617" s="29"/>
       <c r="D617" s="29"/>
@@ -14156,7 +14176,7 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="29" t="s">
-        <v>778</v>
+        <v>492</v>
       </c>
       <c r="B618" s="29"/>
       <c r="D618" s="29"/>
@@ -14171,7 +14191,7 @@
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B619" s="29"/>
       <c r="D619" s="29"/>
@@ -14186,7 +14206,7 @@
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B620" s="29"/>
       <c r="D620" s="29"/>
@@ -14201,7 +14221,7 @@
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="29" t="s">
-        <v>493</v>
+        <v>780</v>
       </c>
       <c r="B621" s="29"/>
       <c r="D621" s="29"/>
@@ -14216,7 +14236,7 @@
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="29" t="s">
-        <v>781</v>
+        <v>493</v>
       </c>
       <c r="B622" s="29"/>
       <c r="D622" s="29"/>
@@ -14231,7 +14251,7 @@
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="29" t="s">
-        <v>494</v>
+        <v>781</v>
       </c>
       <c r="B623" s="29"/>
       <c r="D623" s="29"/>
@@ -14246,7 +14266,7 @@
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="29" t="s">
-        <v>782</v>
+        <v>494</v>
       </c>
       <c r="B624" s="29"/>
       <c r="D624" s="29"/>
@@ -14261,7 +14281,7 @@
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B625" s="29"/>
       <c r="D625" s="29"/>
@@ -14276,7 +14296,7 @@
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B626" s="29"/>
       <c r="D626" s="29"/>
@@ -14291,7 +14311,7 @@
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B627" s="29"/>
       <c r="D627" s="29"/>
@@ -14306,7 +14326,7 @@
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B628" s="29"/>
       <c r="D628" s="29"/>
@@ -14321,7 +14341,7 @@
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B629" s="29"/>
       <c r="D629" s="29"/>
@@ -14336,7 +14356,7 @@
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B630" s="29"/>
       <c r="D630" s="29"/>
@@ -14351,7 +14371,7 @@
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B631" s="29"/>
       <c r="D631" s="29"/>
@@ -14366,7 +14386,7 @@
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B632" s="29"/>
       <c r="D632" s="29"/>
@@ -14381,7 +14401,7 @@
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B633" s="29"/>
       <c r="D633" s="29"/>
@@ -14396,7 +14416,7 @@
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B634" s="29"/>
       <c r="D634" s="29"/>
@@ -14411,7 +14431,7 @@
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B635" s="29"/>
       <c r="D635" s="29"/>
@@ -14426,7 +14446,7 @@
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B636" s="29"/>
       <c r="D636" s="29"/>
@@ -14441,7 +14461,7 @@
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B637" s="29"/>
       <c r="D637" s="29"/>
@@ -14456,7 +14476,7 @@
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="29" t="s">
-        <v>495</v>
+        <v>795</v>
       </c>
       <c r="B638" s="29"/>
       <c r="D638" s="29"/>
@@ -14471,7 +14491,7 @@
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="29" t="s">
-        <v>796</v>
+        <v>495</v>
       </c>
       <c r="B639" s="29"/>
       <c r="D639" s="29"/>
@@ -14486,7 +14506,7 @@
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B640" s="29"/>
       <c r="D640" s="29"/>
@@ -14501,7 +14521,7 @@
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B641" s="29"/>
       <c r="D641" s="29"/>
@@ -14516,7 +14536,7 @@
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B642" s="29"/>
       <c r="D642" s="29"/>
@@ -14531,7 +14551,7 @@
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B643" s="29"/>
       <c r="D643" s="29"/>
@@ -14546,7 +14566,7 @@
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" s="29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B644" s="29"/>
       <c r="D644" s="29"/>
@@ -14561,7 +14581,7 @@
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" s="29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B645" s="29"/>
       <c r="D645" s="29"/>
@@ -14576,7 +14596,7 @@
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646" s="29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B646" s="29"/>
       <c r="D646" s="29"/>
@@ -14591,7 +14611,7 @@
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B647" s="29"/>
       <c r="D647" s="29"/>
@@ -14606,7 +14626,7 @@
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" s="29" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B648" s="29"/>
       <c r="D648" s="29"/>
@@ -14621,7 +14641,7 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B649" s="29"/>
       <c r="D649" s="29"/>
@@ -14636,7 +14656,7 @@
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" s="29" t="s">
-        <v>499</v>
+        <v>806</v>
       </c>
       <c r="B650" s="29"/>
       <c r="D650" s="29"/>
@@ -14651,7 +14671,7 @@
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" s="29" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B651" s="29"/>
       <c r="D651" s="29"/>
@@ -14666,7 +14686,7 @@
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" s="29" t="s">
-        <v>807</v>
+        <v>503</v>
       </c>
       <c r="B652" s="29"/>
       <c r="D652" s="29"/>
@@ -14681,7 +14701,7 @@
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B653" s="29"/>
       <c r="D653" s="29"/>
@@ -14696,7 +14716,7 @@
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" s="29" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B654" s="29"/>
       <c r="D654" s="29"/>
@@ -14711,7 +14731,7 @@
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" s="29" t="s">
-        <v>508</v>
+        <v>809</v>
       </c>
       <c r="B655" s="29"/>
       <c r="D655" s="29"/>
@@ -14726,7 +14746,7 @@
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" s="29" t="s">
-        <v>810</v>
+        <v>508</v>
       </c>
       <c r="B656" s="29"/>
       <c r="D656" s="29"/>
@@ -14741,7 +14761,7 @@
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" s="29" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B657" s="29"/>
       <c r="D657" s="29"/>
@@ -14756,7 +14776,7 @@
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B658" s="29"/>
       <c r="D658" s="29"/>
@@ -14771,7 +14791,7 @@
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B659" s="29"/>
       <c r="D659" s="29"/>
@@ -14786,7 +14806,7 @@
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B660" s="29"/>
       <c r="D660" s="29"/>
@@ -14801,7 +14821,7 @@
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" s="29" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B661" s="29"/>
       <c r="D661" s="29"/>
@@ -14816,7 +14836,7 @@
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B662" s="29"/>
       <c r="D662" s="29"/>
@@ -14831,7 +14851,7 @@
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" s="29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B663" s="29"/>
       <c r="D663" s="29"/>
@@ -14846,7 +14866,7 @@
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B664" s="29"/>
       <c r="D664" s="29"/>
@@ -14861,7 +14881,7 @@
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" s="29" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B665" s="29"/>
       <c r="D665" s="29"/>
@@ -14876,7 +14896,7 @@
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B666" s="29"/>
       <c r="D666" s="29"/>
@@ -14891,7 +14911,7 @@
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" s="29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B667" s="29"/>
       <c r="D667" s="29"/>
@@ -14906,7 +14926,7 @@
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" s="29" t="s">
-        <v>510</v>
+        <v>821</v>
       </c>
       <c r="B668" s="29"/>
       <c r="D668" s="29"/>
@@ -14921,7 +14941,7 @@
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" s="29" t="s">
-        <v>822</v>
+        <v>510</v>
       </c>
       <c r="B669" s="29"/>
       <c r="D669" s="29"/>
@@ -14936,7 +14956,7 @@
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" s="29" t="s">
-        <v>512</v>
+        <v>822</v>
       </c>
       <c r="B670" s="29"/>
       <c r="D670" s="29"/>
@@ -14951,7 +14971,7 @@
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" s="29" t="s">
-        <v>823</v>
+        <v>512</v>
       </c>
       <c r="B671" s="29"/>
       <c r="D671" s="29"/>
@@ -14966,7 +14986,7 @@
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B672" s="29"/>
       <c r="D672" s="29"/>
@@ -14981,7 +15001,7 @@
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673" s="29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B673" s="29"/>
       <c r="D673" s="29"/>
@@ -14996,7 +15016,7 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B674" s="29"/>
       <c r="D674" s="29"/>
@@ -15011,7 +15031,7 @@
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B675" s="29"/>
       <c r="D675" s="29"/>
@@ -15026,7 +15046,7 @@
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" s="29" t="s">
-        <v>515</v>
+        <v>827</v>
       </c>
       <c r="B676" s="29"/>
       <c r="D676" s="29"/>
@@ -15041,7 +15061,7 @@
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677" s="29" t="s">
-        <v>828</v>
+        <v>515</v>
       </c>
       <c r="B677" s="29"/>
       <c r="D677" s="29"/>
@@ -15056,7 +15076,7 @@
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678" s="29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B678" s="29"/>
       <c r="D678" s="29"/>
@@ -15071,7 +15091,7 @@
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B679" s="29"/>
       <c r="D679" s="29"/>
@@ -15086,7 +15106,7 @@
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" s="29" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B680" s="29"/>
       <c r="D680" s="29"/>
@@ -15101,7 +15121,7 @@
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B681" s="29"/>
       <c r="D681" s="29"/>
@@ -15116,7 +15136,7 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B682" s="29"/>
       <c r="D682" s="29"/>
@@ -15131,7 +15151,7 @@
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B683" s="29"/>
       <c r="D683" s="29"/>
@@ -15146,7 +15166,7 @@
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" s="29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B684" s="29"/>
       <c r="D684" s="29"/>
@@ -15161,7 +15181,7 @@
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B685" s="29"/>
       <c r="D685" s="29"/>
@@ -15176,7 +15196,7 @@
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" s="29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B686" s="29"/>
       <c r="D686" s="29"/>
@@ -15191,7 +15211,7 @@
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B687" s="29"/>
       <c r="D687" s="29"/>
@@ -15206,7 +15226,7 @@
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B688" s="29"/>
       <c r="D688" s="29"/>
@@ -15221,7 +15241,7 @@
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B689" s="29"/>
       <c r="D689" s="29"/>
@@ -15236,7 +15256,7 @@
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B690" s="29"/>
       <c r="D690" s="29"/>
@@ -15251,7 +15271,7 @@
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691" s="29" t="s">
-        <v>523</v>
+        <v>841</v>
       </c>
       <c r="B691" s="29"/>
       <c r="D691" s="29"/>
@@ -15266,7 +15286,7 @@
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692" s="29" t="s">
-        <v>842</v>
+        <v>523</v>
       </c>
       <c r="B692" s="29"/>
       <c r="D692" s="29"/>
@@ -15281,7 +15301,7 @@
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693" s="29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B693" s="29"/>
       <c r="D693" s="29"/>
@@ -15296,7 +15316,7 @@
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B694" s="29"/>
       <c r="D694" s="29"/>
@@ -15311,7 +15331,7 @@
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" s="29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B695" s="29"/>
       <c r="D695" s="29"/>
@@ -15326,7 +15346,7 @@
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696" s="29" t="s">
-        <v>527</v>
+        <v>845</v>
       </c>
       <c r="B696" s="29"/>
       <c r="D696" s="29"/>
@@ -15341,7 +15361,7 @@
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697" s="29" t="s">
-        <v>846</v>
+        <v>527</v>
       </c>
       <c r="B697" s="29"/>
       <c r="D697" s="29"/>
@@ -15356,7 +15376,7 @@
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698" s="29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B698" s="29"/>
       <c r="D698" s="29"/>
@@ -15371,7 +15391,7 @@
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" s="29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B699" s="29"/>
       <c r="D699" s="29"/>
@@ -15386,7 +15406,7 @@
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700" s="29" t="s">
-        <v>531</v>
+        <v>848</v>
       </c>
       <c r="B700" s="29"/>
       <c r="D700" s="29"/>
@@ -15401,7 +15421,7 @@
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701" s="29" t="s">
-        <v>849</v>
+        <v>531</v>
       </c>
       <c r="B701" s="29"/>
       <c r="D701" s="29"/>
@@ -15416,7 +15436,7 @@
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702" s="29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B702" s="29"/>
       <c r="D702" s="29"/>
@@ -15431,7 +15451,7 @@
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B703" s="29"/>
       <c r="D703" s="29"/>
@@ -15446,7 +15466,7 @@
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704" s="29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B704" s="29"/>
       <c r="D704" s="29"/>
@@ -15461,7 +15481,7 @@
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="29" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B705" s="29"/>
       <c r="D705" s="29"/>
@@ -15476,7 +15496,7 @@
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="29" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B706" s="29"/>
       <c r="D706" s="29"/>
@@ -15491,7 +15511,7 @@
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="29" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B707" s="29"/>
       <c r="D707" s="29"/>
@@ -15506,7 +15526,7 @@
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="29" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B708" s="29"/>
       <c r="D708" s="29"/>
@@ -15521,7 +15541,7 @@
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" s="29" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B709" s="29"/>
       <c r="D709" s="29"/>
@@ -15536,7 +15556,7 @@
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" s="29" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B710" s="29"/>
       <c r="D710" s="29"/>
@@ -15551,7 +15571,7 @@
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" s="29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B711" s="29"/>
       <c r="D711" s="29"/>
@@ -15566,7 +15586,7 @@
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" s="29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B712" s="29"/>
       <c r="D712" s="29"/>
@@ -15581,7 +15601,7 @@
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" s="29" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B713" s="29"/>
       <c r="D713" s="29"/>
@@ -15596,7 +15616,7 @@
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" s="29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B714" s="29"/>
       <c r="D714" s="29"/>
@@ -15611,7 +15631,7 @@
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" s="29" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B715" s="29"/>
       <c r="D715" s="29"/>
@@ -15626,7 +15646,7 @@
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="29" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B716" s="29"/>
       <c r="D716" s="29"/>
@@ -15641,7 +15661,7 @@
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B717" s="29"/>
       <c r="D717" s="29"/>
@@ -15656,7 +15676,7 @@
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B718" s="29"/>
       <c r="D718" s="29"/>
@@ -15671,7 +15691,7 @@
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" s="29" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B719" s="29"/>
       <c r="D719" s="29"/>
@@ -15686,7 +15706,7 @@
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" s="29" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B720" s="29"/>
       <c r="D720" s="29"/>
@@ -15701,7 +15721,7 @@
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721" s="29" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B721" s="29"/>
       <c r="D721" s="29"/>
@@ -15716,7 +15736,7 @@
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B722" s="29"/>
       <c r="D722" s="29"/>
@@ -15731,7 +15751,7 @@
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723" s="29" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B723" s="29"/>
       <c r="D723" s="29"/>
@@ -15746,7 +15766,7 @@
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724" s="29" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B724" s="29"/>
       <c r="D724" s="29"/>
@@ -15761,7 +15781,7 @@
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725" s="29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B725" s="29"/>
       <c r="D725" s="29"/>
@@ -15776,7 +15796,7 @@
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726" s="29" t="s">
-        <v>533</v>
+        <v>873</v>
       </c>
       <c r="B726" s="29"/>
       <c r="D726" s="29"/>
@@ -15791,7 +15811,7 @@
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727" s="29" t="s">
-        <v>874</v>
+        <v>533</v>
       </c>
       <c r="B727" s="29"/>
       <c r="D727" s="29"/>
@@ -15806,7 +15826,7 @@
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" s="29" t="s">
-        <v>534</v>
+        <v>874</v>
       </c>
       <c r="B728" s="29"/>
       <c r="D728" s="29"/>
@@ -15821,7 +15841,7 @@
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B729" s="29"/>
       <c r="D729" s="29"/>
@@ -15836,7 +15856,7 @@
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730" s="29" t="s">
-        <v>875</v>
+        <v>535</v>
       </c>
       <c r="B730" s="29"/>
       <c r="D730" s="29"/>
@@ -15851,7 +15871,7 @@
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731" s="29" t="s">
-        <v>537</v>
+        <v>875</v>
       </c>
       <c r="B731" s="29"/>
       <c r="D731" s="29"/>
@@ -15866,7 +15886,7 @@
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732" s="29" t="s">
-        <v>876</v>
+        <v>537</v>
       </c>
       <c r="B732" s="29"/>
       <c r="D732" s="29"/>
@@ -15881,7 +15901,7 @@
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" s="29" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B733" s="29"/>
       <c r="D733" s="29"/>
@@ -15896,7 +15916,7 @@
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734" s="29" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B734" s="29"/>
       <c r="D734" s="29"/>
@@ -15911,7 +15931,7 @@
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735" s="29" t="s">
-        <v>538</v>
+        <v>878</v>
       </c>
       <c r="B735" s="29"/>
       <c r="D735" s="29"/>
@@ -15926,7 +15946,7 @@
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736" s="29" t="s">
-        <v>879</v>
+        <v>538</v>
       </c>
       <c r="B736" s="29"/>
       <c r="D736" s="29"/>
@@ -15941,7 +15961,7 @@
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A737" s="29" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B737" s="29"/>
       <c r="D737" s="29"/>
@@ -15956,7 +15976,7 @@
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A738" s="29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B738" s="29"/>
       <c r="D738" s="29"/>
@@ -15971,7 +15991,7 @@
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A739" s="29" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B739" s="29"/>
       <c r="D739" s="29"/>
@@ -15986,7 +16006,7 @@
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A740" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B740" s="29"/>
       <c r="D740" s="29"/>
@@ -16001,7 +16021,7 @@
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A741" s="29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B741" s="29"/>
       <c r="D741" s="29"/>
@@ -16016,7 +16036,7 @@
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A742" s="29" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B742" s="29"/>
       <c r="D742" s="29"/>
@@ -16031,7 +16051,7 @@
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A743" s="29" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B743" s="29"/>
       <c r="D743" s="29"/>
@@ -16046,7 +16066,7 @@
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A744" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B744" s="29"/>
       <c r="D744" s="29"/>
@@ -16061,7 +16081,7 @@
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A745" s="29" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B745" s="29"/>
       <c r="D745" s="29"/>
@@ -16076,7 +16096,7 @@
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A746" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B746" s="29"/>
       <c r="D746" s="29"/>
@@ -16091,7 +16111,7 @@
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A747" s="29" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B747" s="29"/>
       <c r="D747" s="29"/>
@@ -16106,7 +16126,7 @@
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A748" s="29" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B748" s="29"/>
       <c r="D748" s="29"/>
@@ -16121,7 +16141,7 @@
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A749" s="29" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B749" s="29"/>
       <c r="D749" s="29"/>
@@ -16136,7 +16156,7 @@
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A750" s="29" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B750" s="29"/>
       <c r="D750" s="29"/>
@@ -16150,8 +16170,8 @@
       <c r="L750" s="29"/>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A751" s="29" t="b">
-        <v>1</v>
+      <c r="A751" s="29" t="s">
+        <v>893</v>
       </c>
       <c r="B751" s="29"/>
       <c r="D751" s="29"/>
@@ -16165,8 +16185,8 @@
       <c r="L751" s="29"/>
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A752" s="29" t="s">
-        <v>894</v>
+      <c r="A752" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="B752" s="29"/>
       <c r="D752" s="29"/>
@@ -16181,7 +16201,7 @@
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A753" s="29" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B753" s="29"/>
       <c r="D753" s="29"/>
@@ -16196,7 +16216,7 @@
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A754" s="29" t="s">
-        <v>546</v>
+        <v>895</v>
       </c>
       <c r="B754" s="29"/>
       <c r="D754" s="29"/>
@@ -16211,7 +16231,7 @@
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A755" s="29" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B755" s="29"/>
       <c r="D755" s="29"/>
@@ -16226,7 +16246,7 @@
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A756" s="29" t="s">
-        <v>896</v>
+        <v>547</v>
       </c>
       <c r="B756" s="29"/>
       <c r="D756" s="29"/>
@@ -16241,7 +16261,7 @@
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A757" s="29" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B757" s="29"/>
       <c r="D757" s="29"/>
@@ -16256,7 +16276,7 @@
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A758" s="29" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B758" s="29"/>
       <c r="D758" s="29"/>
@@ -16271,7 +16291,7 @@
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A759" s="29" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B759" s="29"/>
       <c r="D759" s="29"/>
@@ -16286,7 +16306,7 @@
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A760" s="29" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B760" s="29"/>
       <c r="D760" s="29"/>
@@ -16301,7 +16321,7 @@
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A761" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B761" s="29"/>
       <c r="D761" s="29"/>
@@ -16316,7 +16336,7 @@
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A762" s="29" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B762" s="29"/>
       <c r="D762" s="29"/>
@@ -16331,7 +16351,7 @@
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A763" s="29" t="s">
-        <v>552</v>
+        <v>902</v>
       </c>
       <c r="B763" s="29"/>
       <c r="D763" s="29"/>
@@ -16346,7 +16366,7 @@
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A764" s="29" t="s">
-        <v>903</v>
+        <v>552</v>
       </c>
       <c r="B764" s="29"/>
       <c r="D764" s="29"/>
@@ -16361,7 +16381,7 @@
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A765" s="29" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B765" s="29"/>
       <c r="D765" s="29"/>
@@ -16376,7 +16396,7 @@
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766" s="29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B766" s="29"/>
       <c r="D766" s="29"/>
@@ -16391,7 +16411,7 @@
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A767" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B767" s="29"/>
       <c r="D767" s="29"/>
@@ -16406,7 +16426,7 @@
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A768" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B768" s="29"/>
       <c r="D768" s="29"/>
@@ -16421,7 +16441,7 @@
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A769" s="29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B769" s="29"/>
       <c r="D769" s="29"/>
@@ -16436,7 +16456,7 @@
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A770" s="29" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B770" s="29"/>
       <c r="D770" s="29"/>
@@ -16451,7 +16471,7 @@
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A771" s="29" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B771" s="29"/>
       <c r="D771" s="29"/>
@@ -16466,7 +16486,7 @@
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A772" s="29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B772" s="29"/>
       <c r="D772" s="29"/>
@@ -16481,7 +16501,7 @@
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A773" s="29" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B773" s="29"/>
       <c r="D773" s="29"/>
@@ -16496,7 +16516,7 @@
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A774" s="29" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B774" s="29"/>
       <c r="D774" s="29"/>
@@ -16511,7 +16531,7 @@
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775" s="29" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B775" s="29"/>
       <c r="D775" s="29"/>
@@ -16526,7 +16546,7 @@
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A776" s="29" t="s">
-        <v>557</v>
+        <v>914</v>
       </c>
       <c r="B776" s="29"/>
       <c r="D776" s="29"/>
@@ -16541,7 +16561,7 @@
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A777" s="29" t="s">
-        <v>915</v>
+        <v>557</v>
       </c>
       <c r="B777" s="29"/>
       <c r="D777" s="29"/>
@@ -16556,7 +16576,7 @@
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A778" s="29" t="s">
-        <v>558</v>
+        <v>915</v>
       </c>
       <c r="B778" s="29"/>
       <c r="D778" s="29"/>
@@ -16571,7 +16591,7 @@
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A779" s="29" t="s">
-        <v>916</v>
+        <v>558</v>
       </c>
       <c r="B779" s="29"/>
       <c r="D779" s="29"/>
@@ -16586,7 +16606,7 @@
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A780" s="29" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B780" s="29"/>
       <c r="D780" s="29"/>
@@ -16601,7 +16621,7 @@
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A781" s="29" t="s">
-        <v>560</v>
+        <v>917</v>
       </c>
       <c r="B781" s="29"/>
       <c r="D781" s="29"/>
@@ -16616,7 +16636,7 @@
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782" s="29" t="s">
-        <v>918</v>
+        <v>560</v>
       </c>
       <c r="B782" s="29"/>
       <c r="D782" s="29"/>
@@ -16631,7 +16651,7 @@
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A783" s="29" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B783" s="29"/>
       <c r="D783" s="29"/>
@@ -16646,7 +16666,7 @@
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A784" s="29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B784" s="29"/>
       <c r="D784" s="29"/>
@@ -16661,7 +16681,7 @@
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785" s="29" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B785" s="29"/>
       <c r="D785" s="29"/>
@@ -16676,7 +16696,7 @@
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A786" s="29" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B786" s="29"/>
       <c r="D786" s="29"/>
@@ -16691,7 +16711,7 @@
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A787" s="29" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B787" s="29"/>
       <c r="D787" s="29"/>
@@ -16706,7 +16726,7 @@
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A788" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B788" s="29"/>
       <c r="D788" s="29"/>
@@ -16721,7 +16741,7 @@
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A789" s="29" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B789" s="29"/>
       <c r="D789" s="29"/>
@@ -16736,7 +16756,7 @@
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790" s="29" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B790" s="29"/>
       <c r="D790" s="29"/>
@@ -16751,7 +16771,7 @@
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791" s="29" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B791" s="29"/>
       <c r="D791" s="29"/>
@@ -16766,7 +16786,7 @@
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A792" s="29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B792" s="29"/>
       <c r="D792" s="29"/>
@@ -16781,7 +16801,7 @@
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" s="29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B793" s="29"/>
       <c r="D793" s="29"/>
@@ -16796,7 +16816,7 @@
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794" s="29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B794" s="29"/>
       <c r="D794" s="29"/>
@@ -16811,7 +16831,7 @@
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B795" s="29"/>
       <c r="D795" s="29"/>
@@ -16825,7 +16845,9 @@
       <c r="L795" s="29"/>
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A796" s="29"/>
+      <c r="A796" s="29" t="s">
+        <v>931</v>
+      </c>
       <c r="B796" s="29"/>
       <c r="D796" s="29"/>
       <c r="E796" s="29"/>
@@ -16838,17 +16860,17 @@
       <c r="L796" s="29"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A83">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A77:A84">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A75:A83">
-      <formula1>LEN(A75)=LEN(SUBSTITUTE(A75," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
+      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B75 B77:B86"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Samples/003_Cascading_Selects.xlsx
+++ b/Samples/003_Cascading_Selects.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="964">
   <si>
     <t>type</t>
   </si>
@@ -708,9 +708,6 @@
     <t>signature</t>
   </si>
   <si>
-    <t>Applies to image fields.Presents a UI for signature capture. The signature will be added to the feature as an attachment.</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -2875,6 +2872,48 @@
   </si>
   <si>
     <t>bind::type</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>Records an audio sample.</t>
+  </si>
+  <si>
+    <t>Applies to image fields. Presents a UI for signature capture. The signature will be added to the feature as an attachment.</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>Applies to image fields. Allows user to open a canvas window to sketch on.</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>Applies to image fields. Allows user to open a canvas window to sketch on. Also supports annotation on images.</t>
+  </si>
+  <si>
+    <t>esriFieldTypeSingle</t>
+  </si>
+  <si>
+    <t>Single-precision floating point numbers</t>
+  </si>
+  <si>
+    <t>esriFieldTypeSmallInteger</t>
+  </si>
+  <si>
+    <t>Small whole numbers (from -32,768 to 32,767)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Does not require field in feature service.</t>
+  </si>
+  <si>
+    <t>GLOBALID</t>
   </si>
 </sst>
 </file>
@@ -3179,7 +3218,15 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3237,6 +3284,14 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3320,15 +3375,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:X236"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="5"/>
-    <tableColumn id="4" name="hint" dataDxfId="4"/>
+    <tableColumn id="3" name="label" dataDxfId="6"/>
+    <tableColumn id="4" name="hint" dataDxfId="5"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="3"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="4"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3662,7 +3717,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3704,7 +3759,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3763,7 +3818,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3781,10 +3836,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>100</v>
@@ -3799,7 +3854,7 @@
         <v>53</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="U1" s="24" t="s">
         <v>214</v>
@@ -3808,10 +3863,10 @@
         <v>215</v>
       </c>
       <c r="W1" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" s="26" t="s">
         <v>252</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>253</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -3828,21 +3883,21 @@
         <v>31</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="16.5" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>260</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>261</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3853,19 +3908,19 @@
     </row>
     <row r="4" spans="1:33" ht="16.5" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>262</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>263</v>
       </c>
       <c r="I4" t="s">
         <v>46</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="16.5" customHeight="1">
@@ -3891,7 +3946,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="B6:B233">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C1048576"/>
@@ -3929,25 +3984,25 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="732" yWindow="283" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required" prompt="Select 'yes' to require a value in this field before completing the survey.">
           <x14:formula1>
-            <xm:f>types!$A$27:$A$28</xm:f>
+            <xm:f>types!$A$28:$A$29</xm:f>
           </x14:formula1>
           <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default" prompt="Select 'yes' to set the values in this field to read-only. These values will not be able to be edited in the survey.">
           <x14:formula1>
-            <xm:f>types!$A$31:$A$32</xm:f>
+            <xm:f>types!$A$32:$A$33</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$132:$A$137</xm:f>
+            <xm:f>types!$A$135:$A$143</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>types!$A$3:$A$24</xm:f>
+            <xm:f>types!$A$3:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -3992,103 +4047,103 @@
         <v>12</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>266</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>267</v>
       </c>
       <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>268</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>269</v>
       </c>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>271</v>
       </c>
       <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>272</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>273</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>274</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>275</v>
       </c>
       <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>276</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>277</v>
       </c>
       <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>278</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>279</v>
       </c>
       <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>280</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>281</v>
       </c>
       <c r="D9" s="36"/>
     </row>
@@ -4100,450 +4155,450 @@
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1">
       <c r="A11" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>283</v>
-      </c>
       <c r="C11" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1">
@@ -4594,21 +4649,21 @@
         <v>209</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>931</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>948</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1">
@@ -4628,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L802"/>
+  <dimension ref="A1:L809"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4832,10 +4887,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -4954,7 +5009,7 @@
         <v>216</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -4971,7 +5026,7 @@
         <v>217</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -4985,10 +5040,10 @@
     </row>
     <row r="21" spans="1:12" ht="38.25">
       <c r="A21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -5002,10 +5057,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -5052,8 +5107,12 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>951</v>
+      </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
@@ -5064,10 +5123,8 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
-      <c r="A26" s="14" t="s">
-        <v>40</v>
-      </c>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -5079,11 +5136,11 @@
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="29"/>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="27" spans="1:12" ht="13.15">
+      <c r="A27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
@@ -5095,11 +5152,9 @@
       <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="A28" s="29"/>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -5112,8 +5167,12 @@
       <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
@@ -5124,10 +5183,8 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
-      <c r="A30" s="14" t="s">
-        <v>103</v>
-      </c>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29"/>
       <c r="B30" s="1"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -5139,11 +5196,11 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="29"/>
-      <c r="B31" s="1" t="s">
-        <v>104</v>
-      </c>
+    <row r="31" spans="1:12" ht="13.15">
+      <c r="A31" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
@@ -5155,11 +5212,9 @@
       <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32" s="29"/>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -5172,8 +5227,12 @@
       <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -5184,10 +5243,8 @@
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
     </row>
-    <row r="34" spans="1:12" ht="13.15">
-      <c r="A34" s="14" t="s">
-        <v>45</v>
-      </c>
+    <row r="34" spans="1:12">
+      <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -5199,13 +5256,11 @@
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>228</v>
-      </c>
+    <row r="35" spans="1:12" ht="13.15">
+      <c r="A35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
@@ -5217,11 +5272,11 @@
       <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="29" t="s">
-        <v>46</v>
+      <c r="A36" s="25" t="s">
+        <v>227</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>315</v>
+        <v>952</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -5234,11 +5289,11 @@
       <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="29" t="s">
-        <v>114</v>
+      <c r="A37" s="25" t="s">
+        <v>953</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>115</v>
+        <v>954</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
@@ -5251,11 +5306,11 @@
       <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="29" t="s">
-        <v>239</v>
+      <c r="A38" s="25" t="s">
+        <v>955</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>240</v>
+        <v>956</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
@@ -5269,10 +5324,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="29" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
@@ -5286,10 +5341,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="29" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -5303,10 +5358,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="29" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -5320,10 +5375,10 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -5337,10 +5392,10 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="29" t="s">
-        <v>932</v>
+        <v>243</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>933</v>
+        <v>245</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -5354,10 +5409,10 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="29" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -5371,10 +5426,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="29" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
@@ -5388,10 +5443,10 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="29" t="s">
-        <v>113</v>
+        <v>931</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>320</v>
+        <v>932</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -5405,10 +5460,10 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="29" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -5422,10 +5477,10 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -5439,10 +5494,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="29" t="s">
-        <v>934</v>
+        <v>113</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>935</v>
+        <v>319</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -5456,10 +5511,10 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="29" t="s">
-        <v>936</v>
+        <v>116</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>937</v>
+        <v>117</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -5473,10 +5528,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="29" t="s">
-        <v>938</v>
+        <v>320</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>939</v>
+        <v>321</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
@@ -5490,10 +5545,10 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="29" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
@@ -5506,8 +5561,12 @@
       <c r="L52" s="29"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>936</v>
+      </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
@@ -5518,11 +5577,13 @@
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
     </row>
-    <row r="54" spans="1:12" s="8" customFormat="1" ht="13.15">
-      <c r="A54" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="29"/>
+    <row r="54" spans="1:12" s="8" customFormat="1">
+      <c r="A54" s="29" t="s">
+        <v>937</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>938</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
@@ -5536,10 +5597,10 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="29" t="s">
-        <v>108</v>
+        <v>939</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -5552,12 +5613,8 @@
       <c r="L55" s="29"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="29" t="s">
-        <v>943</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>944</v>
-      </c>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
@@ -5568,13 +5625,11 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>110</v>
-      </c>
+    <row r="57" spans="1:12" ht="13.15">
+      <c r="A57" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -5586,8 +5641,12 @@
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>941</v>
+      </c>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -5598,12 +5657,12 @@
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
     </row>
-    <row r="59" spans="1:12" ht="13.15">
-      <c r="A59" s="14" t="s">
-        <v>232</v>
+    <row r="59" spans="1:12">
+      <c r="A59" s="29" t="s">
+        <v>942</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>233</v>
+        <v>943</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -5616,9 +5675,11 @@
       <c r="L59" s="29"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="29"/>
+      <c r="A60" s="29" t="s">
+        <v>109</v>
+      </c>
       <c r="B60" s="29" t="s">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -5630,8 +5691,8 @@
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
     </row>
-    <row r="61" spans="1:12" ht="13.15">
-      <c r="A61" s="14"/>
+    <row r="61" spans="1:12">
+      <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
@@ -5645,14 +5706,14 @@
     </row>
     <row r="62" spans="1:12" ht="13.15">
       <c r="A62" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+        <v>231</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
@@ -5661,14 +5722,9 @@
       <c r="L62" s="29"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>57</v>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29" t="s">
+        <v>233</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -5680,16 +5736,9 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>60</v>
-      </c>
+    <row r="64" spans="1:12" ht="13.15">
+      <c r="A64" s="14"/>
+      <c r="B64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -5700,19 +5749,16 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+    <row r="65" spans="1:12" ht="13.15">
+      <c r="A65" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
@@ -5721,14 +5767,14 @@
       <c r="L65" s="29"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>97</v>
+      <c r="A66" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -5742,13 +5788,13 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
@@ -5762,13 +5808,13 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -5782,13 +5828,13 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
@@ -5802,13 +5848,13 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -5822,13 +5868,13 @@
     </row>
     <row r="71" spans="1:12" s="22" customFormat="1">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
@@ -5842,13 +5888,13 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
@@ -5862,13 +5908,13 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
@@ -5882,13 +5928,13 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
@@ -5902,13 +5948,13 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
@@ -5922,13 +5968,13 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -5942,13 +5988,13 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
@@ -5961,9 +6007,15 @@
       <c r="L77" s="29"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="6"/>
+      <c r="A78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
@@ -5974,15 +6026,19 @@
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
     </row>
-    <row r="79" spans="1:12" ht="13.15">
-      <c r="A79" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
@@ -5991,13 +6047,15 @@
       <c r="L79" s="29"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="21"/>
+      <c r="A80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
@@ -6009,12 +6067,9 @@
       <c r="L80" s="29"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>187</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -6025,16 +6080,15 @@
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
     </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
+    <row r="82" spans="1:12" ht="13.15">
+      <c r="A82" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
@@ -6043,12 +6097,13 @@
       <c r="L82" s="29"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A83" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="21"/>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
@@ -6061,10 +6116,10 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -6078,10 +6133,10 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>193</v>
+        <v>322</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
@@ -6095,10 +6150,10 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
@@ -6112,10 +6167,10 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
@@ -6129,10 +6184,10 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -6146,10 +6201,10 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="17" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
@@ -6162,11 +6217,11 @@
       <c r="L89" s="29"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="19" t="s">
-        <v>207</v>
+      <c r="A90" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -6179,11 +6234,11 @@
       <c r="L90" s="29"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="19" t="s">
-        <v>208</v>
+      <c r="A91" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
@@ -6196,11 +6251,11 @@
       <c r="L91" s="29"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="19" t="s">
-        <v>324</v>
+      <c r="A92" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -6213,8 +6268,12 @@
       <c r="L92" s="29"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
+      <c r="A93" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
       <c r="F93" s="29"/>
@@ -6225,11 +6284,13 @@
       <c r="K93" s="29"/>
       <c r="L93" s="29"/>
     </row>
-    <row r="94" spans="1:12" ht="13.15">
-      <c r="A94" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="29"/>
+    <row r="94" spans="1:12">
+      <c r="A94" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -6241,11 +6302,11 @@
       <c r="L94" s="29"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>119</v>
+      <c r="A95" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
@@ -6258,12 +6319,8 @@
       <c r="L95" s="29"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="29"/>
@@ -6274,13 +6331,11 @@
       <c r="K96" s="29"/>
       <c r="L96" s="29"/>
     </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>123</v>
-      </c>
+    <row r="97" spans="1:12" ht="13.15">
+      <c r="A97" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="29"/>
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
@@ -6291,12 +6346,12 @@
       <c r="K97" s="29"/>
       <c r="L97" s="29"/>
     </row>
-    <row r="98" spans="1:12" ht="25.5">
-      <c r="A98" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>125</v>
+    <row r="98" spans="1:12">
+      <c r="A98" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
@@ -6310,10 +6365,10 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -6327,10 +6382,10 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
@@ -6342,12 +6397,12 @@
       <c r="K100" s="29"/>
       <c r="L100" s="29"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" ht="25.5">
       <c r="A101" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -6361,10 +6416,10 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
@@ -6378,10 +6433,10 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
@@ -6395,10 +6450,10 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -6412,10 +6467,10 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
@@ -6429,10 +6484,10 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
@@ -6446,10 +6501,10 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
@@ -6463,10 +6518,10 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
@@ -6480,10 +6535,10 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
@@ -6497,10 +6552,10 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -6514,10 +6569,10 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="29"/>
@@ -6531,10 +6586,10 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="29"/>
@@ -6548,10 +6603,10 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="29"/>
@@ -6565,10 +6620,10 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
@@ -6582,10 +6637,10 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
@@ -6599,10 +6654,10 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="29"/>
@@ -6616,10 +6671,10 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
@@ -6633,10 +6688,10 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="29"/>
@@ -6650,10 +6705,10 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
@@ -6667,10 +6722,10 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="29"/>
@@ -6684,10 +6739,10 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="29"/>
@@ -6701,10 +6756,10 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="29"/>
@@ -6718,10 +6773,10 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
@@ -6735,10 +6790,10 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="29"/>
@@ -6750,12 +6805,12 @@
       <c r="K124" s="29"/>
       <c r="L124" s="29"/>
     </row>
-    <row r="125" spans="1:12" ht="25.5">
+    <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D125" s="29"/>
       <c r="E125" s="29"/>
@@ -6769,10 +6824,10 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
@@ -6786,10 +6841,10 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="29"/>
@@ -6801,12 +6856,12 @@
       <c r="K127" s="29"/>
       <c r="L127" s="29"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" ht="25.5">
       <c r="A128" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
@@ -6820,10 +6875,10 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="29"/>
@@ -6836,8 +6891,12 @@
       <c r="L129" s="29"/>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
+      <c r="A130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D130" s="29"/>
       <c r="E130" s="29"/>
       <c r="F130" s="29"/>
@@ -6848,11 +6907,13 @@
       <c r="K130" s="29"/>
       <c r="L130" s="29"/>
     </row>
-    <row r="131" spans="1:12" ht="13.15">
-      <c r="A131" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B131" s="29"/>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29"/>
       <c r="F131" s="29"/>
@@ -6865,10 +6926,10 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="29"/>
@@ -6881,12 +6942,8 @@
       <c r="L132" s="29"/>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>224</v>
-      </c>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="D133" s="29"/>
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
@@ -6897,13 +6954,11 @@
       <c r="K133" s="29"/>
       <c r="L133" s="29"/>
     </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>225</v>
-      </c>
+    <row r="134" spans="1:12" ht="13.15">
+      <c r="A134" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" s="29"/>
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
       <c r="F134" s="29"/>
@@ -6916,10 +6971,10 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B135" s="29" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D135" s="29"/>
       <c r="E135" s="29"/>
@@ -6933,10 +6988,10 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>326</v>
+        <v>957</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>327</v>
+        <v>958</v>
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="29"/>
@@ -6950,10 +7005,10 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>946</v>
+        <v>221</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="D137" s="29"/>
       <c r="E137" s="29"/>
@@ -6966,8 +7021,12 @@
       <c r="L137" s="29"/>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
+      <c r="A138" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D138" s="29"/>
       <c r="E138" s="29"/>
       <c r="F138" s="29"/>
@@ -6978,11 +7037,13 @@
       <c r="K138" s="29"/>
       <c r="L138" s="29"/>
     </row>
-    <row r="139" spans="1:12" ht="13.15">
-      <c r="A139" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B139" s="29"/>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>960</v>
+      </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
       <c r="F139" s="29"/>
@@ -6994,13 +7055,12 @@
       <c r="L139" s="29"/>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C140" s="43"/>
+      <c r="A140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>226</v>
+      </c>
       <c r="D140" s="29"/>
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
@@ -7013,12 +7073,11 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C141" s="1"/>
+        <v>326</v>
+      </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
       <c r="F141" s="29"/>
@@ -7031,12 +7090,11 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>332</v>
+        <v>944</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C142" s="1"/>
+        <v>945</v>
+      </c>
       <c r="D142" s="29"/>
       <c r="E142" s="29"/>
       <c r="F142" s="29"/>
@@ -7049,12 +7107,11 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>334</v>
+        <v>961</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C143" s="1"/>
+        <v>962</v>
+      </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29"/>
       <c r="F143" s="29"/>
@@ -7066,13 +7123,8 @@
       <c r="L143" s="29"/>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C144" s="1"/>
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
       <c r="F144" s="29"/>
@@ -7083,14 +7135,11 @@
       <c r="K144" s="29"/>
       <c r="L144" s="29"/>
     </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C145" s="1"/>
+    <row r="145" spans="1:12" ht="13.15">
+      <c r="A145" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B145" s="29"/>
       <c r="D145" s="29"/>
       <c r="E145" s="29"/>
       <c r="F145" s="29"/>
@@ -7102,13 +7151,13 @@
       <c r="L145" s="29"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C146" s="1"/>
+      <c r="A146" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" s="43"/>
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
       <c r="F146" s="29"/>
@@ -7121,10 +7170,10 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="29"/>
@@ -7139,10 +7188,10 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="29"/>
@@ -7157,10 +7206,10 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="29"/>
@@ -7175,10 +7224,10 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="29"/>
@@ -7193,10 +7242,10 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="29"/>
@@ -7211,10 +7260,10 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="29"/>
@@ -7229,10 +7278,10 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="29"/>
@@ -7247,10 +7296,10 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="29"/>
@@ -7265,10 +7314,10 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="29"/>
@@ -7283,10 +7332,10 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="29"/>
@@ -7301,10 +7350,10 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="29"/>
@@ -7319,10 +7368,10 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="29"/>
@@ -7336,8 +7385,13 @@
       <c r="L158" s="29"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="29"/>
-      <c r="B159" s="29"/>
+      <c r="A159" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C159" s="1"/>
       <c r="D159" s="29"/>
       <c r="E159" s="29"/>
       <c r="F159" s="29"/>
@@ -7348,13 +7402,14 @@
       <c r="K159" s="29"/>
       <c r="L159" s="29"/>
     </row>
-    <row r="160" spans="1:12" ht="13.15">
-      <c r="A160" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>367</v>
-      </c>
+    <row r="160" spans="1:12">
+      <c r="A160" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C160" s="1"/>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
       <c r="F160" s="29"/>
@@ -7366,10 +7421,13 @@
       <c r="L160" s="29"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B161" s="29"/>
+      <c r="A161" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C161" s="1"/>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
       <c r="F161" s="29"/>
@@ -7381,10 +7439,13 @@
       <c r="L161" s="29"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="B162" s="29"/>
+      <c r="A162" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C162" s="1"/>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
       <c r="F162" s="29"/>
@@ -7396,10 +7457,13 @@
       <c r="L162" s="29"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="B163" s="29"/>
+      <c r="A163" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C163" s="1"/>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
       <c r="F163" s="29"/>
@@ -7411,10 +7475,13 @@
       <c r="L163" s="29"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B164" s="29"/>
+      <c r="A164" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C164" s="1"/>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
       <c r="F164" s="29"/>
@@ -7426,9 +7493,7 @@
       <c r="L164" s="29"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="44" t="s">
-        <v>371</v>
-      </c>
+      <c r="A165" s="29"/>
       <c r="B165" s="29"/>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
@@ -7440,11 +7505,13 @@
       <c r="K165" s="29"/>
       <c r="L165" s="29"/>
     </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B166" s="29"/>
+    <row r="166" spans="1:12" ht="13.15">
+      <c r="A166" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166" s="29" t="s">
+        <v>366</v>
+      </c>
       <c r="D166" s="29"/>
       <c r="E166" s="29"/>
       <c r="F166" s="29"/>
@@ -7457,7 +7524,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="44" t="s">
-        <v>124</v>
+        <v>367</v>
       </c>
       <c r="B167" s="29"/>
       <c r="D167" s="29"/>
@@ -7472,7 +7539,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B168" s="29"/>
       <c r="D168" s="29"/>
@@ -7487,7 +7554,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="44" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B169" s="29"/>
       <c r="D169" s="29"/>
@@ -7501,7 +7568,9 @@
       <c r="L169" s="29"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="29"/>
+      <c r="A170" s="44" t="s">
+        <v>64</v>
+      </c>
       <c r="B170" s="29"/>
       <c r="D170" s="29"/>
       <c r="E170" s="29"/>
@@ -7513,13 +7582,11 @@
       <c r="K170" s="29"/>
       <c r="L170" s="29"/>
     </row>
-    <row r="171" spans="1:12" ht="13.15">
-      <c r="A171" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="B171" s="29" t="s">
-        <v>375</v>
-      </c>
+    <row r="171" spans="1:12">
+      <c r="A171" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="B171" s="29"/>
       <c r="D171" s="29"/>
       <c r="E171" s="29"/>
       <c r="F171" s="29"/>
@@ -7531,8 +7598,8 @@
       <c r="L171" s="29"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="1" t="s">
-        <v>376</v>
+      <c r="A172" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="B172" s="29"/>
       <c r="D172" s="29"/>
@@ -7546,8 +7613,8 @@
       <c r="L172" s="29"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="29" t="s">
-        <v>377</v>
+      <c r="A173" s="44" t="s">
+        <v>124</v>
       </c>
       <c r="B173" s="29"/>
       <c r="D173" s="29"/>
@@ -7561,8 +7628,8 @@
       <c r="L173" s="29"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="29" t="s">
-        <v>378</v>
+      <c r="A174" s="44" t="s">
+        <v>371</v>
       </c>
       <c r="B174" s="29"/>
       <c r="D174" s="29"/>
@@ -7576,8 +7643,8 @@
       <c r="L174" s="29"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="29" t="s">
-        <v>379</v>
+      <c r="A175" s="44" t="s">
+        <v>372</v>
       </c>
       <c r="B175" s="29"/>
       <c r="D175" s="29"/>
@@ -7591,9 +7658,7 @@
       <c r="L175" s="29"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="29" t="s">
-        <v>380</v>
-      </c>
+      <c r="A176" s="29"/>
       <c r="B176" s="29"/>
       <c r="D176" s="29"/>
       <c r="E176" s="29"/>
@@ -7605,11 +7670,13 @@
       <c r="K176" s="29"/>
       <c r="L176" s="29"/>
     </row>
-    <row r="177" spans="1:12">
-      <c r="A177" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="B177" s="29"/>
+    <row r="177" spans="1:12" ht="13.15">
+      <c r="A177" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>374</v>
+      </c>
       <c r="D177" s="29"/>
       <c r="E177" s="29"/>
       <c r="F177" s="29"/>
@@ -7621,8 +7688,8 @@
       <c r="L177" s="29"/>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="29" t="s">
-        <v>382</v>
+      <c r="A178" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B178" s="29"/>
       <c r="D178" s="29"/>
@@ -7637,7 +7704,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="29" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B179" s="29"/>
       <c r="D179" s="29"/>
@@ -7652,7 +7719,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="29" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B180" s="29"/>
       <c r="D180" s="29"/>
@@ -7667,7 +7734,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="29" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B181" s="29"/>
       <c r="D181" s="29"/>
@@ -7682,7 +7749,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="29" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B182" s="29"/>
       <c r="D182" s="29"/>
@@ -7697,7 +7764,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="29" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B183" s="29"/>
       <c r="D183" s="29"/>
@@ -7712,7 +7779,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="29" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B184" s="29"/>
       <c r="D184" s="29"/>
@@ -7727,7 +7794,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="29" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B185" s="29"/>
       <c r="D185" s="29"/>
@@ -7742,7 +7809,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="29" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B186" s="29"/>
       <c r="D186" s="29"/>
@@ -7757,7 +7824,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="29" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B187" s="29"/>
       <c r="D187" s="29"/>
@@ -7772,7 +7839,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B188" s="29"/>
       <c r="D188" s="29"/>
@@ -7787,7 +7854,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="29" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B189" s="29"/>
       <c r="D189" s="29"/>
@@ -7802,7 +7869,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="29" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B190" s="29"/>
       <c r="D190" s="29"/>
@@ -7817,7 +7884,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="29" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B191" s="29"/>
       <c r="D191" s="29"/>
@@ -7832,7 +7899,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="29" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B192" s="29"/>
       <c r="D192" s="29"/>
@@ -7847,7 +7914,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="29" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B193" s="29"/>
       <c r="D193" s="29"/>
@@ -7862,7 +7929,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="29" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B194" s="29"/>
       <c r="D194" s="29"/>
@@ -7877,7 +7944,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="29" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B195" s="29"/>
       <c r="D195" s="29"/>
@@ -7892,7 +7959,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="29" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B196" s="29"/>
       <c r="D196" s="29"/>
@@ -7907,7 +7974,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="29" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B197" s="29"/>
       <c r="D197" s="29"/>
@@ -7922,7 +7989,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="29" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B198" s="29"/>
       <c r="D198" s="29"/>
@@ -7937,7 +8004,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="29" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B199" s="29"/>
       <c r="D199" s="29"/>
@@ -7952,7 +8019,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="29" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B200" s="29"/>
       <c r="D200" s="29"/>
@@ -7967,7 +8034,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="29" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B201" s="29"/>
       <c r="D201" s="29"/>
@@ -7982,7 +8049,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="29" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B202" s="29"/>
       <c r="D202" s="29"/>
@@ -7997,7 +8064,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="29" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B203" s="29"/>
       <c r="D203" s="29"/>
@@ -8012,7 +8079,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="29" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B204" s="29"/>
       <c r="D204" s="29"/>
@@ -8027,7 +8094,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="29" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B205" s="29"/>
       <c r="D205" s="29"/>
@@ -8042,7 +8109,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="29" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B206" s="29"/>
       <c r="D206" s="29"/>
@@ -8057,7 +8124,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="29" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B207" s="29"/>
       <c r="D207" s="29"/>
@@ -8072,7 +8139,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="29" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B208" s="29"/>
       <c r="D208" s="29"/>
@@ -8087,7 +8154,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="29" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B209" s="29"/>
       <c r="D209" s="29"/>
@@ -8102,7 +8169,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="29" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B210" s="29"/>
       <c r="D210" s="29"/>
@@ -8117,7 +8184,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="29" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B211" s="29"/>
       <c r="D211" s="29"/>
@@ -8132,7 +8199,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="29" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B212" s="29"/>
       <c r="D212" s="29"/>
@@ -8147,7 +8214,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="29" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B213" s="29"/>
       <c r="D213" s="29"/>
@@ -8162,7 +8229,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="29" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B214" s="29"/>
       <c r="D214" s="29"/>
@@ -8177,7 +8244,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="29" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B215" s="29"/>
       <c r="D215" s="29"/>
@@ -8192,7 +8259,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="29" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B216" s="29"/>
       <c r="D216" s="29"/>
@@ -8207,7 +8274,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="29" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B217" s="29"/>
       <c r="D217" s="29"/>
@@ -8222,7 +8289,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="29" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B218" s="29"/>
       <c r="D218" s="29"/>
@@ -8237,7 +8304,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="29" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B219" s="29"/>
       <c r="D219" s="29"/>
@@ -8252,7 +8319,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B220" s="29"/>
       <c r="D220" s="29"/>
@@ -8267,7 +8334,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="29" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B221" s="29"/>
       <c r="D221" s="29"/>
@@ -8282,7 +8349,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="29" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B222" s="29"/>
       <c r="D222" s="29"/>
@@ -8297,7 +8364,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="29" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B223" s="29"/>
       <c r="D223" s="29"/>
@@ -8312,7 +8379,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="29" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B224" s="29"/>
       <c r="D224" s="29"/>
@@ -8327,7 +8394,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="29" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B225" s="29"/>
       <c r="D225" s="29"/>
@@ -8342,7 +8409,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="29" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B226" s="29"/>
       <c r="D226" s="29"/>
@@ -8357,7 +8424,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="29" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B227" s="29"/>
       <c r="D227" s="29"/>
@@ -8372,7 +8439,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B228" s="29"/>
       <c r="D228" s="29"/>
@@ -8387,7 +8454,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="29" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B229" s="29"/>
       <c r="D229" s="29"/>
@@ -8402,7 +8469,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="29" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B230" s="29"/>
       <c r="D230" s="29"/>
@@ -8417,7 +8484,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="29" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B231" s="29"/>
       <c r="D231" s="29"/>
@@ -8432,7 +8499,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="29" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B232" s="29"/>
       <c r="D232" s="29"/>
@@ -8447,7 +8514,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="29" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B233" s="29"/>
       <c r="D233" s="29"/>
@@ -8462,7 +8529,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="29" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B234" s="29"/>
       <c r="D234" s="29"/>
@@ -8477,7 +8544,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="29" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B235" s="29"/>
       <c r="D235" s="29"/>
@@ -8492,7 +8559,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="29" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B236" s="29"/>
       <c r="D236" s="29"/>
@@ -8507,7 +8574,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" s="29" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B237" s="29"/>
       <c r="D237" s="29"/>
@@ -8522,7 +8589,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" s="29" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B238" s="29"/>
       <c r="D238" s="29"/>
@@ -8537,7 +8604,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" s="29" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B239" s="29"/>
       <c r="D239" s="29"/>
@@ -8552,7 +8619,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" s="29" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B240" s="29"/>
       <c r="D240" s="29"/>
@@ -8567,7 +8634,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="29" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B241" s="29"/>
       <c r="D241" s="29"/>
@@ -8582,7 +8649,7 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="29" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B242" s="29"/>
       <c r="D242" s="29"/>
@@ -8597,7 +8664,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="29" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B243" s="29"/>
       <c r="D243" s="29"/>
@@ -8612,7 +8679,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="29" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B244" s="29"/>
       <c r="D244" s="29"/>
@@ -8627,7 +8694,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" s="29" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B245" s="29"/>
       <c r="D245" s="29"/>
@@ -8642,7 +8709,7 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" s="29" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B246" s="29"/>
       <c r="D246" s="29"/>
@@ -8657,7 +8724,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" s="29" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B247" s="29"/>
       <c r="D247" s="29"/>
@@ -8672,7 +8739,7 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="29" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B248" s="29"/>
       <c r="D248" s="29"/>
@@ -8687,7 +8754,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" s="29" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B249" s="29"/>
       <c r="D249" s="29"/>
@@ -8702,7 +8769,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" s="29" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B250" s="29"/>
       <c r="D250" s="29"/>
@@ -8717,7 +8784,7 @@
     </row>
     <row r="251" spans="1:12">
       <c r="A251" s="29" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B251" s="29"/>
       <c r="D251" s="29"/>
@@ -8732,7 +8799,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="29" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B252" s="29"/>
       <c r="D252" s="29"/>
@@ -8747,7 +8814,7 @@
     </row>
     <row r="253" spans="1:12">
       <c r="A253" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B253" s="29"/>
       <c r="D253" s="29"/>
@@ -8762,7 +8829,7 @@
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="29" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B254" s="29"/>
       <c r="D254" s="29"/>
@@ -8777,7 +8844,7 @@
     </row>
     <row r="255" spans="1:12">
       <c r="A255" s="29" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B255" s="29"/>
       <c r="D255" s="29"/>
@@ -8792,7 +8859,7 @@
     </row>
     <row r="256" spans="1:12">
       <c r="A256" s="29" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B256" s="29"/>
       <c r="D256" s="29"/>
@@ -8807,7 +8874,7 @@
     </row>
     <row r="257" spans="1:12">
       <c r="A257" s="29" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B257" s="29"/>
       <c r="D257" s="29"/>
@@ -8822,7 +8889,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="29" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B258" s="29"/>
       <c r="D258" s="29"/>
@@ -8837,7 +8904,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="29" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B259" s="29"/>
       <c r="D259" s="29"/>
@@ -8852,7 +8919,7 @@
     </row>
     <row r="260" spans="1:12">
       <c r="A260" s="29" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B260" s="29"/>
       <c r="D260" s="29"/>
@@ -8867,7 +8934,7 @@
     </row>
     <row r="261" spans="1:12">
       <c r="A261" s="29" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B261" s="29"/>
       <c r="D261" s="29"/>
@@ -8882,7 +8949,7 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="29" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B262" s="29"/>
       <c r="D262" s="29"/>
@@ -8897,7 +8964,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="29" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B263" s="29"/>
       <c r="D263" s="29"/>
@@ -8912,7 +8979,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="29" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B264" s="29"/>
       <c r="D264" s="29"/>
@@ -8927,7 +8994,7 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="29" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B265" s="29"/>
       <c r="D265" s="29"/>
@@ -8942,7 +9009,7 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="29" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B266" s="29"/>
       <c r="D266" s="29"/>
@@ -8957,7 +9024,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B267" s="29"/>
       <c r="D267" s="29"/>
@@ -8972,7 +9039,7 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="29" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B268" s="29"/>
       <c r="D268" s="29"/>
@@ -8987,7 +9054,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="29" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B269" s="29"/>
       <c r="D269" s="29"/>
@@ -9002,7 +9069,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="29" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B270" s="29"/>
       <c r="D270" s="29"/>
@@ -9017,7 +9084,7 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="29" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B271" s="29"/>
       <c r="D271" s="29"/>
@@ -9032,7 +9099,7 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="29" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B272" s="29"/>
       <c r="D272" s="29"/>
@@ -9047,7 +9114,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="29" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B273" s="29"/>
       <c r="D273" s="29"/>
@@ -9062,7 +9129,7 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="29" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B274" s="29"/>
       <c r="D274" s="29"/>
@@ -9077,7 +9144,7 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="29" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B275" s="29"/>
       <c r="D275" s="29"/>
@@ -9092,7 +9159,7 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="29" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B276" s="29"/>
       <c r="D276" s="29"/>
@@ -9107,7 +9174,7 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="29" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B277" s="29"/>
       <c r="D277" s="29"/>
@@ -9122,7 +9189,7 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="29" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B278" s="29"/>
       <c r="D278" s="29"/>
@@ -9137,7 +9204,7 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" s="29" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B279" s="29"/>
       <c r="D279" s="29"/>
@@ -9152,7 +9219,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="29" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B280" s="29"/>
       <c r="D280" s="29"/>
@@ -9167,7 +9234,7 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="29" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B281" s="29"/>
       <c r="D281" s="29"/>
@@ -9182,7 +9249,7 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="29" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B282" s="29"/>
       <c r="D282" s="29"/>
@@ -9197,7 +9264,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="29" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B283" s="29"/>
       <c r="D283" s="29"/>
@@ -9212,7 +9279,7 @@
     </row>
     <row r="284" spans="1:12">
       <c r="A284" s="29" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B284" s="29"/>
       <c r="D284" s="29"/>
@@ -9227,7 +9294,7 @@
     </row>
     <row r="285" spans="1:12">
       <c r="A285" s="29" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B285" s="29"/>
       <c r="D285" s="29"/>
@@ -9242,7 +9309,7 @@
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="29" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B286" s="29"/>
       <c r="D286" s="29"/>
@@ -9257,7 +9324,7 @@
     </row>
     <row r="287" spans="1:12">
       <c r="A287" s="29" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B287" s="29"/>
       <c r="D287" s="29"/>
@@ -9272,7 +9339,7 @@
     </row>
     <row r="288" spans="1:12">
       <c r="A288" s="29" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B288" s="29"/>
       <c r="D288" s="29"/>
@@ -9287,7 +9354,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="29" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B289" s="29"/>
       <c r="D289" s="29"/>
@@ -9302,7 +9369,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="29" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B290" s="29"/>
       <c r="D290" s="29"/>
@@ -9317,7 +9384,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="29" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B291" s="29"/>
       <c r="D291" s="29"/>
@@ -9332,7 +9399,7 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" s="29" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B292" s="29"/>
       <c r="D292" s="29"/>
@@ -9347,7 +9414,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" s="29" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B293" s="29"/>
       <c r="D293" s="29"/>
@@ -9362,7 +9429,7 @@
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="29" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B294" s="29"/>
       <c r="D294" s="29"/>
@@ -9377,7 +9444,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="29" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B295" s="29"/>
       <c r="D295" s="29"/>
@@ -9392,7 +9459,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="29" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B296" s="29"/>
       <c r="D296" s="29"/>
@@ -9406,8 +9473,8 @@
       <c r="L296" s="29"/>
     </row>
     <row r="297" spans="1:12">
-      <c r="A297" s="5" t="s">
-        <v>501</v>
+      <c r="A297" s="29" t="s">
+        <v>494</v>
       </c>
       <c r="B297" s="29"/>
       <c r="D297" s="29"/>
@@ -9421,8 +9488,8 @@
       <c r="L297" s="29"/>
     </row>
     <row r="298" spans="1:12">
-      <c r="A298" s="5" t="s">
-        <v>502</v>
+      <c r="A298" s="29" t="s">
+        <v>495</v>
       </c>
       <c r="B298" s="29"/>
       <c r="D298" s="29"/>
@@ -9436,8 +9503,8 @@
       <c r="L298" s="29"/>
     </row>
     <row r="299" spans="1:12">
-      <c r="A299" s="5" t="s">
-        <v>503</v>
+      <c r="A299" s="29" t="s">
+        <v>496</v>
       </c>
       <c r="B299" s="29"/>
       <c r="D299" s="29"/>
@@ -9451,8 +9518,8 @@
       <c r="L299" s="29"/>
     </row>
     <row r="300" spans="1:12">
-      <c r="A300" s="5" t="s">
-        <v>504</v>
+      <c r="A300" s="29" t="s">
+        <v>497</v>
       </c>
       <c r="B300" s="29"/>
       <c r="D300" s="29"/>
@@ -9466,8 +9533,8 @@
       <c r="L300" s="29"/>
     </row>
     <row r="301" spans="1:12">
-      <c r="A301" s="5" t="s">
-        <v>505</v>
+      <c r="A301" s="29" t="s">
+        <v>498</v>
       </c>
       <c r="B301" s="29"/>
       <c r="D301" s="29"/>
@@ -9481,8 +9548,8 @@
       <c r="L301" s="29"/>
     </row>
     <row r="302" spans="1:12">
-      <c r="A302" s="5" t="s">
-        <v>506</v>
+      <c r="A302" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="B302" s="29"/>
       <c r="D302" s="29"/>
@@ -9497,7 +9564,7 @@
     </row>
     <row r="303" spans="1:12">
       <c r="A303" s="5" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B303" s="29"/>
       <c r="D303" s="29"/>
@@ -9512,7 +9579,7 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B304" s="29"/>
       <c r="D304" s="29"/>
@@ -9527,7 +9594,7 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" s="5" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B305" s="29"/>
       <c r="D305" s="29"/>
@@ -9542,7 +9609,7 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B306" s="29"/>
       <c r="D306" s="29"/>
@@ -9557,7 +9624,7 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="5" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B307" s="29"/>
       <c r="D307" s="29"/>
@@ -9572,7 +9639,7 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="5" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B308" s="29"/>
       <c r="D308" s="29"/>
@@ -9587,7 +9654,7 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B309" s="29"/>
       <c r="D309" s="29"/>
@@ -9602,7 +9669,7 @@
     </row>
     <row r="310" spans="1:12">
       <c r="A310" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B310" s="29"/>
       <c r="D310" s="29"/>
@@ -9617,7 +9684,7 @@
     </row>
     <row r="311" spans="1:12">
       <c r="A311" s="5" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B311" s="29"/>
       <c r="D311" s="29"/>
@@ -9632,7 +9699,7 @@
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="5" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B312" s="29"/>
       <c r="D312" s="29"/>
@@ -9647,7 +9714,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B313" s="29"/>
       <c r="D313" s="29"/>
@@ -9662,7 +9729,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B314" s="29"/>
       <c r="D314" s="29"/>
@@ -9677,7 +9744,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B315" s="29"/>
       <c r="D315" s="29"/>
@@ -9692,7 +9759,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B316" s="29"/>
       <c r="D316" s="29"/>
@@ -9707,7 +9774,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="5" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B317" s="29"/>
       <c r="D317" s="29"/>
@@ -9722,7 +9789,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B318" s="29"/>
       <c r="D318" s="29"/>
@@ -9737,7 +9804,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="5" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B319" s="29"/>
       <c r="D319" s="29"/>
@@ -9752,7 +9819,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B320" s="29"/>
       <c r="D320" s="29"/>
@@ -9767,7 +9834,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B321" s="29"/>
       <c r="D321" s="29"/>
@@ -9782,7 +9849,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B322" s="29"/>
       <c r="D322" s="29"/>
@@ -9797,7 +9864,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B323" s="29"/>
       <c r="D323" s="29"/>
@@ -9812,7 +9879,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="5" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B324" s="29"/>
       <c r="D324" s="29"/>
@@ -9827,7 +9894,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="5" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B325" s="29"/>
       <c r="D325" s="29"/>
@@ -9842,7 +9909,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="5" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B326" s="29"/>
       <c r="D326" s="29"/>
@@ -9857,7 +9924,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="5" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B327" s="29"/>
       <c r="D327" s="29"/>
@@ -9872,7 +9939,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B328" s="29"/>
       <c r="D328" s="29"/>
@@ -9887,7 +9954,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="5" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B329" s="29"/>
       <c r="D329" s="29"/>
@@ -9902,7 +9969,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="5" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B330" s="29"/>
       <c r="D330" s="29"/>
@@ -9917,7 +9984,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B331" s="29"/>
       <c r="D331" s="29"/>
@@ -9932,7 +9999,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B332" s="29"/>
       <c r="D332" s="29"/>
@@ -9947,7 +10014,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="5" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B333" s="29"/>
       <c r="D333" s="29"/>
@@ -9962,7 +10029,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="5" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B334" s="29"/>
       <c r="D334" s="29"/>
@@ -9977,7 +10044,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="5" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B335" s="29"/>
       <c r="D335" s="29"/>
@@ -9992,7 +10059,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="5" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B336" s="29"/>
       <c r="D336" s="29"/>
@@ -10007,7 +10074,7 @@
     </row>
     <row r="337" spans="1:12">
       <c r="A337" s="5" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B337" s="29"/>
       <c r="D337" s="29"/>
@@ -10022,7 +10089,7 @@
     </row>
     <row r="338" spans="1:12">
       <c r="A338" s="5" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B338" s="29"/>
       <c r="D338" s="29"/>
@@ -10037,7 +10104,7 @@
     </row>
     <row r="339" spans="1:12">
       <c r="A339" s="5" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B339" s="29"/>
       <c r="D339" s="29"/>
@@ -10052,7 +10119,7 @@
     </row>
     <row r="340" spans="1:12">
       <c r="A340" s="5" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B340" s="29"/>
       <c r="D340" s="29"/>
@@ -10067,7 +10134,7 @@
     </row>
     <row r="341" spans="1:12">
       <c r="A341" s="5" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B341" s="29"/>
       <c r="D341" s="29"/>
@@ -10082,7 +10149,7 @@
     </row>
     <row r="342" spans="1:12">
       <c r="A342" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B342" s="29"/>
       <c r="D342" s="29"/>
@@ -10097,7 +10164,7 @@
     </row>
     <row r="343" spans="1:12">
       <c r="A343" s="5" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B343" s="29"/>
       <c r="D343" s="29"/>
@@ -10112,7 +10179,7 @@
     </row>
     <row r="344" spans="1:12">
       <c r="A344" s="5" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B344" s="29"/>
       <c r="D344" s="29"/>
@@ -10127,7 +10194,7 @@
     </row>
     <row r="345" spans="1:12">
       <c r="A345" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B345" s="29"/>
       <c r="D345" s="29"/>
@@ -10142,7 +10209,7 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="5" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B346" s="29"/>
       <c r="D346" s="29"/>
@@ -10157,7 +10224,7 @@
     </row>
     <row r="347" spans="1:12">
       <c r="A347" s="5" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B347" s="29"/>
       <c r="D347" s="29"/>
@@ -10172,7 +10239,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="A348" s="5" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B348" s="29"/>
       <c r="D348" s="29"/>
@@ -10187,7 +10254,7 @@
     </row>
     <row r="349" spans="1:12">
       <c r="A349" s="5" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B349" s="29"/>
       <c r="D349" s="29"/>
@@ -10202,7 +10269,7 @@
     </row>
     <row r="350" spans="1:12">
       <c r="A350" s="5" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B350" s="29"/>
       <c r="D350" s="29"/>
@@ -10217,7 +10284,7 @@
     </row>
     <row r="351" spans="1:12">
       <c r="A351" s="5" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B351" s="29"/>
       <c r="D351" s="29"/>
@@ -10232,7 +10299,7 @@
     </row>
     <row r="352" spans="1:12">
       <c r="A352" s="5" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B352" s="29"/>
       <c r="D352" s="29"/>
@@ -10247,7 +10314,7 @@
     </row>
     <row r="353" spans="1:12">
       <c r="A353" s="5" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B353" s="29"/>
       <c r="D353" s="29"/>
@@ -10262,7 +10329,7 @@
     </row>
     <row r="354" spans="1:12">
       <c r="A354" s="5" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B354" s="29"/>
       <c r="D354" s="29"/>
@@ -10277,7 +10344,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" s="5" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B355" s="29"/>
       <c r="D355" s="29"/>
@@ -10292,7 +10359,7 @@
     </row>
     <row r="356" spans="1:12">
       <c r="A356" s="5" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B356" s="29"/>
       <c r="D356" s="29"/>
@@ -10307,7 +10374,7 @@
     </row>
     <row r="357" spans="1:12">
       <c r="A357" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B357" s="29"/>
       <c r="D357" s="29"/>
@@ -10321,8 +10388,8 @@
       <c r="L357" s="29"/>
     </row>
     <row r="358" spans="1:12">
-      <c r="A358" s="29" t="s">
-        <v>562</v>
+      <c r="A358" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="B358" s="29"/>
       <c r="D358" s="29"/>
@@ -10336,8 +10403,8 @@
       <c r="L358" s="29"/>
     </row>
     <row r="359" spans="1:12">
-      <c r="A359" s="29" t="s">
-        <v>563</v>
+      <c r="A359" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="B359" s="29"/>
       <c r="D359" s="29"/>
@@ -10351,8 +10418,8 @@
       <c r="L359" s="29"/>
     </row>
     <row r="360" spans="1:12">
-      <c r="A360" s="29" t="s">
-        <v>564</v>
+      <c r="A360" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="B360" s="29"/>
       <c r="D360" s="29"/>
@@ -10366,8 +10433,8 @@
       <c r="L360" s="29"/>
     </row>
     <row r="361" spans="1:12">
-      <c r="A361" s="29" t="s">
-        <v>565</v>
+      <c r="A361" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="B361" s="29"/>
       <c r="D361" s="29"/>
@@ -10381,8 +10448,8 @@
       <c r="L361" s="29"/>
     </row>
     <row r="362" spans="1:12">
-      <c r="A362" s="29" t="s">
-        <v>566</v>
+      <c r="A362" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="B362" s="29"/>
       <c r="D362" s="29"/>
@@ -10396,8 +10463,8 @@
       <c r="L362" s="29"/>
     </row>
     <row r="363" spans="1:12">
-      <c r="A363" s="29" t="s">
-        <v>378</v>
+      <c r="A363" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="B363" s="29"/>
       <c r="D363" s="29"/>
@@ -10412,7 +10479,7 @@
     </row>
     <row r="364" spans="1:12">
       <c r="A364" s="29" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B364" s="29"/>
       <c r="D364" s="29"/>
@@ -10427,7 +10494,7 @@
     </row>
     <row r="365" spans="1:12">
       <c r="A365" s="29" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B365" s="29"/>
       <c r="D365" s="29"/>
@@ -10442,7 +10509,7 @@
     </row>
     <row r="366" spans="1:12">
       <c r="A366" s="29" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B366" s="29"/>
       <c r="D366" s="29"/>
@@ -10457,7 +10524,7 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367" s="29" t="s">
-        <v>380</v>
+        <v>564</v>
       </c>
       <c r="B367" s="29"/>
       <c r="D367" s="29"/>
@@ -10472,7 +10539,7 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368" s="29" t="s">
-        <v>381</v>
+        <v>565</v>
       </c>
       <c r="B368" s="29"/>
       <c r="D368" s="29"/>
@@ -10487,7 +10554,7 @@
     </row>
     <row r="369" spans="1:12">
       <c r="A369" s="29" t="s">
-        <v>570</v>
+        <v>377</v>
       </c>
       <c r="B369" s="29"/>
       <c r="D369" s="29"/>
@@ -10502,7 +10569,7 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370" s="29" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B370" s="29"/>
       <c r="D370" s="29"/>
@@ -10517,7 +10584,7 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371" s="29" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B371" s="29"/>
       <c r="D371" s="29"/>
@@ -10532,7 +10599,7 @@
     </row>
     <row r="372" spans="1:12">
       <c r="A372" s="29" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B372" s="29"/>
       <c r="D372" s="29"/>
@@ -10547,7 +10614,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="A373" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B373" s="29"/>
       <c r="D373" s="29"/>
@@ -10562,7 +10629,7 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B374" s="29"/>
       <c r="D374" s="29"/>
@@ -10577,7 +10644,7 @@
     </row>
     <row r="375" spans="1:12">
       <c r="A375" s="29" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B375" s="29"/>
       <c r="D375" s="29"/>
@@ -10592,7 +10659,7 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" s="29" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B376" s="29"/>
       <c r="D376" s="29"/>
@@ -10607,7 +10674,7 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377" s="29" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B377" s="29"/>
       <c r="D377" s="29"/>
@@ -10622,7 +10689,7 @@
     </row>
     <row r="378" spans="1:12">
       <c r="A378" s="29" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B378" s="29"/>
       <c r="D378" s="29"/>
@@ -10637,7 +10704,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="A379" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B379" s="29"/>
       <c r="D379" s="29"/>
@@ -10652,7 +10719,7 @@
     </row>
     <row r="380" spans="1:12">
       <c r="A380" s="29" t="s">
-        <v>578</v>
+        <v>382</v>
       </c>
       <c r="B380" s="29"/>
       <c r="D380" s="29"/>
@@ -10667,7 +10734,7 @@
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="29" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B381" s="29"/>
       <c r="D381" s="29"/>
@@ -10682,7 +10749,7 @@
     </row>
     <row r="382" spans="1:12">
       <c r="A382" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B382" s="29"/>
       <c r="D382" s="29"/>
@@ -10697,7 +10764,7 @@
     </row>
     <row r="383" spans="1:12">
       <c r="A383" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B383" s="29"/>
       <c r="D383" s="29"/>
@@ -10712,7 +10779,7 @@
     </row>
     <row r="384" spans="1:12">
       <c r="A384" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B384" s="29"/>
       <c r="D384" s="29"/>
@@ -10727,7 +10794,7 @@
     </row>
     <row r="385" spans="1:12">
       <c r="A385" s="29" t="s">
-        <v>583</v>
+        <v>383</v>
       </c>
       <c r="B385" s="29"/>
       <c r="D385" s="29"/>
@@ -10742,7 +10809,7 @@
     </row>
     <row r="386" spans="1:12">
       <c r="A386" s="29" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B386" s="29"/>
       <c r="D386" s="29"/>
@@ -10757,7 +10824,7 @@
     </row>
     <row r="387" spans="1:12">
       <c r="A387" s="29" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B387" s="29"/>
       <c r="D387" s="29"/>
@@ -10772,7 +10839,7 @@
     </row>
     <row r="388" spans="1:12">
       <c r="A388" s="29" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B388" s="29"/>
       <c r="D388" s="29"/>
@@ -10787,7 +10854,7 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="29" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B389" s="29"/>
       <c r="D389" s="29"/>
@@ -10802,7 +10869,7 @@
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="29" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B390" s="29"/>
       <c r="D390" s="29"/>
@@ -10817,7 +10884,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="29" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B391" s="29"/>
       <c r="D391" s="29"/>
@@ -10832,7 +10899,7 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392" s="29" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B392" s="29"/>
       <c r="D392" s="29"/>
@@ -10847,7 +10914,7 @@
     </row>
     <row r="393" spans="1:12">
       <c r="A393" s="29" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B393" s="29"/>
       <c r="D393" s="29"/>
@@ -10862,7 +10929,7 @@
     </row>
     <row r="394" spans="1:12">
       <c r="A394" s="29" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B394" s="29"/>
       <c r="D394" s="29"/>
@@ -10877,7 +10944,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="A395" s="29" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="B395" s="29"/>
       <c r="D395" s="29"/>
@@ -10892,7 +10959,7 @@
     </row>
     <row r="396" spans="1:12">
       <c r="A396" s="29" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B396" s="29"/>
       <c r="D396" s="29"/>
@@ -10907,7 +10974,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" s="29" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B397" s="29"/>
       <c r="D397" s="29"/>
@@ -10922,7 +10989,7 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="29" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B398" s="29"/>
       <c r="D398" s="29"/>
@@ -10937,7 +11004,7 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="29" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B399" s="29"/>
       <c r="D399" s="29"/>
@@ -10952,7 +11019,7 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="29" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B400" s="29"/>
       <c r="D400" s="29"/>
@@ -10967,7 +11034,7 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401" s="29" t="s">
-        <v>598</v>
+        <v>392</v>
       </c>
       <c r="B401" s="29"/>
       <c r="D401" s="29"/>
@@ -10982,7 +11049,7 @@
     </row>
     <row r="402" spans="1:12">
       <c r="A402" s="29" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B402" s="29"/>
       <c r="D402" s="29"/>
@@ -10997,7 +11064,7 @@
     </row>
     <row r="403" spans="1:12">
       <c r="A403" s="29" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B403" s="29"/>
       <c r="D403" s="29"/>
@@ -11012,7 +11079,7 @@
     </row>
     <row r="404" spans="1:12">
       <c r="A404" s="29" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B404" s="29"/>
       <c r="D404" s="29"/>
@@ -11027,7 +11094,7 @@
     </row>
     <row r="405" spans="1:12">
       <c r="A405" s="29" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B405" s="29"/>
       <c r="D405" s="29"/>
@@ -11042,7 +11109,7 @@
     </row>
     <row r="406" spans="1:12">
       <c r="A406" s="29" t="s">
-        <v>394</v>
+        <v>596</v>
       </c>
       <c r="B406" s="29"/>
       <c r="D406" s="29"/>
@@ -11057,7 +11124,7 @@
     </row>
     <row r="407" spans="1:12">
       <c r="A407" s="29" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B407" s="29"/>
       <c r="D407" s="29"/>
@@ -11072,7 +11139,7 @@
     </row>
     <row r="408" spans="1:12">
       <c r="A408" s="29" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B408" s="29"/>
       <c r="D408" s="29"/>
@@ -11087,7 +11154,7 @@
     </row>
     <row r="409" spans="1:12">
       <c r="A409" s="29" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B409" s="29"/>
       <c r="D409" s="29"/>
@@ -11102,7 +11169,7 @@
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="29" t="s">
-        <v>399</v>
+        <v>600</v>
       </c>
       <c r="B410" s="29"/>
       <c r="D410" s="29"/>
@@ -11117,7 +11184,7 @@
     </row>
     <row r="411" spans="1:12">
       <c r="A411" s="29" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B411" s="29"/>
       <c r="D411" s="29"/>
@@ -11132,7 +11199,7 @@
     </row>
     <row r="412" spans="1:12">
       <c r="A412" s="29" t="s">
-        <v>607</v>
+        <v>393</v>
       </c>
       <c r="B412" s="29"/>
       <c r="D412" s="29"/>
@@ -11147,7 +11214,7 @@
     </row>
     <row r="413" spans="1:12">
       <c r="A413" s="29" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B413" s="29"/>
       <c r="D413" s="29"/>
@@ -11162,7 +11229,7 @@
     </row>
     <row r="414" spans="1:12">
       <c r="A414" s="29" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B414" s="29"/>
       <c r="D414" s="29"/>
@@ -11177,7 +11244,7 @@
     </row>
     <row r="415" spans="1:12">
       <c r="A415" s="29" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B415" s="29"/>
       <c r="D415" s="29"/>
@@ -11192,7 +11259,7 @@
     </row>
     <row r="416" spans="1:12">
       <c r="A416" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B416" s="29"/>
       <c r="D416" s="29"/>
@@ -11207,7 +11274,7 @@
     </row>
     <row r="417" spans="1:12">
       <c r="A417" s="29" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B417" s="29"/>
       <c r="D417" s="29"/>
@@ -11222,7 +11289,7 @@
     </row>
     <row r="418" spans="1:12">
       <c r="A418" s="29" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B418" s="29"/>
       <c r="D418" s="29"/>
@@ -11237,7 +11304,7 @@
     </row>
     <row r="419" spans="1:12">
       <c r="A419" s="29" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B419" s="29"/>
       <c r="D419" s="29"/>
@@ -11252,7 +11319,7 @@
     </row>
     <row r="420" spans="1:12">
       <c r="A420" s="29" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B420" s="29"/>
       <c r="D420" s="29"/>
@@ -11267,7 +11334,7 @@
     </row>
     <row r="421" spans="1:12">
       <c r="A421" s="29" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B421" s="29"/>
       <c r="D421" s="29"/>
@@ -11282,7 +11349,7 @@
     </row>
     <row r="422" spans="1:12">
       <c r="A422" s="29" t="s">
-        <v>616</v>
+        <v>399</v>
       </c>
       <c r="B422" s="29"/>
       <c r="D422" s="29"/>
@@ -11297,7 +11364,7 @@
     </row>
     <row r="423" spans="1:12">
       <c r="A423" s="29" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B423" s="29"/>
       <c r="D423" s="29"/>
@@ -11312,7 +11379,7 @@
     </row>
     <row r="424" spans="1:12">
       <c r="A424" s="29" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B424" s="29"/>
       <c r="D424" s="29"/>
@@ -11327,7 +11394,7 @@
     </row>
     <row r="425" spans="1:12">
       <c r="A425" s="29" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B425" s="29"/>
       <c r="D425" s="29"/>
@@ -11342,7 +11409,7 @@
     </row>
     <row r="426" spans="1:12">
       <c r="A426" s="29" t="s">
-        <v>403</v>
+        <v>613</v>
       </c>
       <c r="B426" s="29"/>
       <c r="D426" s="29"/>
@@ -11357,7 +11424,7 @@
     </row>
     <row r="427" spans="1:12">
       <c r="A427" s="29" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B427" s="29"/>
       <c r="D427" s="29"/>
@@ -11372,7 +11439,7 @@
     </row>
     <row r="428" spans="1:12">
       <c r="A428" s="29" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B428" s="29"/>
       <c r="D428" s="29"/>
@@ -11387,7 +11454,7 @@
     </row>
     <row r="429" spans="1:12">
       <c r="A429" s="29" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B429" s="29"/>
       <c r="D429" s="29"/>
@@ -11402,7 +11469,7 @@
     </row>
     <row r="430" spans="1:12">
       <c r="A430" s="29" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B430" s="29"/>
       <c r="D430" s="29"/>
@@ -11417,7 +11484,7 @@
     </row>
     <row r="431" spans="1:12">
       <c r="A431" s="29" t="s">
-        <v>404</v>
+        <v>618</v>
       </c>
       <c r="B431" s="29"/>
       <c r="D431" s="29"/>
@@ -11432,7 +11499,7 @@
     </row>
     <row r="432" spans="1:12">
       <c r="A432" s="29" t="s">
-        <v>624</v>
+        <v>402</v>
       </c>
       <c r="B432" s="29"/>
       <c r="D432" s="29"/>
@@ -11447,7 +11514,7 @@
     </row>
     <row r="433" spans="1:12">
       <c r="A433" s="29" t="s">
-        <v>407</v>
+        <v>619</v>
       </c>
       <c r="B433" s="29"/>
       <c r="D433" s="29"/>
@@ -11462,7 +11529,7 @@
     </row>
     <row r="434" spans="1:12">
       <c r="A434" s="29" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B434" s="29"/>
       <c r="D434" s="29"/>
@@ -11477,7 +11544,7 @@
     </row>
     <row r="435" spans="1:12">
       <c r="A435" s="29" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B435" s="29"/>
       <c r="D435" s="29"/>
@@ -11492,7 +11559,7 @@
     </row>
     <row r="436" spans="1:12">
       <c r="A436" s="29" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B436" s="29"/>
       <c r="D436" s="29"/>
@@ -11507,7 +11574,7 @@
     </row>
     <row r="437" spans="1:12">
       <c r="A437" s="29" t="s">
-        <v>628</v>
+        <v>403</v>
       </c>
       <c r="B437" s="29"/>
       <c r="D437" s="29"/>
@@ -11522,7 +11589,7 @@
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="29" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B438" s="29"/>
       <c r="D438" s="29"/>
@@ -11537,7 +11604,7 @@
     </row>
     <row r="439" spans="1:12">
       <c r="A439" s="29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B439" s="29"/>
       <c r="D439" s="29"/>
@@ -11552,7 +11619,7 @@
     </row>
     <row r="440" spans="1:12">
       <c r="A440" s="29" t="s">
-        <v>409</v>
+        <v>624</v>
       </c>
       <c r="B440" s="29"/>
       <c r="D440" s="29"/>
@@ -11567,7 +11634,7 @@
     </row>
     <row r="441" spans="1:12">
       <c r="A441" s="29" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B441" s="29"/>
       <c r="D441" s="29"/>
@@ -11582,7 +11649,7 @@
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="29" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B442" s="29"/>
       <c r="D442" s="29"/>
@@ -11597,7 +11664,7 @@
     </row>
     <row r="443" spans="1:12">
       <c r="A443" s="29" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B443" s="29"/>
       <c r="D443" s="29"/>
@@ -11612,7 +11679,7 @@
     </row>
     <row r="444" spans="1:12">
       <c r="A444" s="29" t="s">
-        <v>411</v>
+        <v>628</v>
       </c>
       <c r="B444" s="29"/>
       <c r="D444" s="29"/>
@@ -11627,7 +11694,7 @@
     </row>
     <row r="445" spans="1:12">
       <c r="A445" s="29" t="s">
-        <v>633</v>
+        <v>407</v>
       </c>
       <c r="B445" s="29"/>
       <c r="D445" s="29"/>
@@ -11642,7 +11709,7 @@
     </row>
     <row r="446" spans="1:12">
       <c r="A446" s="29" t="s">
-        <v>634</v>
+        <v>408</v>
       </c>
       <c r="B446" s="29"/>
       <c r="D446" s="29"/>
@@ -11657,7 +11724,7 @@
     </row>
     <row r="447" spans="1:12">
       <c r="A447" s="29" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B447" s="29"/>
       <c r="D447" s="29"/>
@@ -11672,7 +11739,7 @@
     </row>
     <row r="448" spans="1:12">
       <c r="A448" s="29" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B448" s="29"/>
       <c r="D448" s="29"/>
@@ -11687,7 +11754,7 @@
     </row>
     <row r="449" spans="1:12">
       <c r="A449" s="29" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B449" s="29"/>
       <c r="D449" s="29"/>
@@ -11702,7 +11769,7 @@
     </row>
     <row r="450" spans="1:12">
       <c r="A450" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B450" s="29"/>
       <c r="D450" s="29"/>
@@ -11717,7 +11784,7 @@
     </row>
     <row r="451" spans="1:12">
       <c r="A451" s="29" t="s">
-        <v>413</v>
+        <v>632</v>
       </c>
       <c r="B451" s="29"/>
       <c r="D451" s="29"/>
@@ -11732,7 +11799,7 @@
     </row>
     <row r="452" spans="1:12">
       <c r="A452" s="29" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B452" s="29"/>
       <c r="D452" s="29"/>
@@ -11747,7 +11814,7 @@
     </row>
     <row r="453" spans="1:12">
       <c r="A453" s="29" t="s">
-        <v>414</v>
+        <v>634</v>
       </c>
       <c r="B453" s="29"/>
       <c r="D453" s="29"/>
@@ -11762,7 +11829,7 @@
     </row>
     <row r="454" spans="1:12">
       <c r="A454" s="29" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B454" s="29"/>
       <c r="D454" s="29"/>
@@ -11777,7 +11844,7 @@
     </row>
     <row r="455" spans="1:12">
       <c r="A455" s="29" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B455" s="29"/>
       <c r="D455" s="29"/>
@@ -11792,7 +11859,7 @@
     </row>
     <row r="456" spans="1:12">
       <c r="A456" s="29" t="s">
-        <v>641</v>
+        <v>411</v>
       </c>
       <c r="B456" s="29"/>
       <c r="D456" s="29"/>
@@ -11807,7 +11874,7 @@
     </row>
     <row r="457" spans="1:12">
       <c r="A457" s="29" t="s">
-        <v>642</v>
+        <v>412</v>
       </c>
       <c r="B457" s="29"/>
       <c r="D457" s="29"/>
@@ -11822,7 +11889,7 @@
     </row>
     <row r="458" spans="1:12">
       <c r="A458" s="29" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B458" s="29"/>
       <c r="D458" s="29"/>
@@ -11837,7 +11904,7 @@
     </row>
     <row r="459" spans="1:12">
       <c r="A459" s="29" t="s">
-        <v>644</v>
+        <v>413</v>
       </c>
       <c r="B459" s="29"/>
       <c r="D459" s="29"/>
@@ -11852,7 +11919,7 @@
     </row>
     <row r="460" spans="1:12">
       <c r="A460" s="29" t="s">
-        <v>420</v>
+        <v>638</v>
       </c>
       <c r="B460" s="29"/>
       <c r="D460" s="29"/>
@@ -11867,7 +11934,7 @@
     </row>
     <row r="461" spans="1:12">
       <c r="A461" s="29" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B461" s="29"/>
       <c r="D461" s="29"/>
@@ -11882,7 +11949,7 @@
     </row>
     <row r="462" spans="1:12">
       <c r="A462" s="29" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B462" s="29"/>
       <c r="D462" s="29"/>
@@ -11897,7 +11964,7 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" s="29" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B463" s="29"/>
       <c r="D463" s="29"/>
@@ -11912,7 +11979,7 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" s="29" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B464" s="29"/>
       <c r="D464" s="29"/>
@@ -11927,7 +11994,7 @@
     </row>
     <row r="465" spans="1:12">
       <c r="A465" s="29" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B465" s="29"/>
       <c r="D465" s="29"/>
@@ -11942,7 +12009,7 @@
     </row>
     <row r="466" spans="1:12">
       <c r="A466" s="29" t="s">
-        <v>650</v>
+        <v>419</v>
       </c>
       <c r="B466" s="29"/>
       <c r="D466" s="29"/>
@@ -11957,7 +12024,7 @@
     </row>
     <row r="467" spans="1:12">
       <c r="A467" s="29" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B467" s="29"/>
       <c r="D467" s="29"/>
@@ -11972,7 +12039,7 @@
     </row>
     <row r="468" spans="1:12">
       <c r="A468" s="29" t="s">
-        <v>423</v>
+        <v>645</v>
       </c>
       <c r="B468" s="29"/>
       <c r="D468" s="29"/>
@@ -11987,7 +12054,7 @@
     </row>
     <row r="469" spans="1:12">
       <c r="A469" s="29" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B469" s="29"/>
       <c r="D469" s="29"/>
@@ -12002,7 +12069,7 @@
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="29" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B470" s="29"/>
       <c r="D470" s="29"/>
@@ -12017,7 +12084,7 @@
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="29" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B471" s="29"/>
       <c r="D471" s="29"/>
@@ -12032,7 +12099,7 @@
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="29" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B472" s="29"/>
       <c r="D472" s="29"/>
@@ -12047,7 +12114,7 @@
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="29" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B473" s="29"/>
       <c r="D473" s="29"/>
@@ -12062,7 +12129,7 @@
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="29" t="s">
-        <v>657</v>
+        <v>422</v>
       </c>
       <c r="B474" s="29"/>
       <c r="D474" s="29"/>
@@ -12077,7 +12144,7 @@
     </row>
     <row r="475" spans="1:12">
       <c r="A475" s="29" t="s">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="B475" s="29"/>
       <c r="D475" s="29"/>
@@ -12092,7 +12159,7 @@
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="29" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B476" s="29"/>
       <c r="D476" s="29"/>
@@ -12107,7 +12174,7 @@
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="29" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B477" s="29"/>
       <c r="D477" s="29"/>
@@ -12122,7 +12189,7 @@
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="29" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B478" s="29"/>
       <c r="D478" s="29"/>
@@ -12137,7 +12204,7 @@
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="29" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B479" s="29"/>
       <c r="D479" s="29"/>
@@ -12152,7 +12219,7 @@
     </row>
     <row r="480" spans="1:12">
       <c r="A480" s="29" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B480" s="29"/>
       <c r="D480" s="29"/>
@@ -12167,7 +12234,7 @@
     </row>
     <row r="481" spans="1:12">
       <c r="A481" s="29" t="s">
-        <v>663</v>
+        <v>424</v>
       </c>
       <c r="B481" s="29"/>
       <c r="D481" s="29"/>
@@ -12182,7 +12249,7 @@
     </row>
     <row r="482" spans="1:12">
       <c r="A482" s="29" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B482" s="29"/>
       <c r="D482" s="29"/>
@@ -12197,7 +12264,7 @@
     </row>
     <row r="483" spans="1:12">
       <c r="A483" s="29" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B483" s="29"/>
       <c r="D483" s="29"/>
@@ -12212,7 +12279,7 @@
     </row>
     <row r="484" spans="1:12">
       <c r="A484" s="29" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B484" s="29"/>
       <c r="D484" s="29"/>
@@ -12227,7 +12294,7 @@
     </row>
     <row r="485" spans="1:12">
       <c r="A485" s="29" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B485" s="29"/>
       <c r="D485" s="29"/>
@@ -12242,7 +12309,7 @@
     </row>
     <row r="486" spans="1:12">
       <c r="A486" s="29" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B486" s="29"/>
       <c r="D486" s="29"/>
@@ -12257,7 +12324,7 @@
     </row>
     <row r="487" spans="1:12">
       <c r="A487" s="29" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B487" s="29"/>
       <c r="D487" s="29"/>
@@ -12272,7 +12339,7 @@
     </row>
     <row r="488" spans="1:12">
       <c r="A488" s="29" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B488" s="29"/>
       <c r="D488" s="29"/>
@@ -12287,7 +12354,7 @@
     </row>
     <row r="489" spans="1:12">
       <c r="A489" s="29" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B489" s="29"/>
       <c r="D489" s="29"/>
@@ -12302,7 +12369,7 @@
     </row>
     <row r="490" spans="1:12">
       <c r="A490" s="29" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B490" s="29"/>
       <c r="D490" s="29"/>
@@ -12317,7 +12384,7 @@
     </row>
     <row r="491" spans="1:12">
       <c r="A491" s="29" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B491" s="29"/>
       <c r="D491" s="29"/>
@@ -12332,7 +12399,7 @@
     </row>
     <row r="492" spans="1:12">
       <c r="A492" s="29" t="s">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="B492" s="29"/>
       <c r="D492" s="29"/>
@@ -12347,7 +12414,7 @@
     </row>
     <row r="493" spans="1:12">
       <c r="A493" s="29" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B493" s="29"/>
       <c r="D493" s="29"/>
@@ -12362,7 +12429,7 @@
     </row>
     <row r="494" spans="1:12">
       <c r="A494" s="29" t="s">
-        <v>431</v>
+        <v>669</v>
       </c>
       <c r="B494" s="29"/>
       <c r="D494" s="29"/>
@@ -12377,7 +12444,7 @@
     </row>
     <row r="495" spans="1:12">
       <c r="A495" s="29" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B495" s="29"/>
       <c r="D495" s="29"/>
@@ -12392,7 +12459,7 @@
     </row>
     <row r="496" spans="1:12">
       <c r="A496" s="29" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B496" s="29"/>
       <c r="D496" s="29"/>
@@ -12407,7 +12474,7 @@
     </row>
     <row r="497" spans="1:12">
       <c r="A497" s="29" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B497" s="29"/>
       <c r="D497" s="29"/>
@@ -12422,7 +12489,7 @@
     </row>
     <row r="498" spans="1:12">
       <c r="A498" s="29" t="s">
-        <v>678</v>
+        <v>429</v>
       </c>
       <c r="B498" s="29"/>
       <c r="D498" s="29"/>
@@ -12437,7 +12504,7 @@
     </row>
     <row r="499" spans="1:12">
       <c r="A499" s="29" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B499" s="29"/>
       <c r="D499" s="29"/>
@@ -12452,7 +12519,7 @@
     </row>
     <row r="500" spans="1:12">
       <c r="A500" s="29" t="s">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="B500" s="29"/>
       <c r="D500" s="29"/>
@@ -12467,7 +12534,7 @@
     </row>
     <row r="501" spans="1:12">
       <c r="A501" s="29" t="s">
-        <v>434</v>
+        <v>674</v>
       </c>
       <c r="B501" s="29"/>
       <c r="D501" s="29"/>
@@ -12482,7 +12549,7 @@
     </row>
     <row r="502" spans="1:12">
       <c r="A502" s="29" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B502" s="29"/>
       <c r="D502" s="29"/>
@@ -12497,7 +12564,7 @@
     </row>
     <row r="503" spans="1:12">
       <c r="A503" s="29" t="s">
-        <v>435</v>
+        <v>676</v>
       </c>
       <c r="B503" s="29"/>
       <c r="D503" s="29"/>
@@ -12512,7 +12579,7 @@
     </row>
     <row r="504" spans="1:12">
       <c r="A504" s="29" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B504" s="29"/>
       <c r="D504" s="29"/>
@@ -12527,7 +12594,7 @@
     </row>
     <row r="505" spans="1:12">
       <c r="A505" s="29" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B505" s="29"/>
       <c r="D505" s="29"/>
@@ -12541,8 +12608,8 @@
       <c r="L505" s="29"/>
     </row>
     <row r="506" spans="1:12">
-      <c r="A506" s="45" t="b">
-        <v>0</v>
+      <c r="A506" s="29" t="s">
+        <v>679</v>
       </c>
       <c r="B506" s="29"/>
       <c r="D506" s="29"/>
@@ -12557,7 +12624,7 @@
     </row>
     <row r="507" spans="1:12">
       <c r="A507" s="29" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B507" s="29"/>
       <c r="D507" s="29"/>
@@ -12572,7 +12639,7 @@
     </row>
     <row r="508" spans="1:12">
       <c r="A508" s="29" t="s">
-        <v>441</v>
+        <v>680</v>
       </c>
       <c r="B508" s="29"/>
       <c r="D508" s="29"/>
@@ -12587,7 +12654,7 @@
     </row>
     <row r="509" spans="1:12">
       <c r="A509" s="29" t="s">
-        <v>684</v>
+        <v>434</v>
       </c>
       <c r="B509" s="29"/>
       <c r="D509" s="29"/>
@@ -12602,7 +12669,7 @@
     </row>
     <row r="510" spans="1:12">
       <c r="A510" s="29" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B510" s="29"/>
       <c r="D510" s="29"/>
@@ -12617,7 +12684,7 @@
     </row>
     <row r="511" spans="1:12">
       <c r="A511" s="29" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B511" s="29"/>
       <c r="D511" s="29"/>
@@ -12631,8 +12698,8 @@
       <c r="L511" s="29"/>
     </row>
     <row r="512" spans="1:12">
-      <c r="A512" s="29" t="s">
-        <v>687</v>
+      <c r="A512" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="B512" s="29"/>
       <c r="D512" s="29"/>
@@ -12647,7 +12714,7 @@
     </row>
     <row r="513" spans="1:12">
       <c r="A513" s="29" t="s">
-        <v>688</v>
+        <v>439</v>
       </c>
       <c r="B513" s="29"/>
       <c r="D513" s="29"/>
@@ -12662,7 +12729,7 @@
     </row>
     <row r="514" spans="1:12">
       <c r="A514" s="29" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B514" s="29"/>
       <c r="D514" s="29"/>
@@ -12677,7 +12744,7 @@
     </row>
     <row r="515" spans="1:12">
       <c r="A515" s="29" t="s">
-        <v>444</v>
+        <v>683</v>
       </c>
       <c r="B515" s="29"/>
       <c r="D515" s="29"/>
@@ -12692,7 +12759,7 @@
     </row>
     <row r="516" spans="1:12">
       <c r="A516" s="29" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B516" s="29"/>
       <c r="D516" s="29"/>
@@ -12707,7 +12774,7 @@
     </row>
     <row r="517" spans="1:12">
       <c r="A517" s="29" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B517" s="29"/>
       <c r="D517" s="29"/>
@@ -12722,7 +12789,7 @@
     </row>
     <row r="518" spans="1:12">
       <c r="A518" s="29" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B518" s="29"/>
       <c r="D518" s="29"/>
@@ -12737,7 +12804,7 @@
     </row>
     <row r="519" spans="1:12">
       <c r="A519" s="29" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B519" s="29"/>
       <c r="D519" s="29"/>
@@ -12752,7 +12819,7 @@
     </row>
     <row r="520" spans="1:12">
       <c r="A520" s="29" t="s">
-        <v>693</v>
+        <v>442</v>
       </c>
       <c r="B520" s="29"/>
       <c r="D520" s="29"/>
@@ -12767,7 +12834,7 @@
     </row>
     <row r="521" spans="1:12">
       <c r="A521" s="29" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B521" s="29"/>
       <c r="D521" s="29"/>
@@ -12782,7 +12849,7 @@
     </row>
     <row r="522" spans="1:12">
       <c r="A522" s="29" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B522" s="29"/>
       <c r="D522" s="29"/>
@@ -12797,7 +12864,7 @@
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="29" t="s">
-        <v>448</v>
+        <v>689</v>
       </c>
       <c r="B523" s="29"/>
       <c r="D523" s="29"/>
@@ -12812,7 +12879,7 @@
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="29" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B524" s="29"/>
       <c r="D524" s="29"/>
@@ -12827,7 +12894,7 @@
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="29" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B525" s="29"/>
       <c r="D525" s="29"/>
@@ -12842,7 +12909,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="29" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B526" s="29"/>
       <c r="D526" s="29"/>
@@ -12857,7 +12924,7 @@
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="29" t="s">
-        <v>698</v>
+        <v>446</v>
       </c>
       <c r="B527" s="29"/>
       <c r="D527" s="29"/>
@@ -12872,7 +12939,7 @@
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="29" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B528" s="29"/>
       <c r="D528" s="29"/>
@@ -12887,7 +12954,7 @@
     </row>
     <row r="529" spans="1:12">
       <c r="A529" s="29" t="s">
-        <v>700</v>
+        <v>447</v>
       </c>
       <c r="B529" s="29"/>
       <c r="D529" s="29"/>
@@ -12902,7 +12969,7 @@
     </row>
     <row r="530" spans="1:12">
       <c r="A530" s="29" t="s">
-        <v>450</v>
+        <v>694</v>
       </c>
       <c r="B530" s="29"/>
       <c r="D530" s="29"/>
@@ -12917,7 +12984,7 @@
     </row>
     <row r="531" spans="1:12">
       <c r="A531" s="29" t="s">
-        <v>451</v>
+        <v>695</v>
       </c>
       <c r="B531" s="29"/>
       <c r="D531" s="29"/>
@@ -12932,7 +12999,7 @@
     </row>
     <row r="532" spans="1:12">
       <c r="A532" s="29" t="s">
-        <v>452</v>
+        <v>696</v>
       </c>
       <c r="B532" s="29"/>
       <c r="D532" s="29"/>
@@ -12947,7 +13014,7 @@
     </row>
     <row r="533" spans="1:12">
       <c r="A533" s="29" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B533" s="29"/>
       <c r="D533" s="29"/>
@@ -12962,7 +13029,7 @@
     </row>
     <row r="534" spans="1:12">
       <c r="A534" s="29" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B534" s="29"/>
       <c r="D534" s="29"/>
@@ -12977,7 +13044,7 @@
     </row>
     <row r="535" spans="1:12">
       <c r="A535" s="29" t="s">
-        <v>453</v>
+        <v>963</v>
       </c>
       <c r="B535" s="29"/>
       <c r="D535" s="29"/>
@@ -12992,7 +13059,7 @@
     </row>
     <row r="536" spans="1:12">
       <c r="A536" s="29" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B536" s="29"/>
       <c r="D536" s="29"/>
@@ -13007,7 +13074,7 @@
     </row>
     <row r="537" spans="1:12">
       <c r="A537" s="29" t="s">
-        <v>704</v>
+        <v>449</v>
       </c>
       <c r="B537" s="29"/>
       <c r="D537" s="29"/>
@@ -13022,7 +13089,7 @@
     </row>
     <row r="538" spans="1:12">
       <c r="A538" s="29" t="s">
-        <v>705</v>
+        <v>450</v>
       </c>
       <c r="B538" s="29"/>
       <c r="D538" s="29"/>
@@ -13037,7 +13104,7 @@
     </row>
     <row r="539" spans="1:12">
       <c r="A539" s="29" t="s">
-        <v>706</v>
+        <v>451</v>
       </c>
       <c r="B539" s="29"/>
       <c r="D539" s="29"/>
@@ -13052,7 +13119,7 @@
     </row>
     <row r="540" spans="1:12">
       <c r="A540" s="29" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B540" s="29"/>
       <c r="D540" s="29"/>
@@ -13067,7 +13134,7 @@
     </row>
     <row r="541" spans="1:12">
       <c r="A541" s="29" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B541" s="29"/>
       <c r="D541" s="29"/>
@@ -13082,7 +13149,7 @@
     </row>
     <row r="542" spans="1:12">
       <c r="A542" s="29" t="s">
-        <v>709</v>
+        <v>452</v>
       </c>
       <c r="B542" s="29"/>
       <c r="D542" s="29"/>
@@ -13097,7 +13164,7 @@
     </row>
     <row r="543" spans="1:12">
       <c r="A543" s="29" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B543" s="29"/>
       <c r="D543" s="29"/>
@@ -13112,7 +13179,7 @@
     </row>
     <row r="544" spans="1:12">
       <c r="A544" s="29" t="s">
-        <v>459</v>
+        <v>703</v>
       </c>
       <c r="B544" s="29"/>
       <c r="D544" s="29"/>
@@ -13127,7 +13194,7 @@
     </row>
     <row r="545" spans="1:12">
       <c r="A545" s="29" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B545" s="29"/>
       <c r="D545" s="29"/>
@@ -13142,7 +13209,7 @@
     </row>
     <row r="546" spans="1:12">
       <c r="A546" s="29" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B546" s="29"/>
       <c r="D546" s="29"/>
@@ -13157,7 +13224,7 @@
     </row>
     <row r="547" spans="1:12">
       <c r="A547" s="29" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B547" s="29"/>
       <c r="D547" s="29"/>
@@ -13172,7 +13239,7 @@
     </row>
     <row r="548" spans="1:12">
       <c r="A548" s="29" t="s">
-        <v>461</v>
+        <v>707</v>
       </c>
       <c r="B548" s="29"/>
       <c r="D548" s="29"/>
@@ -13187,7 +13254,7 @@
     </row>
     <row r="549" spans="1:12">
       <c r="A549" s="29" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B549" s="29"/>
       <c r="D549" s="29"/>
@@ -13202,7 +13269,7 @@
     </row>
     <row r="550" spans="1:12">
       <c r="A550" s="29" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B550" s="29"/>
       <c r="D550" s="29"/>
@@ -13217,7 +13284,7 @@
     </row>
     <row r="551" spans="1:12">
       <c r="A551" s="29" t="s">
-        <v>716</v>
+        <v>458</v>
       </c>
       <c r="B551" s="29"/>
       <c r="D551" s="29"/>
@@ -13232,7 +13299,7 @@
     </row>
     <row r="552" spans="1:12">
       <c r="A552" s="29" t="s">
-        <v>463</v>
+        <v>710</v>
       </c>
       <c r="B552" s="29"/>
       <c r="D552" s="29"/>
@@ -13247,7 +13314,7 @@
     </row>
     <row r="553" spans="1:12">
       <c r="A553" s="29" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B553" s="29"/>
       <c r="D553" s="29"/>
@@ -13262,7 +13329,7 @@
     </row>
     <row r="554" spans="1:12">
       <c r="A554" s="29" t="s">
-        <v>464</v>
+        <v>712</v>
       </c>
       <c r="B554" s="29"/>
       <c r="D554" s="29"/>
@@ -13277,7 +13344,7 @@
     </row>
     <row r="555" spans="1:12">
       <c r="A555" s="29" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B555" s="29"/>
       <c r="D555" s="29"/>
@@ -13292,7 +13359,7 @@
     </row>
     <row r="556" spans="1:12">
       <c r="A556" s="29" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B556" s="29"/>
       <c r="D556" s="29"/>
@@ -13307,7 +13374,7 @@
     </row>
     <row r="557" spans="1:12">
       <c r="A557" s="29" t="s">
-        <v>466</v>
+        <v>714</v>
       </c>
       <c r="B557" s="29"/>
       <c r="D557" s="29"/>
@@ -13322,7 +13389,7 @@
     </row>
     <row r="558" spans="1:12">
       <c r="A558" s="29" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B558" s="29"/>
       <c r="D558" s="29"/>
@@ -13337,7 +13404,7 @@
     </row>
     <row r="559" spans="1:12">
       <c r="A559" s="29" t="s">
-        <v>720</v>
+        <v>462</v>
       </c>
       <c r="B559" s="29"/>
       <c r="D559" s="29"/>
@@ -13352,7 +13419,7 @@
     </row>
     <row r="560" spans="1:12">
       <c r="A560" s="29" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B560" s="29"/>
       <c r="D560" s="29"/>
@@ -13367,7 +13434,7 @@
     </row>
     <row r="561" spans="1:12">
       <c r="A561" s="29" t="s">
-        <v>722</v>
+        <v>463</v>
       </c>
       <c r="B561" s="29"/>
       <c r="D561" s="29"/>
@@ -13382,7 +13449,7 @@
     </row>
     <row r="562" spans="1:12">
       <c r="A562" s="29" t="s">
-        <v>723</v>
+        <v>464</v>
       </c>
       <c r="B562" s="29"/>
       <c r="D562" s="29"/>
@@ -13397,7 +13464,7 @@
     </row>
     <row r="563" spans="1:12">
       <c r="A563" s="29" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B563" s="29"/>
       <c r="D563" s="29"/>
@@ -13412,7 +13479,7 @@
     </row>
     <row r="564" spans="1:12">
       <c r="A564" s="29" t="s">
-        <v>725</v>
+        <v>465</v>
       </c>
       <c r="B564" s="29"/>
       <c r="D564" s="29"/>
@@ -13427,7 +13494,7 @@
     </row>
     <row r="565" spans="1:12">
       <c r="A565" s="29" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B565" s="29"/>
       <c r="D565" s="29"/>
@@ -13442,7 +13509,7 @@
     </row>
     <row r="566" spans="1:12">
       <c r="A566" s="29" t="s">
-        <v>469</v>
+        <v>719</v>
       </c>
       <c r="B566" s="29"/>
       <c r="D566" s="29"/>
@@ -13457,7 +13524,7 @@
     </row>
     <row r="567" spans="1:12">
       <c r="A567" s="29" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B567" s="29"/>
       <c r="D567" s="29"/>
@@ -13472,7 +13539,7 @@
     </row>
     <row r="568" spans="1:12">
       <c r="A568" s="29" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B568" s="29"/>
       <c r="D568" s="29"/>
@@ -13487,7 +13554,7 @@
     </row>
     <row r="569" spans="1:12">
       <c r="A569" s="29" t="s">
-        <v>470</v>
+        <v>722</v>
       </c>
       <c r="B569" s="29"/>
       <c r="D569" s="29"/>
@@ -13502,7 +13569,7 @@
     </row>
     <row r="570" spans="1:12">
       <c r="A570" s="29" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B570" s="29"/>
       <c r="D570" s="29"/>
@@ -13517,7 +13584,7 @@
     </row>
     <row r="571" spans="1:12">
       <c r="A571" s="29" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B571" s="29"/>
       <c r="D571" s="29"/>
@@ -13532,7 +13599,7 @@
     </row>
     <row r="572" spans="1:12">
       <c r="A572" s="29" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B572" s="29"/>
       <c r="D572" s="29"/>
@@ -13547,7 +13614,7 @@
     </row>
     <row r="573" spans="1:12">
       <c r="A573" s="29" t="s">
-        <v>732</v>
+        <v>468</v>
       </c>
       <c r="B573" s="29"/>
       <c r="D573" s="29"/>
@@ -13562,7 +13629,7 @@
     </row>
     <row r="574" spans="1:12">
       <c r="A574" s="29" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B574" s="29"/>
       <c r="D574" s="29"/>
@@ -13577,7 +13644,7 @@
     </row>
     <row r="575" spans="1:12">
       <c r="A575" s="29" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B575" s="29"/>
       <c r="D575" s="29"/>
@@ -13592,7 +13659,7 @@
     </row>
     <row r="576" spans="1:12">
       <c r="A576" s="29" t="s">
-        <v>735</v>
+        <v>469</v>
       </c>
       <c r="B576" s="29"/>
       <c r="D576" s="29"/>
@@ -13607,7 +13674,7 @@
     </row>
     <row r="577" spans="1:12">
       <c r="A577" s="29" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B577" s="29"/>
       <c r="D577" s="29"/>
@@ -13622,7 +13689,7 @@
     </row>
     <row r="578" spans="1:12">
       <c r="A578" s="29" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B578" s="29"/>
       <c r="D578" s="29"/>
@@ -13637,7 +13704,7 @@
     </row>
     <row r="579" spans="1:12">
       <c r="A579" s="29" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B579" s="29"/>
       <c r="D579" s="29"/>
@@ -13652,7 +13719,7 @@
     </row>
     <row r="580" spans="1:12">
       <c r="A580" s="29" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B580" s="29"/>
       <c r="D580" s="29"/>
@@ -13667,7 +13734,7 @@
     </row>
     <row r="581" spans="1:12">
       <c r="A581" s="29" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B581" s="29"/>
       <c r="D581" s="29"/>
@@ -13682,7 +13749,7 @@
     </row>
     <row r="582" spans="1:12">
       <c r="A582" s="29" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B582" s="29"/>
       <c r="D582" s="29"/>
@@ -13697,7 +13764,7 @@
     </row>
     <row r="583" spans="1:12">
       <c r="A583" s="29" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B583" s="29"/>
       <c r="D583" s="29"/>
@@ -13712,7 +13779,7 @@
     </row>
     <row r="584" spans="1:12">
       <c r="A584" s="29" t="s">
-        <v>473</v>
+        <v>735</v>
       </c>
       <c r="B584" s="29"/>
       <c r="D584" s="29"/>
@@ -13727,7 +13794,7 @@
     </row>
     <row r="585" spans="1:12">
       <c r="A585" s="29" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B585" s="29"/>
       <c r="D585" s="29"/>
@@ -13742,7 +13809,7 @@
     </row>
     <row r="586" spans="1:12">
       <c r="A586" s="29" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B586" s="29"/>
       <c r="D586" s="29"/>
@@ -13757,7 +13824,7 @@
     </row>
     <row r="587" spans="1:12">
       <c r="A587" s="29" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B587" s="29"/>
       <c r="D587" s="29"/>
@@ -13772,7 +13839,7 @@
     </row>
     <row r="588" spans="1:12">
       <c r="A588" s="29" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B588" s="29"/>
       <c r="D588" s="29"/>
@@ -13787,7 +13854,7 @@
     </row>
     <row r="589" spans="1:12">
       <c r="A589" s="29" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B589" s="29"/>
       <c r="D589" s="29"/>
@@ -13802,7 +13869,7 @@
     </row>
     <row r="590" spans="1:12">
       <c r="A590" s="29" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B590" s="29"/>
       <c r="D590" s="29"/>
@@ -13817,7 +13884,7 @@
     </row>
     <row r="591" spans="1:12">
       <c r="A591" s="29" t="s">
-        <v>749</v>
+        <v>472</v>
       </c>
       <c r="B591" s="29"/>
       <c r="D591" s="29"/>
@@ -13832,7 +13899,7 @@
     </row>
     <row r="592" spans="1:12">
       <c r="A592" s="29" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B592" s="29"/>
       <c r="D592" s="29"/>
@@ -13847,7 +13914,7 @@
     </row>
     <row r="593" spans="1:12">
       <c r="A593" s="29" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B593" s="29"/>
       <c r="D593" s="29"/>
@@ -13862,7 +13929,7 @@
     </row>
     <row r="594" spans="1:12">
       <c r="A594" s="29" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B594" s="29"/>
       <c r="D594" s="29"/>
@@ -13877,7 +13944,7 @@
     </row>
     <row r="595" spans="1:12">
       <c r="A595" s="29" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B595" s="29"/>
       <c r="D595" s="29"/>
@@ -13892,7 +13959,7 @@
     </row>
     <row r="596" spans="1:12">
       <c r="A596" s="29" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B596" s="29"/>
       <c r="D596" s="29"/>
@@ -13907,7 +13974,7 @@
     </row>
     <row r="597" spans="1:12">
       <c r="A597" s="29" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B597" s="29"/>
       <c r="D597" s="29"/>
@@ -13922,7 +13989,7 @@
     </row>
     <row r="598" spans="1:12">
       <c r="A598" s="29" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B598" s="29"/>
       <c r="D598" s="29"/>
@@ -13937,7 +14004,7 @@
     </row>
     <row r="599" spans="1:12">
       <c r="A599" s="29" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B599" s="29"/>
       <c r="D599" s="29"/>
@@ -13952,7 +14019,7 @@
     </row>
     <row r="600" spans="1:12">
       <c r="A600" s="29" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B600" s="29"/>
       <c r="D600" s="29"/>
@@ -13967,7 +14034,7 @@
     </row>
     <row r="601" spans="1:12">
       <c r="A601" s="29" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B601" s="29"/>
       <c r="D601" s="29"/>
@@ -13982,7 +14049,7 @@
     </row>
     <row r="602" spans="1:12">
       <c r="A602" s="29" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B602" s="29"/>
       <c r="D602" s="29"/>
@@ -13997,7 +14064,7 @@
     </row>
     <row r="603" spans="1:12">
       <c r="A603" s="29" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B603" s="29"/>
       <c r="D603" s="29"/>
@@ -14012,7 +14079,7 @@
     </row>
     <row r="604" spans="1:12">
       <c r="A604" s="29" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B604" s="29"/>
       <c r="D604" s="29"/>
@@ -14027,7 +14094,7 @@
     </row>
     <row r="605" spans="1:12">
       <c r="A605" s="29" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B605" s="29"/>
       <c r="D605" s="29"/>
@@ -14042,7 +14109,7 @@
     </row>
     <row r="606" spans="1:12">
       <c r="A606" s="29" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B606" s="29"/>
       <c r="D606" s="29"/>
@@ -14057,7 +14124,7 @@
     </row>
     <row r="607" spans="1:12">
       <c r="A607" s="29" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B607" s="29"/>
       <c r="D607" s="29"/>
@@ -14072,7 +14139,7 @@
     </row>
     <row r="608" spans="1:12">
       <c r="A608" s="29" t="s">
-        <v>477</v>
+        <v>758</v>
       </c>
       <c r="B608" s="29"/>
       <c r="D608" s="29"/>
@@ -14087,7 +14154,7 @@
     </row>
     <row r="609" spans="1:12">
       <c r="A609" s="29" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B609" s="29"/>
       <c r="D609" s="29"/>
@@ -14102,7 +14169,7 @@
     </row>
     <row r="610" spans="1:12">
       <c r="A610" s="29" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B610" s="29"/>
       <c r="D610" s="29"/>
@@ -14117,7 +14184,7 @@
     </row>
     <row r="611" spans="1:12">
       <c r="A611" s="29" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B611" s="29"/>
       <c r="D611" s="29"/>
@@ -14132,7 +14199,7 @@
     </row>
     <row r="612" spans="1:12">
       <c r="A612" s="29" t="s">
-        <v>478</v>
+        <v>762</v>
       </c>
       <c r="B612" s="29"/>
       <c r="D612" s="29"/>
@@ -14147,7 +14214,7 @@
     </row>
     <row r="613" spans="1:12">
       <c r="A613" s="29" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B613" s="29"/>
       <c r="D613" s="29"/>
@@ -14162,7 +14229,7 @@
     </row>
     <row r="614" spans="1:12">
       <c r="A614" s="29" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B614" s="29"/>
       <c r="D614" s="29"/>
@@ -14177,7 +14244,7 @@
     </row>
     <row r="615" spans="1:12">
       <c r="A615" s="29" t="s">
-        <v>771</v>
+        <v>476</v>
       </c>
       <c r="B615" s="29"/>
       <c r="D615" s="29"/>
@@ -14192,7 +14259,7 @@
     </row>
     <row r="616" spans="1:12">
       <c r="A616" s="29" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B616" s="29"/>
       <c r="D616" s="29"/>
@@ -14207,7 +14274,7 @@
     </row>
     <row r="617" spans="1:12">
       <c r="A617" s="29" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B617" s="29"/>
       <c r="D617" s="29"/>
@@ -14222,7 +14289,7 @@
     </row>
     <row r="618" spans="1:12">
       <c r="A618" s="29" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B618" s="29"/>
       <c r="D618" s="29"/>
@@ -14237,7 +14304,7 @@
     </row>
     <row r="619" spans="1:12">
       <c r="A619" s="29" t="s">
-        <v>775</v>
+        <v>477</v>
       </c>
       <c r="B619" s="29"/>
       <c r="D619" s="29"/>
@@ -14252,7 +14319,7 @@
     </row>
     <row r="620" spans="1:12">
       <c r="A620" s="29" t="s">
-        <v>483</v>
+        <v>768</v>
       </c>
       <c r="B620" s="29"/>
       <c r="D620" s="29"/>
@@ -14267,7 +14334,7 @@
     </row>
     <row r="621" spans="1:12">
       <c r="A621" s="29" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B621" s="29"/>
       <c r="D621" s="29"/>
@@ -14282,7 +14349,7 @@
     </row>
     <row r="622" spans="1:12">
       <c r="A622" s="29" t="s">
-        <v>484</v>
+        <v>770</v>
       </c>
       <c r="B622" s="29"/>
       <c r="D622" s="29"/>
@@ -14297,7 +14364,7 @@
     </row>
     <row r="623" spans="1:12">
       <c r="A623" s="29" t="s">
-        <v>490</v>
+        <v>771</v>
       </c>
       <c r="B623" s="29"/>
       <c r="D623" s="29"/>
@@ -14312,7 +14379,7 @@
     </row>
     <row r="624" spans="1:12">
       <c r="A624" s="29" t="s">
-        <v>491</v>
+        <v>772</v>
       </c>
       <c r="B624" s="29"/>
       <c r="D624" s="29"/>
@@ -14327,7 +14394,7 @@
     </row>
     <row r="625" spans="1:12">
       <c r="A625" s="29" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B625" s="29"/>
       <c r="D625" s="29"/>
@@ -14342,7 +14409,7 @@
     </row>
     <row r="626" spans="1:12">
       <c r="A626" s="29" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B626" s="29"/>
       <c r="D626" s="29"/>
@@ -14357,7 +14424,7 @@
     </row>
     <row r="627" spans="1:12">
       <c r="A627" s="29" t="s">
-        <v>779</v>
+        <v>482</v>
       </c>
       <c r="B627" s="29"/>
       <c r="D627" s="29"/>
@@ -14372,7 +14439,7 @@
     </row>
     <row r="628" spans="1:12">
       <c r="A628" s="29" t="s">
-        <v>492</v>
+        <v>775</v>
       </c>
       <c r="B628" s="29"/>
       <c r="D628" s="29"/>
@@ -14387,7 +14454,7 @@
     </row>
     <row r="629" spans="1:12">
       <c r="A629" s="29" t="s">
-        <v>780</v>
+        <v>483</v>
       </c>
       <c r="B629" s="29"/>
       <c r="D629" s="29"/>
@@ -14402,7 +14469,7 @@
     </row>
     <row r="630" spans="1:12">
       <c r="A630" s="29" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B630" s="29"/>
       <c r="D630" s="29"/>
@@ -14417,7 +14484,7 @@
     </row>
     <row r="631" spans="1:12">
       <c r="A631" s="29" t="s">
-        <v>781</v>
+        <v>490</v>
       </c>
       <c r="B631" s="29"/>
       <c r="D631" s="29"/>
@@ -14432,7 +14499,7 @@
     </row>
     <row r="632" spans="1:12">
       <c r="A632" s="29" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B632" s="29"/>
       <c r="D632" s="29"/>
@@ -14447,7 +14514,7 @@
     </row>
     <row r="633" spans="1:12">
       <c r="A633" s="29" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B633" s="29"/>
       <c r="D633" s="29"/>
@@ -14462,7 +14529,7 @@
     </row>
     <row r="634" spans="1:12">
       <c r="A634" s="29" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B634" s="29"/>
       <c r="D634" s="29"/>
@@ -14477,7 +14544,7 @@
     </row>
     <row r="635" spans="1:12">
       <c r="A635" s="29" t="s">
-        <v>785</v>
+        <v>491</v>
       </c>
       <c r="B635" s="29"/>
       <c r="D635" s="29"/>
@@ -14492,7 +14559,7 @@
     </row>
     <row r="636" spans="1:12">
       <c r="A636" s="29" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B636" s="29"/>
       <c r="D636" s="29"/>
@@ -14507,7 +14574,7 @@
     </row>
     <row r="637" spans="1:12">
       <c r="A637" s="29" t="s">
-        <v>787</v>
+        <v>492</v>
       </c>
       <c r="B637" s="29"/>
       <c r="D637" s="29"/>
@@ -14522,7 +14589,7 @@
     </row>
     <row r="638" spans="1:12">
       <c r="A638" s="29" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B638" s="29"/>
       <c r="D638" s="29"/>
@@ -14537,7 +14604,7 @@
     </row>
     <row r="639" spans="1:12">
       <c r="A639" s="29" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B639" s="29"/>
       <c r="D639" s="29"/>
@@ -14552,7 +14619,7 @@
     </row>
     <row r="640" spans="1:12">
       <c r="A640" s="29" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B640" s="29"/>
       <c r="D640" s="29"/>
@@ -14567,7 +14634,7 @@
     </row>
     <row r="641" spans="1:12">
       <c r="A641" s="29" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B641" s="29"/>
       <c r="D641" s="29"/>
@@ -14582,7 +14649,7 @@
     </row>
     <row r="642" spans="1:12">
       <c r="A642" s="29" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B642" s="29"/>
       <c r="D642" s="29"/>
@@ -14597,7 +14664,7 @@
     </row>
     <row r="643" spans="1:12">
       <c r="A643" s="29" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B643" s="29"/>
       <c r="D643" s="29"/>
@@ -14612,7 +14679,7 @@
     </row>
     <row r="644" spans="1:12">
       <c r="A644" s="29" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B644" s="29"/>
       <c r="D644" s="29"/>
@@ -14627,7 +14694,7 @@
     </row>
     <row r="645" spans="1:12">
       <c r="A645" s="29" t="s">
-        <v>494</v>
+        <v>787</v>
       </c>
       <c r="B645" s="29"/>
       <c r="D645" s="29"/>
@@ -14642,7 +14709,7 @@
     </row>
     <row r="646" spans="1:12">
       <c r="A646" s="29" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B646" s="29"/>
       <c r="D646" s="29"/>
@@ -14657,7 +14724,7 @@
     </row>
     <row r="647" spans="1:12">
       <c r="A647" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B647" s="29"/>
       <c r="D647" s="29"/>
@@ -14672,7 +14739,7 @@
     </row>
     <row r="648" spans="1:12">
       <c r="A648" s="29" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B648" s="29"/>
       <c r="D648" s="29"/>
@@ -14687,7 +14754,7 @@
     </row>
     <row r="649" spans="1:12">
       <c r="A649" s="29" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B649" s="29"/>
       <c r="D649" s="29"/>
@@ -14702,7 +14769,7 @@
     </row>
     <row r="650" spans="1:12">
       <c r="A650" s="29" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B650" s="29"/>
       <c r="D650" s="29"/>
@@ -14717,7 +14784,7 @@
     </row>
     <row r="651" spans="1:12">
       <c r="A651" s="29" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B651" s="29"/>
       <c r="D651" s="29"/>
@@ -14732,7 +14799,7 @@
     </row>
     <row r="652" spans="1:12">
       <c r="A652" s="29" t="s">
-        <v>801</v>
+        <v>493</v>
       </c>
       <c r="B652" s="29"/>
       <c r="D652" s="29"/>
@@ -14747,7 +14814,7 @@
     </row>
     <row r="653" spans="1:12">
       <c r="A653" s="29" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B653" s="29"/>
       <c r="D653" s="29"/>
@@ -14762,7 +14829,7 @@
     </row>
     <row r="654" spans="1:12">
       <c r="A654" s="29" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B654" s="29"/>
       <c r="D654" s="29"/>
@@ -14777,7 +14844,7 @@
     </row>
     <row r="655" spans="1:12">
       <c r="A655" s="29" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B655" s="29"/>
       <c r="D655" s="29"/>
@@ -14792,7 +14859,7 @@
     </row>
     <row r="656" spans="1:12">
       <c r="A656" s="29" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B656" s="29"/>
       <c r="D656" s="29"/>
@@ -14807,7 +14874,7 @@
     </row>
     <row r="657" spans="1:12">
       <c r="A657" s="29" t="s">
-        <v>498</v>
+        <v>798</v>
       </c>
       <c r="B657" s="29"/>
       <c r="D657" s="29"/>
@@ -14822,7 +14889,7 @@
     </row>
     <row r="658" spans="1:12">
       <c r="A658" s="29" t="s">
-        <v>502</v>
+        <v>799</v>
       </c>
       <c r="B658" s="29"/>
       <c r="D658" s="29"/>
@@ -14837,7 +14904,7 @@
     </row>
     <row r="659" spans="1:12">
       <c r="A659" s="29" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B659" s="29"/>
       <c r="D659" s="29"/>
@@ -14852,7 +14919,7 @@
     </row>
     <row r="660" spans="1:12">
       <c r="A660" s="29" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B660" s="29"/>
       <c r="D660" s="29"/>
@@ -14867,7 +14934,7 @@
     </row>
     <row r="661" spans="1:12">
       <c r="A661" s="29" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B661" s="29"/>
       <c r="D661" s="29"/>
@@ -14882,7 +14949,7 @@
     </row>
     <row r="662" spans="1:12">
       <c r="A662" s="29" t="s">
-        <v>507</v>
+        <v>803</v>
       </c>
       <c r="B662" s="29"/>
       <c r="D662" s="29"/>
@@ -14897,7 +14964,7 @@
     </row>
     <row r="663" spans="1:12">
       <c r="A663" s="29" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B663" s="29"/>
       <c r="D663" s="29"/>
@@ -14912,7 +14979,7 @@
     </row>
     <row r="664" spans="1:12">
       <c r="A664" s="29" t="s">
-        <v>810</v>
+        <v>497</v>
       </c>
       <c r="B664" s="29"/>
       <c r="D664" s="29"/>
@@ -14927,7 +14994,7 @@
     </row>
     <row r="665" spans="1:12">
       <c r="A665" s="29" t="s">
-        <v>811</v>
+        <v>501</v>
       </c>
       <c r="B665" s="29"/>
       <c r="D665" s="29"/>
@@ -14942,7 +15009,7 @@
     </row>
     <row r="666" spans="1:12">
       <c r="A666" s="29" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B666" s="29"/>
       <c r="D666" s="29"/>
@@ -14957,7 +15024,7 @@
     </row>
     <row r="667" spans="1:12">
       <c r="A667" s="29" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B667" s="29"/>
       <c r="D667" s="29"/>
@@ -14972,7 +15039,7 @@
     </row>
     <row r="668" spans="1:12">
       <c r="A668" s="29" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B668" s="29"/>
       <c r="D668" s="29"/>
@@ -14987,7 +15054,7 @@
     </row>
     <row r="669" spans="1:12">
       <c r="A669" s="29" t="s">
-        <v>815</v>
+        <v>506</v>
       </c>
       <c r="B669" s="29"/>
       <c r="D669" s="29"/>
@@ -15002,7 +15069,7 @@
     </row>
     <row r="670" spans="1:12">
       <c r="A670" s="29" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B670" s="29"/>
       <c r="D670" s="29"/>
@@ -15017,7 +15084,7 @@
     </row>
     <row r="671" spans="1:12">
       <c r="A671" s="29" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B671" s="29"/>
       <c r="D671" s="29"/>
@@ -15032,7 +15099,7 @@
     </row>
     <row r="672" spans="1:12">
       <c r="A672" s="29" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B672" s="29"/>
       <c r="D672" s="29"/>
@@ -15047,7 +15114,7 @@
     </row>
     <row r="673" spans="1:12">
       <c r="A673" s="29" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B673" s="29"/>
       <c r="D673" s="29"/>
@@ -15062,7 +15129,7 @@
     </row>
     <row r="674" spans="1:12">
       <c r="A674" s="29" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B674" s="29"/>
       <c r="D674" s="29"/>
@@ -15077,7 +15144,7 @@
     </row>
     <row r="675" spans="1:12">
       <c r="A675" s="29" t="s">
-        <v>509</v>
+        <v>813</v>
       </c>
       <c r="B675" s="29"/>
       <c r="D675" s="29"/>
@@ -15092,7 +15159,7 @@
     </row>
     <row r="676" spans="1:12">
       <c r="A676" s="29" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B676" s="29"/>
       <c r="D676" s="29"/>
@@ -15107,7 +15174,7 @@
     </row>
     <row r="677" spans="1:12">
       <c r="A677" s="29" t="s">
-        <v>511</v>
+        <v>815</v>
       </c>
       <c r="B677" s="29"/>
       <c r="D677" s="29"/>
@@ -15122,7 +15189,7 @@
     </row>
     <row r="678" spans="1:12">
       <c r="A678" s="29" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B678" s="29"/>
       <c r="D678" s="29"/>
@@ -15137,7 +15204,7 @@
     </row>
     <row r="679" spans="1:12">
       <c r="A679" s="29" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B679" s="29"/>
       <c r="D679" s="29"/>
@@ -15152,7 +15219,7 @@
     </row>
     <row r="680" spans="1:12">
       <c r="A680" s="29" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B680" s="29"/>
       <c r="D680" s="29"/>
@@ -15167,7 +15234,7 @@
     </row>
     <row r="681" spans="1:12">
       <c r="A681" s="29" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B681" s="29"/>
       <c r="D681" s="29"/>
@@ -15182,7 +15249,7 @@
     </row>
     <row r="682" spans="1:12">
       <c r="A682" s="29" t="s">
-        <v>826</v>
+        <v>508</v>
       </c>
       <c r="B682" s="29"/>
       <c r="D682" s="29"/>
@@ -15197,7 +15264,7 @@
     </row>
     <row r="683" spans="1:12">
       <c r="A683" s="29" t="s">
-        <v>514</v>
+        <v>820</v>
       </c>
       <c r="B683" s="29"/>
       <c r="D683" s="29"/>
@@ -15212,7 +15279,7 @@
     </row>
     <row r="684" spans="1:12">
       <c r="A684" s="29" t="s">
-        <v>827</v>
+        <v>510</v>
       </c>
       <c r="B684" s="29"/>
       <c r="D684" s="29"/>
@@ -15227,7 +15294,7 @@
     </row>
     <row r="685" spans="1:12">
       <c r="A685" s="29" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B685" s="29"/>
       <c r="D685" s="29"/>
@@ -15242,7 +15309,7 @@
     </row>
     <row r="686" spans="1:12">
       <c r="A686" s="29" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B686" s="29"/>
       <c r="D686" s="29"/>
@@ -15257,7 +15324,7 @@
     </row>
     <row r="687" spans="1:12">
       <c r="A687" s="29" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B687" s="29"/>
       <c r="D687" s="29"/>
@@ -15272,7 +15339,7 @@
     </row>
     <row r="688" spans="1:12">
       <c r="A688" s="29" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B688" s="29"/>
       <c r="D688" s="29"/>
@@ -15287,7 +15354,7 @@
     </row>
     <row r="689" spans="1:12">
       <c r="A689" s="29" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B689" s="29"/>
       <c r="D689" s="29"/>
@@ -15302,7 +15369,7 @@
     </row>
     <row r="690" spans="1:12">
       <c r="A690" s="29" t="s">
-        <v>833</v>
+        <v>513</v>
       </c>
       <c r="B690" s="29"/>
       <c r="D690" s="29"/>
@@ -15317,7 +15384,7 @@
     </row>
     <row r="691" spans="1:12">
       <c r="A691" s="29" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B691" s="29"/>
       <c r="D691" s="29"/>
@@ -15332,7 +15399,7 @@
     </row>
     <row r="692" spans="1:12">
       <c r="A692" s="29" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B692" s="29"/>
       <c r="D692" s="29"/>
@@ -15347,7 +15414,7 @@
     </row>
     <row r="693" spans="1:12">
       <c r="A693" s="29" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B693" s="29"/>
       <c r="D693" s="29"/>
@@ -15362,7 +15429,7 @@
     </row>
     <row r="694" spans="1:12">
       <c r="A694" s="29" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B694" s="29"/>
       <c r="D694" s="29"/>
@@ -15377,7 +15444,7 @@
     </row>
     <row r="695" spans="1:12">
       <c r="A695" s="29" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B695" s="29"/>
       <c r="D695" s="29"/>
@@ -15392,7 +15459,7 @@
     </row>
     <row r="696" spans="1:12">
       <c r="A696" s="29" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B696" s="29"/>
       <c r="D696" s="29"/>
@@ -15407,7 +15474,7 @@
     </row>
     <row r="697" spans="1:12">
       <c r="A697" s="29" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B697" s="29"/>
       <c r="D697" s="29"/>
@@ -15422,7 +15489,7 @@
     </row>
     <row r="698" spans="1:12">
       <c r="A698" s="29" t="s">
-        <v>522</v>
+        <v>833</v>
       </c>
       <c r="B698" s="29"/>
       <c r="D698" s="29"/>
@@ -15437,7 +15504,7 @@
     </row>
     <row r="699" spans="1:12">
       <c r="A699" s="29" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B699" s="29"/>
       <c r="D699" s="29"/>
@@ -15452,7 +15519,7 @@
     </row>
     <row r="700" spans="1:12">
       <c r="A700" s="29" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B700" s="29"/>
       <c r="D700" s="29"/>
@@ -15467,7 +15534,7 @@
     </row>
     <row r="701" spans="1:12">
       <c r="A701" s="29" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B701" s="29"/>
       <c r="D701" s="29"/>
@@ -15482,7 +15549,7 @@
     </row>
     <row r="702" spans="1:12">
       <c r="A702" s="29" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B702" s="29"/>
       <c r="D702" s="29"/>
@@ -15497,7 +15564,7 @@
     </row>
     <row r="703" spans="1:12">
       <c r="A703" s="29" t="s">
-        <v>526</v>
+        <v>838</v>
       </c>
       <c r="B703" s="29"/>
       <c r="D703" s="29"/>
@@ -15512,7 +15579,7 @@
     </row>
     <row r="704" spans="1:12">
       <c r="A704" s="29" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B704" s="29"/>
       <c r="D704" s="29"/>
@@ -15527,7 +15594,7 @@
     </row>
     <row r="705" spans="1:12">
       <c r="A705" s="29" t="s">
-        <v>846</v>
+        <v>521</v>
       </c>
       <c r="B705" s="29"/>
       <c r="D705" s="29"/>
@@ -15542,7 +15609,7 @@
     </row>
     <row r="706" spans="1:12">
       <c r="A706" s="29" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B706" s="29"/>
       <c r="D706" s="29"/>
@@ -15557,7 +15624,7 @@
     </row>
     <row r="707" spans="1:12">
       <c r="A707" s="29" t="s">
-        <v>530</v>
+        <v>841</v>
       </c>
       <c r="B707" s="29"/>
       <c r="D707" s="29"/>
@@ -15572,7 +15639,7 @@
     </row>
     <row r="708" spans="1:12">
       <c r="A708" s="29" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B708" s="29"/>
       <c r="D708" s="29"/>
@@ -15587,7 +15654,7 @@
     </row>
     <row r="709" spans="1:12">
       <c r="A709" s="29" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B709" s="29"/>
       <c r="D709" s="29"/>
@@ -15602,7 +15669,7 @@
     </row>
     <row r="710" spans="1:12">
       <c r="A710" s="29" t="s">
-        <v>850</v>
+        <v>525</v>
       </c>
       <c r="B710" s="29"/>
       <c r="D710" s="29"/>
@@ -15617,7 +15684,7 @@
     </row>
     <row r="711" spans="1:12">
       <c r="A711" s="29" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B711" s="29"/>
       <c r="D711" s="29"/>
@@ -15632,7 +15699,7 @@
     </row>
     <row r="712" spans="1:12">
       <c r="A712" s="29" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B712" s="29"/>
       <c r="D712" s="29"/>
@@ -15647,7 +15714,7 @@
     </row>
     <row r="713" spans="1:12">
       <c r="A713" s="29" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B713" s="29"/>
       <c r="D713" s="29"/>
@@ -15662,7 +15729,7 @@
     </row>
     <row r="714" spans="1:12">
       <c r="A714" s="29" t="s">
-        <v>854</v>
+        <v>529</v>
       </c>
       <c r="B714" s="29"/>
       <c r="D714" s="29"/>
@@ -15677,7 +15744,7 @@
     </row>
     <row r="715" spans="1:12">
       <c r="A715" s="29" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B715" s="29"/>
       <c r="D715" s="29"/>
@@ -15692,7 +15759,7 @@
     </row>
     <row r="716" spans="1:12">
       <c r="A716" s="29" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B716" s="29"/>
       <c r="D716" s="29"/>
@@ -15707,7 +15774,7 @@
     </row>
     <row r="717" spans="1:12">
       <c r="A717" s="29" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B717" s="29"/>
       <c r="D717" s="29"/>
@@ -15722,7 +15789,7 @@
     </row>
     <row r="718" spans="1:12">
       <c r="A718" s="29" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B718" s="29"/>
       <c r="D718" s="29"/>
@@ -15737,7 +15804,7 @@
     </row>
     <row r="719" spans="1:12">
       <c r="A719" s="29" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B719" s="29"/>
       <c r="D719" s="29"/>
@@ -15752,7 +15819,7 @@
     </row>
     <row r="720" spans="1:12">
       <c r="A720" s="29" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B720" s="29"/>
       <c r="D720" s="29"/>
@@ -15767,7 +15834,7 @@
     </row>
     <row r="721" spans="1:12">
       <c r="A721" s="29" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B721" s="29"/>
       <c r="D721" s="29"/>
@@ -15782,7 +15849,7 @@
     </row>
     <row r="722" spans="1:12">
       <c r="A722" s="29" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B722" s="29"/>
       <c r="D722" s="29"/>
@@ -15797,7 +15864,7 @@
     </row>
     <row r="723" spans="1:12">
       <c r="A723" s="29" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B723" s="29"/>
       <c r="D723" s="29"/>
@@ -15812,7 +15879,7 @@
     </row>
     <row r="724" spans="1:12">
       <c r="A724" s="29" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B724" s="29"/>
       <c r="D724" s="29"/>
@@ -15827,7 +15894,7 @@
     </row>
     <row r="725" spans="1:12">
       <c r="A725" s="29" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B725" s="29"/>
       <c r="D725" s="29"/>
@@ -15842,7 +15909,7 @@
     </row>
     <row r="726" spans="1:12">
       <c r="A726" s="29" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B726" s="29"/>
       <c r="D726" s="29"/>
@@ -15857,7 +15924,7 @@
     </row>
     <row r="727" spans="1:12">
       <c r="A727" s="29" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B727" s="29"/>
       <c r="D727" s="29"/>
@@ -15872,7 +15939,7 @@
     </row>
     <row r="728" spans="1:12">
       <c r="A728" s="29" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B728" s="29"/>
       <c r="D728" s="29"/>
@@ -15887,7 +15954,7 @@
     </row>
     <row r="729" spans="1:12">
       <c r="A729" s="29" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B729" s="29"/>
       <c r="D729" s="29"/>
@@ -15902,7 +15969,7 @@
     </row>
     <row r="730" spans="1:12">
       <c r="A730" s="29" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B730" s="29"/>
       <c r="D730" s="29"/>
@@ -15917,7 +15984,7 @@
     </row>
     <row r="731" spans="1:12">
       <c r="A731" s="29" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="B731" s="29"/>
       <c r="D731" s="29"/>
@@ -15932,7 +15999,7 @@
     </row>
     <row r="732" spans="1:12">
       <c r="A732" s="29" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="B732" s="29"/>
       <c r="D732" s="29"/>
@@ -15947,7 +16014,7 @@
     </row>
     <row r="733" spans="1:12">
       <c r="A733" s="29" t="s">
-        <v>532</v>
+        <v>865</v>
       </c>
       <c r="B733" s="29"/>
       <c r="D733" s="29"/>
@@ -15962,7 +16029,7 @@
     </row>
     <row r="734" spans="1:12">
       <c r="A734" s="29" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B734" s="29"/>
       <c r="D734" s="29"/>
@@ -15977,7 +16044,7 @@
     </row>
     <row r="735" spans="1:12">
       <c r="A735" s="29" t="s">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="B735" s="29"/>
       <c r="D735" s="29"/>
@@ -15992,7 +16059,7 @@
     </row>
     <row r="736" spans="1:12">
       <c r="A736" s="29" t="s">
-        <v>534</v>
+        <v>868</v>
       </c>
       <c r="B736" s="29"/>
       <c r="D736" s="29"/>
@@ -16007,7 +16074,7 @@
     </row>
     <row r="737" spans="1:12">
       <c r="A737" s="29" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B737" s="29"/>
       <c r="D737" s="29"/>
@@ -16022,7 +16089,7 @@
     </row>
     <row r="738" spans="1:12">
       <c r="A738" s="29" t="s">
-        <v>536</v>
+        <v>870</v>
       </c>
       <c r="B738" s="29"/>
       <c r="D738" s="29"/>
@@ -16037,7 +16104,7 @@
     </row>
     <row r="739" spans="1:12">
       <c r="A739" s="29" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B739" s="29"/>
       <c r="D739" s="29"/>
@@ -16052,7 +16119,7 @@
     </row>
     <row r="740" spans="1:12">
       <c r="A740" s="29" t="s">
-        <v>876</v>
+        <v>531</v>
       </c>
       <c r="B740" s="29"/>
       <c r="D740" s="29"/>
@@ -16067,7 +16134,7 @@
     </row>
     <row r="741" spans="1:12">
       <c r="A741" s="29" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B741" s="29"/>
       <c r="D741" s="29"/>
@@ -16082,7 +16149,7 @@
     </row>
     <row r="742" spans="1:12">
       <c r="A742" s="29" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B742" s="29"/>
       <c r="D742" s="29"/>
@@ -16097,7 +16164,7 @@
     </row>
     <row r="743" spans="1:12">
       <c r="A743" s="29" t="s">
-        <v>878</v>
+        <v>533</v>
       </c>
       <c r="B743" s="29"/>
       <c r="D743" s="29"/>
@@ -16112,7 +16179,7 @@
     </row>
     <row r="744" spans="1:12">
       <c r="A744" s="29" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B744" s="29"/>
       <c r="D744" s="29"/>
@@ -16127,7 +16194,7 @@
     </row>
     <row r="745" spans="1:12">
       <c r="A745" s="29" t="s">
-        <v>880</v>
+        <v>535</v>
       </c>
       <c r="B745" s="29"/>
       <c r="D745" s="29"/>
@@ -16142,7 +16209,7 @@
     </row>
     <row r="746" spans="1:12">
       <c r="A746" s="29" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B746" s="29"/>
       <c r="D746" s="29"/>
@@ -16157,7 +16224,7 @@
     </row>
     <row r="747" spans="1:12">
       <c r="A747" s="29" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B747" s="29"/>
       <c r="D747" s="29"/>
@@ -16172,7 +16239,7 @@
     </row>
     <row r="748" spans="1:12">
       <c r="A748" s="29" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B748" s="29"/>
       <c r="D748" s="29"/>
@@ -16187,7 +16254,7 @@
     </row>
     <row r="749" spans="1:12">
       <c r="A749" s="29" t="s">
-        <v>884</v>
+        <v>536</v>
       </c>
       <c r="B749" s="29"/>
       <c r="D749" s="29"/>
@@ -16202,7 +16269,7 @@
     </row>
     <row r="750" spans="1:12">
       <c r="A750" s="29" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B750" s="29"/>
       <c r="D750" s="29"/>
@@ -16217,7 +16284,7 @@
     </row>
     <row r="751" spans="1:12">
       <c r="A751" s="29" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="B751" s="29"/>
       <c r="D751" s="29"/>
@@ -16232,7 +16299,7 @@
     </row>
     <row r="752" spans="1:12">
       <c r="A752" s="29" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B752" s="29"/>
       <c r="D752" s="29"/>
@@ -16247,7 +16314,7 @@
     </row>
     <row r="753" spans="1:12">
       <c r="A753" s="29" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B753" s="29"/>
       <c r="D753" s="29"/>
@@ -16262,7 +16329,7 @@
     </row>
     <row r="754" spans="1:12">
       <c r="A754" s="29" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B754" s="29"/>
       <c r="D754" s="29"/>
@@ -16277,7 +16344,7 @@
     </row>
     <row r="755" spans="1:12">
       <c r="A755" s="29" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B755" s="29"/>
       <c r="D755" s="29"/>
@@ -16292,7 +16359,7 @@
     </row>
     <row r="756" spans="1:12">
       <c r="A756" s="29" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B756" s="29"/>
       <c r="D756" s="29"/>
@@ -16307,7 +16374,7 @@
     </row>
     <row r="757" spans="1:12">
       <c r="A757" s="29" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B757" s="29"/>
       <c r="D757" s="29"/>
@@ -16321,8 +16388,8 @@
       <c r="L757" s="29"/>
     </row>
     <row r="758" spans="1:12">
-      <c r="A758" s="29" t="b">
-        <v>1</v>
+      <c r="A758" s="29" t="s">
+        <v>885</v>
       </c>
       <c r="B758" s="29"/>
       <c r="D758" s="29"/>
@@ -16337,7 +16404,7 @@
     </row>
     <row r="759" spans="1:12">
       <c r="A759" s="29" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B759" s="29"/>
       <c r="D759" s="29"/>
@@ -16352,7 +16419,7 @@
     </row>
     <row r="760" spans="1:12">
       <c r="A760" s="29" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B760" s="29"/>
       <c r="D760" s="29"/>
@@ -16367,7 +16434,7 @@
     </row>
     <row r="761" spans="1:12">
       <c r="A761" s="29" t="s">
-        <v>545</v>
+        <v>888</v>
       </c>
       <c r="B761" s="29"/>
       <c r="D761" s="29"/>
@@ -16382,7 +16449,7 @@
     </row>
     <row r="762" spans="1:12">
       <c r="A762" s="29" t="s">
-        <v>546</v>
+        <v>889</v>
       </c>
       <c r="B762" s="29"/>
       <c r="D762" s="29"/>
@@ -16397,7 +16464,7 @@
     </row>
     <row r="763" spans="1:12">
       <c r="A763" s="29" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B763" s="29"/>
       <c r="D763" s="29"/>
@@ -16412,7 +16479,7 @@
     </row>
     <row r="764" spans="1:12">
       <c r="A764" s="29" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B764" s="29"/>
       <c r="D764" s="29"/>
@@ -16426,8 +16493,8 @@
       <c r="L764" s="29"/>
     </row>
     <row r="765" spans="1:12">
-      <c r="A765" s="29" t="s">
-        <v>897</v>
+      <c r="A765" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="B765" s="29"/>
       <c r="D765" s="29"/>
@@ -16442,7 +16509,7 @@
     </row>
     <row r="766" spans="1:12">
       <c r="A766" s="29" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B766" s="29"/>
       <c r="D766" s="29"/>
@@ -16457,7 +16524,7 @@
     </row>
     <row r="767" spans="1:12">
       <c r="A767" s="29" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B767" s="29"/>
       <c r="D767" s="29"/>
@@ -16472,7 +16539,7 @@
     </row>
     <row r="768" spans="1:12">
       <c r="A768" s="29" t="s">
-        <v>900</v>
+        <v>544</v>
       </c>
       <c r="B768" s="29"/>
       <c r="D768" s="29"/>
@@ -16487,7 +16554,7 @@
     </row>
     <row r="769" spans="1:12">
       <c r="A769" s="29" t="s">
-        <v>901</v>
+        <v>545</v>
       </c>
       <c r="B769" s="29"/>
       <c r="D769" s="29"/>
@@ -16502,7 +16569,7 @@
     </row>
     <row r="770" spans="1:12">
       <c r="A770" s="29" t="s">
-        <v>551</v>
+        <v>894</v>
       </c>
       <c r="B770" s="29"/>
       <c r="D770" s="29"/>
@@ -16517,7 +16584,7 @@
     </row>
     <row r="771" spans="1:12">
       <c r="A771" s="29" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B771" s="29"/>
       <c r="D771" s="29"/>
@@ -16532,7 +16599,7 @@
     </row>
     <row r="772" spans="1:12">
       <c r="A772" s="29" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B772" s="29"/>
       <c r="D772" s="29"/>
@@ -16547,7 +16614,7 @@
     </row>
     <row r="773" spans="1:12">
       <c r="A773" s="29" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B773" s="29"/>
       <c r="D773" s="29"/>
@@ -16562,7 +16629,7 @@
     </row>
     <row r="774" spans="1:12">
       <c r="A774" s="29" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B774" s="29"/>
       <c r="D774" s="29"/>
@@ -16577,7 +16644,7 @@
     </row>
     <row r="775" spans="1:12">
       <c r="A775" s="29" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B775" s="29"/>
       <c r="D775" s="29"/>
@@ -16592,7 +16659,7 @@
     </row>
     <row r="776" spans="1:12">
       <c r="A776" s="29" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B776" s="29"/>
       <c r="D776" s="29"/>
@@ -16607,7 +16674,7 @@
     </row>
     <row r="777" spans="1:12">
       <c r="A777" s="29" t="s">
-        <v>908</v>
+        <v>550</v>
       </c>
       <c r="B777" s="29"/>
       <c r="D777" s="29"/>
@@ -16622,7 +16689,7 @@
     </row>
     <row r="778" spans="1:12">
       <c r="A778" s="29" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B778" s="29"/>
       <c r="D778" s="29"/>
@@ -16637,7 +16704,7 @@
     </row>
     <row r="779" spans="1:12">
       <c r="A779" s="29" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="B779" s="29"/>
       <c r="D779" s="29"/>
@@ -16652,7 +16719,7 @@
     </row>
     <row r="780" spans="1:12">
       <c r="A780" s="29" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B780" s="29"/>
       <c r="D780" s="29"/>
@@ -16667,7 +16734,7 @@
     </row>
     <row r="781" spans="1:12">
       <c r="A781" s="29" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B781" s="29"/>
       <c r="D781" s="29"/>
@@ -16682,7 +16749,7 @@
     </row>
     <row r="782" spans="1:12">
       <c r="A782" s="29" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B782" s="29"/>
       <c r="D782" s="29"/>
@@ -16697,7 +16764,7 @@
     </row>
     <row r="783" spans="1:12">
       <c r="A783" s="29" t="s">
-        <v>556</v>
+        <v>906</v>
       </c>
       <c r="B783" s="29"/>
       <c r="D783" s="29"/>
@@ -16712,7 +16779,7 @@
     </row>
     <row r="784" spans="1:12">
       <c r="A784" s="29" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B784" s="29"/>
       <c r="D784" s="29"/>
@@ -16727,7 +16794,7 @@
     </row>
     <row r="785" spans="1:12">
       <c r="A785" s="29" t="s">
-        <v>557</v>
+        <v>908</v>
       </c>
       <c r="B785" s="29"/>
       <c r="D785" s="29"/>
@@ -16742,7 +16809,7 @@
     </row>
     <row r="786" spans="1:12">
       <c r="A786" s="29" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B786" s="29"/>
       <c r="D786" s="29"/>
@@ -16757,7 +16824,7 @@
     </row>
     <row r="787" spans="1:12">
       <c r="A787" s="29" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B787" s="29"/>
       <c r="D787" s="29"/>
@@ -16772,7 +16839,7 @@
     </row>
     <row r="788" spans="1:12">
       <c r="A788" s="29" t="s">
-        <v>559</v>
+        <v>911</v>
       </c>
       <c r="B788" s="29"/>
       <c r="D788" s="29"/>
@@ -16787,7 +16854,7 @@
     </row>
     <row r="789" spans="1:12">
       <c r="A789" s="29" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B789" s="29"/>
       <c r="D789" s="29"/>
@@ -16802,7 +16869,7 @@
     </row>
     <row r="790" spans="1:12">
       <c r="A790" s="29" t="s">
-        <v>918</v>
+        <v>555</v>
       </c>
       <c r="B790" s="29"/>
       <c r="D790" s="29"/>
@@ -16817,7 +16884,7 @@
     </row>
     <row r="791" spans="1:12">
       <c r="A791" s="29" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B791" s="29"/>
       <c r="D791" s="29"/>
@@ -16832,7 +16899,7 @@
     </row>
     <row r="792" spans="1:12">
       <c r="A792" s="29" t="s">
-        <v>920</v>
+        <v>556</v>
       </c>
       <c r="B792" s="29"/>
       <c r="D792" s="29"/>
@@ -16847,7 +16914,7 @@
     </row>
     <row r="793" spans="1:12">
       <c r="A793" s="29" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B793" s="29"/>
       <c r="D793" s="29"/>
@@ -16862,7 +16929,7 @@
     </row>
     <row r="794" spans="1:12">
       <c r="A794" s="29" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B794" s="29"/>
       <c r="D794" s="29"/>
@@ -16877,7 +16944,7 @@
     </row>
     <row r="795" spans="1:12">
       <c r="A795" s="29" t="s">
-        <v>923</v>
+        <v>558</v>
       </c>
       <c r="B795" s="29"/>
       <c r="D795" s="29"/>
@@ -16892,7 +16959,7 @@
     </row>
     <row r="796" spans="1:12">
       <c r="A796" s="29" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B796" s="29"/>
       <c r="D796" s="29"/>
@@ -16907,7 +16974,7 @@
     </row>
     <row r="797" spans="1:12">
       <c r="A797" s="29" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B797" s="29"/>
       <c r="D797" s="29"/>
@@ -16916,7 +16983,7 @@
     </row>
     <row r="798" spans="1:12">
       <c r="A798" s="29" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="B798" s="29"/>
       <c r="D798" s="29"/>
@@ -16925,7 +16992,7 @@
     </row>
     <row r="799" spans="1:12">
       <c r="A799" s="29" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B799" s="29"/>
       <c r="D799" s="29"/>
@@ -16934,7 +17001,7 @@
     </row>
     <row r="800" spans="1:12">
       <c r="A800" s="29" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="B800" s="29"/>
       <c r="D800" s="29"/>
@@ -16943,7 +17010,7 @@
     </row>
     <row r="801" spans="1:6">
       <c r="A801" s="29" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="B801" s="29"/>
       <c r="D801" s="29"/>
@@ -16952,25 +17019,88 @@
     </row>
     <row r="802" spans="1:6">
       <c r="A802" s="29" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B802" s="29"/>
       <c r="D802" s="29"/>
       <c r="E802" s="29"/>
       <c r="F802" s="29"/>
     </row>
+    <row r="803" spans="1:6">
+      <c r="A803" s="29" t="s">
+        <v>923</v>
+      </c>
+      <c r="B803" s="29"/>
+      <c r="D803" s="29"/>
+      <c r="E803" s="29"/>
+      <c r="F803" s="29"/>
+    </row>
+    <row r="804" spans="1:6">
+      <c r="A804" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="B804" s="29"/>
+      <c r="D804" s="29"/>
+      <c r="E804" s="29"/>
+      <c r="F804" s="29"/>
+    </row>
+    <row r="805" spans="1:6">
+      <c r="A805" s="29" t="s">
+        <v>925</v>
+      </c>
+      <c r="B805" s="29"/>
+      <c r="D805" s="29"/>
+      <c r="E805" s="29"/>
+      <c r="F805" s="29"/>
+    </row>
+    <row r="806" spans="1:6">
+      <c r="A806" s="29" t="s">
+        <v>926</v>
+      </c>
+      <c r="B806" s="29"/>
+      <c r="D806" s="29"/>
+      <c r="E806" s="29"/>
+      <c r="F806" s="29"/>
+    </row>
+    <row r="807" spans="1:6">
+      <c r="A807" s="29" t="s">
+        <v>927</v>
+      </c>
+      <c r="B807" s="29"/>
+      <c r="D807" s="29"/>
+      <c r="E807" s="29"/>
+      <c r="F807" s="29"/>
+    </row>
+    <row r="808" spans="1:6">
+      <c r="A808" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="B808" s="29"/>
+      <c r="D808" s="29"/>
+      <c r="E808" s="29"/>
+      <c r="F808" s="29"/>
+    </row>
+    <row r="809" spans="1:6">
+      <c r="A809" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="B809" s="29"/>
+      <c r="D809" s="29"/>
+      <c r="E809" s="29"/>
+      <c r="F809" s="29"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="A84">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A89">
+  <conditionalFormatting sqref="A85:A92">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A81:A89">
-      <formula1>LEN(A81)=LEN(SUBSTITUTE(A81," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A84:A92">
+      <formula1>LEN(A84)=LEN(SUBSTITUTE(A84," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B81 B83:B92"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B84 B86:B95"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
